--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -805,10 +805,10 @@
         <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I3" t="n">
         <v>2.7</v>
@@ -835,7 +835,7 @@
         <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
         <v>2.42</v>
@@ -1510,7 +1510,7 @@
         <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
         <v>1.54</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.07</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H13" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="I13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -835,7 +835,7 @@
         <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>1.52</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J5" t="n">
         <v>3.45</v>
@@ -1105,7 +1105,7 @@
         <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J12" t="n">
         <v>3.95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.45</v>
@@ -1105,7 +1105,7 @@
         <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
         <v>1.49</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
@@ -1366,7 +1366,7 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
@@ -1384,13 +1384,13 @@
         <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
         <v>3</v>
@@ -1402,7 +1402,7 @@
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.86</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>950</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
         <v>2.7</v>
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8.6</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
         <v>2.8</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
         <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
         <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
         <v>2.14</v>
@@ -1348,7 +1348,7 @@
         <v>1.49</v>
       </c>
       <c r="H7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1360,7 +1360,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G10" t="n">
         <v>1.78</v>
@@ -1756,7 +1756,7 @@
         <v>2.36</v>
       </c>
       <c r="I10" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
@@ -1885,16 +1885,16 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.07</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I12" t="n">
         <v>9.800000000000001</v>
@@ -2032,7 +2032,7 @@
         <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
         <v>5.3</v>
@@ -2185,7 +2185,7 @@
         <v>1.99</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
         <v>1.74</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
         <v>1.86</v>
@@ -805,16 +805,16 @@
         <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -940,13 +940,13 @@
         <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>8.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>5.1</v>
@@ -970,13 +970,13 @@
         <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1075,7 +1075,7 @@
         <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
         <v>2.34</v>
@@ -1084,7 +1084,7 @@
         <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1360,22 +1360,22 @@
         <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
@@ -1384,10 +1384,10 @@
         <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="U7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1510,7 +1510,7 @@
         <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1885,16 +1885,16 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>1.51</v>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H12" t="n">
         <v>8.6</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H13" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
         <v>5.3</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -685,94 +685,94 @@
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.24</v>
@@ -814,22 +814,22 @@
         <v>2.56</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
         <v>1.97</v>
@@ -838,76 +838,76 @@
         <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1105,7 +1105,7 @@
         <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
         <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1375,7 +1375,7 @@
         <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
@@ -1435,7 +1435,7 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>70</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
         <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
@@ -1915,7 +1915,7 @@
         <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -676,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -688,10 +688,10 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -703,28 +703,28 @@
         <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.89</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
         <v>75</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="AD2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
         <v>50</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
@@ -820,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>1.97</v>
@@ -838,76 +838,76 @@
         <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
         <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG3" t="n">
         <v>16</v>
       </c>
-      <c r="AE3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H4" t="n">
         <v>8.6</v>
@@ -955,10 +955,10 @@
         <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>2.42</v>
@@ -973,7 +973,7 @@
         <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
         <v>2.2</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1078,10 +1078,10 @@
         <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1090,16 +1090,16 @@
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
         <v>2.06</v>
@@ -1108,76 +1108,76 @@
         <v>1.74</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1348,7 +1348,7 @@
         <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>12</v>
@@ -1384,7 +1384,7 @@
         <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
         <v>1.52</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
         <v>2.94</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G10" t="n">
         <v>1.76</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>4.4</v>
@@ -1915,7 +1915,7 @@
         <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G12" t="n">
         <v>1.54</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.95</v>
@@ -2161,7 +2161,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J13" t="n">
         <v>4.6</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
         <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
         <v>1.37</v>
@@ -712,13 +712,13 @@
         <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
         <v>32</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>30</v>
@@ -808,7 +808,7 @@
         <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I3" t="n">
         <v>2.7</v>
@@ -856,16 +856,16 @@
         <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
         <v>15.5</v>
@@ -880,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
@@ -895,7 +895,7 @@
         <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
@@ -904,7 +904,7 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
         <v>25</v>
@@ -940,7 +940,7 @@
         <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>8.6</v>
@@ -955,7 +955,7 @@
         <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -973,10 +973,10 @@
         <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1075,43 +1075,43 @@
         <v>2.94</v>
       </c>
       <c r="G5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
         <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,7 +1123,7 @@
         <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1132,10 +1132,10 @@
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
@@ -1144,19 +1144,19 @@
         <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1213,10 +1213,10 @@
         <v>2.54</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1225,94 +1225,94 @@
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
         <v>1.5</v>
@@ -1351,7 +1351,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
@@ -1369,13 +1369,13 @@
         <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
         <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
@@ -1390,7 +1390,7 @@
         <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
         <v>3</v>
@@ -1423,13 +1423,13 @@
         <v>7.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
         <v>3.75</v>
@@ -1894,7 +1894,7 @@
         <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1915,7 +1915,7 @@
         <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q13" t="n">
         <v>1.83</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
         <v>5.7</v>
@@ -691,22 +691,22 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.93</v>
@@ -715,31 +715,31 @@
         <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,10 +760,10 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G3" t="n">
         <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
@@ -826,28 +826,28 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
         <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
@@ -859,7 +859,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -871,7 +871,7 @@
         <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
@@ -892,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
         <v>42</v>
@@ -940,7 +940,7 @@
         <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H4" t="n">
         <v>8.6</v>
@@ -1075,7 +1075,7 @@
         <v>2.94</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
         <v>2.28</v>
@@ -1084,13 +1084,13 @@
         <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1108,10 +1108,10 @@
         <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,13 +1123,13 @@
         <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
@@ -1138,16 +1138,16 @@
         <v>46</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
         <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
         <v>32</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,19 +1231,19 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
         <v>3.75</v>
@@ -1252,13 +1252,13 @@
         <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
@@ -1285,25 +1285,25 @@
         <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U7" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.42</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.86</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.94</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>3.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="H10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.04</v>
       </c>
-      <c r="I10" t="n">
-        <v>20</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K10" t="n">
-        <v>980</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.68</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
       <c r="G11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.48</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,260 +2003,2690 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="H12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K12" t="n">
         <v>8.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X13" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Union St Gilloise</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Pafos FC</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X20" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Kairat Almaty</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H23" t="n">
+        <v>55</v>
+      </c>
+      <c r="I23" t="n">
+        <v>65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>760</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Boyaca Chico</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K28" t="n">
+        <v>980</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Deportivo Pereira</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="F31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,19 +805,19 @@
         <v>2.84</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -829,13 +829,13 @@
         <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
         <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -847,16 +847,16 @@
         <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -868,7 +868,7 @@
         <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -880,10 +880,10 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -940,19 +940,19 @@
         <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -970,7 +970,7 @@
         <v>2.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
         <v>1.5</v>
@@ -979,16 +979,16 @@
         <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1078,10 +1078,10 @@
         <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
         <v>3.45</v>
@@ -1102,7 +1102,7 @@
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
         <v>1.79</v>
@@ -1114,13 +1114,13 @@
         <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="W5" t="n">
         <v>1.4</v>
@@ -1150,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1234,7 +1234,7 @@
         <v>1.69</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P6" t="n">
         <v>1.69</v>
@@ -1360,13 +1360,13 @@
         <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
         <v>1.51</v>
@@ -1378,10 +1378,10 @@
         <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
         <v>2.58</v>
@@ -1495,7 +1495,7 @@
         <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1504,7 +1504,7 @@
         <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>2.4</v>
@@ -1516,7 +1516,7 @@
         <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
         <v>1.6</v>
@@ -1579,7 +1579,7 @@
         <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>14.5</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.15</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.16</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
         <v>11</v>
@@ -1630,34 +1630,34 @@
         <v>11.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S9" t="n">
         <v>1.95</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
         <v>1.04</v>
@@ -1666,7 +1666,7 @@
         <v>7.6</v>
       </c>
       <c r="X9" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
         <v>300</v>
@@ -1708,13 +1708,13 @@
         <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.6</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.61</v>
-      </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1765,52 +1765,52 @@
         <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
         <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
         <v>11.5</v>
@@ -1849,7 +1849,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
         <v>55</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
         <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.7</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
         <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T11" t="n">
         <v>1.64</v>
@@ -1930,7 +1930,7 @@
         <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>1.46</v>
@@ -1948,7 +1948,7 @@
         <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1966,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>32</v>
@@ -1981,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
@@ -2023,52 +2023,52 @@
         <v>1.25</v>
       </c>
       <c r="H12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="K12" t="n">
-        <v>8.4</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O12" t="n">
         <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q12" t="n">
         <v>1.34</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T12" t="n">
         <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
         <v>48</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>120</v>
@@ -2113,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="AL12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
         <v>110</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
         <v>1.63</v>
@@ -2170,28 +2170,28 @@
         <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q13" t="n">
         <v>1.37</v>
       </c>
       <c r="R13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S13" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="T13" t="n">
         <v>1.46</v>
@@ -2203,22 +2203,22 @@
         <v>2.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="n">
         <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
@@ -2239,25 +2239,25 @@
         <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
         <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="I14" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="J14" t="n">
         <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AI14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK14" t="n">
         <v>34</v>
       </c>
-      <c r="AB14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>27</v>
-      </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB15" t="n">
         <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
         <v>13.5</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.65</v>
+        <v>1.15</v>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.16</v>
       </c>
       <c r="H16" t="n">
-        <v>2.18</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>26</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>11</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>11.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>12.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>4.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>2.56</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>2.26</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="n">
-        <v>3.15</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.74</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="W17" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AE17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL17" t="n">
         <v>32</v>
       </c>
-      <c r="AB17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AM17" t="n">
         <v>55</v>
       </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>75</v>
-      </c>
       <c r="AN17" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2827,37 +2827,37 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
         <v>1.91</v>
@@ -2866,73 +2866,73 @@
         <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
         <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
         <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2962,28 +2962,28 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
         <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I19" t="n">
         <v>1.77</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>6.4</v>
@@ -2995,19 +2995,19 @@
         <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
         <v>1.72</v>
       </c>
       <c r="S19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T19" t="n">
         <v>1.55</v>
       </c>
       <c r="U19" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="V19" t="n">
         <v>2.28</v>
@@ -3022,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
         <v>19.5</v>
@@ -3052,7 +3052,7 @@
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="n">
         <v>46</v>
@@ -3067,7 +3067,7 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.58</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
-        <v>1.59</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>2.34</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>2.36</v>
       </c>
       <c r="J20" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.68</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>2.68</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>55</v>
       </c>
-      <c r="AA20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,55 +3223,55 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>2.42</v>
       </c>
       <c r="T21" t="n">
         <v>1.68</v>
@@ -3280,64 +3280,64 @@
         <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>2.68</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI21" t="n">
         <v>60</v>
       </c>
-      <c r="AB21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>32</v>
-      </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.3</v>
+        <v>2.34</v>
       </c>
       <c r="G22" t="n">
-        <v>1.31</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>11</v>
       </c>
-      <c r="I22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.15</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="G23" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="H23" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="I23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y23" t="n">
         <v>65</v>
       </c>
-      <c r="J23" t="n">
-        <v>20</v>
-      </c>
-      <c r="K23" t="n">
-        <v>22</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>11</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
         <v>85</v>
       </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>760</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>440</v>
-      </c>
       <c r="AN23" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>1.06</v>
       </c>
       <c r="G24" t="n">
-        <v>4.6</v>
+        <v>1.07</v>
       </c>
       <c r="H24" t="n">
-        <v>1.85</v>
+        <v>55</v>
       </c>
       <c r="I24" t="n">
-        <v>1.86</v>
+        <v>65</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>23</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>4.8</v>
+        <v>13.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="P24" t="n">
-        <v>2.34</v>
+        <v>5.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>2.7</v>
       </c>
       <c r="S24" t="n">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>2.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="V24" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.28</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
         <v>20</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>21</v>
       </c>
-      <c r="AC24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>17</v>
-      </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>95</v>
+        <v>8.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>490</v>
       </c>
       <c r="AN24" t="n">
-        <v>42</v>
+        <v>1.88</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.42</v>
       </c>
-      <c r="H25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S25" t="n">
-        <v>6</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.55</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>2.08</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="X25" t="n">
-        <v>8.6</v>
+        <v>19.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD25" t="n">
-        <v>27</v>
-      </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="n">
         <v>48</v>
       </c>
-      <c r="AK25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>100</v>
-      </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.15</v>
+        <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>1.16</v>
+        <v>2.42</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>2.86</v>
       </c>
       <c r="K26" t="n">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>12.5</v>
+        <v>1.42</v>
       </c>
       <c r="O26" t="n">
-        <v>1.07</v>
+        <v>1.64</v>
       </c>
       <c r="P26" t="n">
-        <v>4.7</v>
+        <v>1.42</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.25</v>
+        <v>2.96</v>
       </c>
       <c r="R26" t="n">
-        <v>2.56</v>
+        <v>1.11</v>
       </c>
       <c r="S26" t="n">
-        <v>1.61</v>
+        <v>6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="U26" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="V26" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="X26" t="n">
-        <v>80</v>
+        <v>8.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="AC26" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD26" t="n">
         <v>27</v>
       </c>
-      <c r="AD26" t="n">
-        <v>85</v>
-      </c>
       <c r="AE26" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AK26" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4183,16 +4183,16 @@
         <v>1.74</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>1.09</v>
+        <v>2.92</v>
       </c>
       <c r="K28" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
         <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,7 +4225,7 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W28" t="n">
         <v>2.34</v>
@@ -4315,31 +4315,31 @@
         <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K29" t="n">
         <v>3.25</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P29" t="n">
         <v>1.53</v>
@@ -4348,82 +4348,82 @@
         <v>2.68</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,261 +4433,1206 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="G30" t="n">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="H30" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="I30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC30" t="n">
         <v>9.6</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Santa Fe</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Deportivo Pereira</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="F38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H38" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X38" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
         <v>10.5</v>
       </c>
-      <c r="J31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
+      <c r="AG38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -700,7 +700,7 @@
         <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
         <v>1.34</v>
@@ -715,40 +715,40 @@
         <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -811,10 +811,10 @@
         <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -832,10 +832,10 @@
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -850,64 +850,64 @@
         <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AJ3" t="n">
         <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>9.199999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>110</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -973,22 +973,22 @@
         <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.27</v>
@@ -1096,34 +1096,34 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
         <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1210,10 +1210,10 @@
         <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
         <v>4.1</v>
@@ -1231,79 +1231,79 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O6" t="n">
         <v>1.02</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
         <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
         <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1378,10 +1378,10 @@
         <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
         <v>2.58</v>
@@ -1393,7 +1393,7 @@
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
         <v>3.1</v>
@@ -1489,10 +1489,10 @@
         <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1501,10 +1501,10 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
         <v>2.4</v>
@@ -1516,7 +1516,7 @@
         <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
         <v>1.6</v>
@@ -1525,10 +1525,10 @@
         <v>2.56</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
@@ -1540,10 +1540,10 @@
         <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
         <v>8.800000000000001</v>
@@ -1618,10 +1618,10 @@
         <v>1.15</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
         <v>11</v>
@@ -1660,13 +1660,13 @@
         <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X9" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1699,7 +1699,7 @@
         <v>55</v>
       </c>
       <c r="AI9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.199999999999999</v>
@@ -1711,7 +1711,7 @@
         <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN9" t="n">
         <v>2.7</v>
@@ -1792,7 +1792,7 @@
         <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
@@ -1846,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>6.6</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G11" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.15</v>
       </c>
       <c r="H11" t="n">
         <v>2.46</v>
@@ -1915,25 +1915,25 @@
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
         <v>17.5</v>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK11" t="n">
         <v>32</v>
@@ -2029,10 +2029,10 @@
         <v>14.5</v>
       </c>
       <c r="J12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K12" t="n">
         <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
         <v>1.2</v>
@@ -2044,16 +2044,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
         <v>1.34</v>
       </c>
       <c r="R12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
         <v>1.86</v>
@@ -2071,7 +2071,7 @@
         <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y12" t="n">
         <v>70</v>
@@ -2080,10 +2080,10 @@
         <v>160</v>
       </c>
       <c r="AA12" t="n">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
         <v>18.5</v>
@@ -2092,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="AE12" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -2155,7 +2155,7 @@
         <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
         <v>1.63</v>
@@ -2164,7 +2164,7 @@
         <v>1.65</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -2218,7 +2218,7 @@
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
@@ -2230,7 +2230,7 @@
         <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
         <v>22</v>
@@ -2242,7 +2242,7 @@
         <v>19.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
         <v>50</v>
@@ -2251,10 +2251,10 @@
         <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>4.8</v>
@@ -2353,7 +2353,7 @@
         <v>28</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -2389,7 +2389,7 @@
         <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>13.5</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
         <v>2.18</v>
@@ -2491,7 +2491,7 @@
         <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>10.5</v>
@@ -2512,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
         <v>38</v>
@@ -2581,7 +2581,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.07</v>
@@ -2593,7 +2593,7 @@
         <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="S16" t="n">
         <v>1.61</v>
@@ -2602,7 +2602,7 @@
         <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.04</v>
@@ -2614,10 +2614,10 @@
         <v>80</v>
       </c>
       <c r="Y16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2629,10 +2629,10 @@
         <v>28</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE16" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="AF16" t="n">
         <v>12</v>
@@ -2641,7 +2641,7 @@
         <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2662,7 +2662,7 @@
         <v>2.26</v>
       </c>
       <c r="AO16" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17">
@@ -2719,25 +2719,25 @@
         <v>5.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
         <v>2.64</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
         <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V17" t="n">
         <v>1.71</v>
@@ -2746,19 +2746,19 @@
         <v>1.47</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
         <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
         <v>9.199999999999999</v>
@@ -2767,7 +2767,7 @@
         <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>25</v>
@@ -2833,10 +2833,10 @@
         <v>2.24</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.7</v>
@@ -2851,7 +2851,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
         <v>1.31</v>
@@ -2860,37 +2860,37 @@
         <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W18" t="n">
         <v>1.8</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z18" t="n">
         <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2920,7 +2920,7 @@
         <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>36</v>
@@ -2929,7 +2929,7 @@
         <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO18" t="n">
         <v>36</v>
@@ -2971,7 +2971,7 @@
         <v>1.75</v>
       </c>
       <c r="I19" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
@@ -3004,13 +3004,13 @@
         <v>2.34</v>
       </c>
       <c r="T19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="n">
         <v>2.64</v>
       </c>
       <c r="V19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3043,7 +3043,7 @@
         <v>42</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH19" t="n">
         <v>16</v>
@@ -3052,10 +3052,10 @@
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
@@ -3130,10 +3130,10 @@
         <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
         <v>3.2</v>
@@ -3193,7 +3193,7 @@
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
@@ -3268,7 +3268,7 @@
         <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S21" t="n">
         <v>2.42</v>
@@ -3382,7 +3382,7 @@
         <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3421,16 +3421,16 @@
         <v>1.73</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
         <v>12</v>
@@ -3505,58 +3505,58 @@
         <v>1.29</v>
       </c>
       <c r="G23" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S23" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="T23" t="n">
         <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V23" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W23" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="X23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y23" t="n">
         <v>65</v>
@@ -3565,10 +3565,10 @@
         <v>130</v>
       </c>
       <c r="AA23" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
         <v>17.5</v>
@@ -3586,10 +3586,10 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
@@ -3604,10 +3604,10 @@
         <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -3649,10 +3649,10 @@
         <v>65</v>
       </c>
       <c r="J24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" t="n">
         <v>1.14</v>
@@ -3688,7 +3688,7 @@
         <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X24" t="n">
         <v>85</v>
@@ -3730,7 +3730,7 @@
         <v>8.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G25" t="n">
         <v>4.3</v>
@@ -3799,10 +3799,10 @@
         <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
@@ -3817,7 +3817,7 @@
         <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
         <v>2.08</v>
@@ -3829,13 +3829,13 @@
         <v>19.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB25" t="n">
         <v>20</v>
@@ -3847,7 +3847,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF25" t="n">
         <v>34</v>
@@ -3862,10 +3862,10 @@
         <v>28</v>
       </c>
       <c r="AJ25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
         <v>48</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="J26" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,34 +3931,34 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.64</v>
       </c>
       <c r="P26" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.11</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T26" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U26" t="n">
         <v>1.52</v>
       </c>
       <c r="V26" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="X26" t="n">
         <v>8.6</v>
@@ -3976,7 +3976,7 @@
         <v>8.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
         <v>27</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G28" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H28" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K28" t="n">
-        <v>60</v>
+        <v>5.6</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,19 +4201,19 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
         <v>3.35</v>
@@ -4222,13 +4222,13 @@
         <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="V28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J29" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,19 +4336,19 @@
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="O29" t="n">
         <v>1.12</v>
       </c>
       <c r="P29" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.68</v>
+        <v>1.55</v>
       </c>
       <c r="R29" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S29" t="n">
         <v>4.4</v>
@@ -4360,10 +4360,10 @@
         <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="H30" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
         <v>6.2</v>
@@ -4468,13 +4468,13 @@
         <v>1.49</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
         <v>1.72</v>
@@ -4483,76 +4483,76 @@
         <v>2.24</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
         <v>1.19</v>
       </c>
       <c r="W30" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>19</v>
       </c>
-      <c r="Z30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AK30" t="n">
         <v>22</v>
       </c>
-      <c r="AK30" t="n">
-        <v>25</v>
-      </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -4606,28 +4606,28 @@
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P31" t="n">
         <v>1.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V31" t="n">
         <v>1.63</v>
@@ -4636,58 +4636,58 @@
         <v>1.41</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="n">
         <v>12</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH31" t="n">
         <v>19</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AI31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK31" t="n">
         <v>42</v>
       </c>
-      <c r="AB31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF31" t="n">
+      <c r="AL31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO31" t="n">
         <v>26</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4750,13 +4750,13 @@
         <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4771,58 +4771,58 @@
         <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z32" t="n">
         <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
         <v>90</v>
       </c>
       <c r="AF32" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK32" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G33" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
         <v>3.65</v>
@@ -4873,10 +4873,10 @@
         <v>1.51</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.66</v>
+        <v>2.96</v>
       </c>
       <c r="O33" t="n">
         <v>1.45</v>
@@ -4888,76 +4888,76 @@
         <v>2.36</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
         <v>1.38</v>
       </c>
       <c r="W33" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG33" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
         <v>24</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO33" t="n">
         <v>60</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4996,7 +4996,7 @@
         <v>5.2</v>
       </c>
       <c r="I34" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
@@ -5011,10 +5011,10 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.66</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P34" t="n">
         <v>1.66</v>
@@ -5023,16 +5023,16 @@
         <v>2.38</v>
       </c>
       <c r="R34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V34" t="n">
         <v>1.21</v>
@@ -5041,58 +5041,58 @@
         <v>2.12</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL34" t="n">
         <v>55</v>
       </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>70</v>
-      </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
@@ -5131,7 +5131,7 @@
         <v>8.4</v>
       </c>
       <c r="I35" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.9</v>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="O35" t="n">
         <v>1.42</v>
       </c>
       <c r="P35" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R35" t="n">
         <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="T35" t="n">
         <v>1.98</v>
@@ -5179,55 +5179,55 @@
         <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB35" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF35" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN35" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36">
@@ -5278,13 +5278,13 @@
         <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P36" t="n">
         <v>1.76</v>
@@ -5293,13 +5293,13 @@
         <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S36" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
         <v>2.1</v>
@@ -5311,58 +5311,58 @@
         <v>1.75</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>30</v>
       </c>
-      <c r="AA36" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH36" t="n">
+      <c r="AK36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN36" t="n">
         <v>22</v>
       </c>
-      <c r="AI36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="I37" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5416,7 +5416,7 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
         <v>1.41</v>
@@ -5431,7 +5431,7 @@
         <v>1.21</v>
       </c>
       <c r="S37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,55 +5440,55 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="W37" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="G38" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="I38" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K38" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P38" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R38" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S38" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V38" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="X38" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z38" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC38" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN38" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>12</v>
-      </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -679,7 +679,7 @@
         <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -691,40 +691,40 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.32</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.85</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.9</v>
       </c>
       <c r="V2" t="n">
         <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>60</v>
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -850,7 +850,7 @@
         <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W3" t="n">
         <v>1.43</v>
@@ -898,7 +898,7 @@
         <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
@@ -1078,7 +1078,7 @@
         <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>2.7</v>
@@ -1102,16 +1102,16 @@
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.68</v>
       </c>
       <c r="T5" t="n">
         <v>1.6</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
@@ -1138,10 +1138,10 @@
         <v>46</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>16</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
@@ -1348,16 +1348,16 @@
         <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,16 +1366,16 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="O7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
@@ -1384,22 +1384,22 @@
         <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
         <v>80</v>
@@ -1417,10 +1417,10 @@
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="n">
         <v>17</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>3.1</v>
@@ -1516,7 +1516,7 @@
         <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
         <v>1.6</v>
@@ -1525,7 +1525,7 @@
         <v>2.56</v>
       </c>
       <c r="V8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
         <v>1.48</v>
@@ -1636,7 +1636,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
@@ -1687,7 +1687,7 @@
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AF9" t="n">
         <v>8.6</v>
@@ -1696,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.199999999999999</v>
@@ -1714,7 +1714,7 @@
         <v>250</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I10" t="n">
         <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.2</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1765,7 +1765,7 @@
         <v>4.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1777,10 +1777,10 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
         <v>1.63</v>
@@ -1795,22 +1795,22 @@
         <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
         <v>11.5</v>
@@ -1825,7 +1825,7 @@
         <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
@@ -1897,7 +1897,7 @@
         <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
@@ -1927,7 +1927,7 @@
         <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
         <v>1.67</v>
@@ -1975,7 +1975,7 @@
         <v>48</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
         <v>38</v>
@@ -2032,7 +2032,7 @@
         <v>7.8</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
         <v>1.2</v>
@@ -2095,7 +2095,7 @@
         <v>170</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.65</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.06</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="U13" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="V13" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG13" t="n">
         <v>13</v>
       </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AH13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
         <v>55</v>
       </c>
-      <c r="AG13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>46</v>
-      </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2320,13 +2320,13 @@
         <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
         <v>1.64</v>
@@ -2341,7 +2341,7 @@
         <v>1.42</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2377,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
         <v>34</v>
@@ -2425,22 +2425,22 @@
         <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
         <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2470,10 +2470,10 @@
         <v>2.4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
@@ -2491,7 +2491,7 @@
         <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>10.5</v>
@@ -2512,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
         <v>38</v>
@@ -2602,7 +2602,7 @@
         <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
         <v>1.04</v>
@@ -2635,13 +2635,13 @@
         <v>310</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG16" t="n">
         <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>2.64</v>
+        <v>3.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="U17" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.71</v>
+        <v>2.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AJ17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK17" t="n">
         <v>50</v>
       </c>
-      <c r="AK17" t="n">
-        <v>28</v>
-      </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>2.24</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I18" t="n">
         <v>3.6</v>
@@ -2842,7 +2842,7 @@
         <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
         <v>1.41</v>
@@ -2857,7 +2857,7 @@
         <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
         <v>1.94</v>
@@ -2866,10 +2866,10 @@
         <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
         <v>2.2</v>
@@ -2878,10 +2878,10 @@
         <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
         <v>14.5</v>
@@ -2914,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
         <v>29</v>
@@ -2926,13 +2926,13 @@
         <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
         <v>16.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2995,19 +2995,19 @@
         <v>2.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
         <v>1.72</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U19" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
         <v>2.3</v>
@@ -3055,7 +3055,7 @@
         <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>1.58</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>1.59</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.36</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>2.68</v>
       </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF20" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AG20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.72</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
         <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA21" t="n">
         <v>55</v>
       </c>
-      <c r="AA21" t="n">
-        <v>150</v>
-      </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AH21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK21" t="n">
         <v>23</v>
       </c>
-      <c r="AE21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>14</v>
-      </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>11.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>7.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>2.24</v>
       </c>
       <c r="S22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN22" t="n">
         <v>3.1</v>
       </c>
-      <c r="T22" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>16</v>
-      </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I23" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>7.6</v>
+        <v>24</v>
       </c>
       <c r="L23" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="R23" t="n">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="S23" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>2.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>1.56</v>
       </c>
       <c r="V23" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>4.4</v>
+        <v>16</v>
       </c>
       <c r="X23" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Y23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK23" t="n">
         <v>18</v>
       </c>
-      <c r="AC23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>12</v>
-      </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>490</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.1</v>
+        <v>1.87</v>
       </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.06</v>
+        <v>4.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.07</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
-        <v>55</v>
+        <v>1.91</v>
       </c>
       <c r="I24" t="n">
-        <v>65</v>
+        <v>1.92</v>
       </c>
       <c r="J24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA24" t="n">
         <v>22</v>
-      </c>
-      <c r="K24" t="n">
-        <v>24</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W24" t="n">
-        <v>16</v>
-      </c>
-      <c r="X24" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
       </c>
       <c r="AB24" t="n">
         <v>20</v>
       </c>
       <c r="AC24" t="n">
-        <v>990</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO24" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>490</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.2</v>
+        <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="H25" t="n">
-        <v>1.91</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1.92</v>
+        <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="P25" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>2.94</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="U25" t="n">
-        <v>2.44</v>
+        <v>1.55</v>
       </c>
       <c r="V25" t="n">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="X25" t="n">
-        <v>19.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>20</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.800000000000001</v>
+        <v>27</v>
       </c>
       <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG25" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AK25" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.08</v>
+        <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>2.34</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.2</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5.9</v>
-      </c>
       <c r="T26" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="U26" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="V26" t="n">
-        <v>1.23</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="X26" t="n">
-        <v>8.6</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
         <v>40</v>
       </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>100</v>
-      </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="27">
@@ -4069,7 +4069,7 @@
         <v>1.02</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
@@ -4222,7 +4222,7 @@
         <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.02</v>
+        <v>1.59</v>
       </c>
       <c r="V28" t="n">
         <v>1.08</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="J29" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.25</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.15</v>
-      </c>
       <c r="S29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="W29" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>38</v>
       </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH29" t="n">
+      <c r="AK29" t="n">
         <v>34</v>
       </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>48</v>
-      </c>
       <c r="AL29" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="G30" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
         <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
         <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W30" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA30" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
         <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN30" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.15</v>
+        <v>2.04</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
-        <v>2.58</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>1.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="P31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.79</v>
-      </c>
       <c r="U31" t="n">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="V31" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AK31" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="G32" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="H32" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="I32" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>1.68</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.42</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
         <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="X32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE32" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ32" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
         <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="G33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I33" t="n">
         <v>2.58</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
         <v>3.35</v>
       </c>
-      <c r="I33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.96</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V33" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="W33" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AF33" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="n">
         <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO33" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -5395,13 +5395,13 @@
         <v>2.88</v>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H37" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I37" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W37" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="H38" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5557,40 +5557,40 @@
         <v>1.35</v>
       </c>
       <c r="P38" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R38" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="U38" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="V38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W38" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
       </c>
       <c r="Z38" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA38" t="n">
-        <v>390</v>
+        <v>530</v>
       </c>
       <c r="AB38" t="n">
         <v>7.2</v>
@@ -5599,10 +5599,10 @@
         <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AE38" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="n">
         <v>8</v>
@@ -5611,28 +5611,433 @@
         <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AJ38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK38" t="n">
         <v>21</v>
       </c>
       <c r="AL38" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AN38" t="n">
         <v>10.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>290</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S40" t="n">
+        <v>6</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X41" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,88 +691,88 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
       </c>
-      <c r="AD2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="n">
         <v>21</v>
       </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
         <v>3.2</v>
@@ -853,7 +853,7 @@
         <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
@@ -904,7 +904,7 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,88 +961,88 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>2.42</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>2.42</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.57</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.27</v>
@@ -1096,88 +1096,88 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>2.94</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V5" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.8</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>80</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1417,7 +1417,7 @@
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AF7" t="n">
         <v>8.199999999999999</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AJ7" t="n">
         <v>17</v>
@@ -1438,13 +1438,13 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1501,10 +1501,10 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>2.4</v>
@@ -1516,7 +1516,7 @@
         <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
         <v>1.6</v>
@@ -1531,7 +1531,7 @@
         <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
@@ -1579,7 +1579,7 @@
         <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>14.5</v>
@@ -1621,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
         <v>11</v>
@@ -1666,7 +1666,7 @@
         <v>7.8</v>
       </c>
       <c r="X9" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
         <v>270</v>
@@ -1714,7 +1714,7 @@
         <v>250</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
         <v>1.62</v>
@@ -1756,7 +1756,7 @@
         <v>5.8</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1825,7 +1825,7 @@
         <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
@@ -1846,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
         <v>6.6</v>
@@ -1900,7 +1900,7 @@
         <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2023,13 +2023,13 @@
         <v>1.25</v>
       </c>
       <c r="H12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>14</v>
       </c>
-      <c r="I12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="J12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>8.199999999999999</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
         <v>120</v>
@@ -2158,10 +2158,10 @@
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2182,7 +2182,7 @@
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q13" t="n">
         <v>1.59</v>
@@ -2194,16 +2194,16 @@
         <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U13" t="n">
         <v>2.76</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2320,13 +2320,13 @@
         <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
         <v>1.64</v>
@@ -2587,10 +2587,10 @@
         <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R16" t="n">
         <v>2.58</v>
@@ -2602,7 +2602,7 @@
         <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
         <v>1.04</v>
@@ -2611,10 +2611,10 @@
         <v>7.4</v>
       </c>
       <c r="X16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z16" t="n">
         <v>310</v>
@@ -2632,7 +2632,7 @@
         <v>85</v>
       </c>
       <c r="AE16" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AF16" t="n">
         <v>12.5</v>
@@ -2641,7 +2641,7 @@
         <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2656,13 +2656,13 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="AO16" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17">
@@ -2698,7 +2698,7 @@
         <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I17" t="n">
         <v>1.65</v>
@@ -2722,16 +2722,16 @@
         <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="n">
         <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T17" t="n">
         <v>1.46</v>
@@ -2749,7 +2749,7 @@
         <v>40</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
         <v>15.5</v>
@@ -2770,7 +2770,7 @@
         <v>13.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
@@ -2779,7 +2779,7 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
         <v>120</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
         <v>3.75</v>
@@ -2863,13 +2863,13 @@
         <v>1.94</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
         <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
         <v>2.2</v>
@@ -2878,19 +2878,19 @@
         <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>14</v>
       </c>
-      <c r="Y18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2980,7 +2980,7 @@
         <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3106,7 +3106,7 @@
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J20" t="n">
         <v>4.8</v>
@@ -3127,7 +3127,7 @@
         <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="n">
         <v>1.56</v>
@@ -3145,7 +3145,7 @@
         <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W20" t="n">
         <v>2.68</v>
@@ -3172,7 +3172,7 @@
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
         <v>11.5</v>
@@ -3235,7 +3235,7 @@
         <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -3247,7 +3247,7 @@
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.38</v>
@@ -3283,7 +3283,7 @@
         <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
         <v>16</v>
@@ -3322,7 +3322,7 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -3337,7 +3337,7 @@
         <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -3373,7 +3373,7 @@
         <v>1.3</v>
       </c>
       <c r="H22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
         <v>12</v>
@@ -3382,7 +3382,7 @@
         <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.19</v>
@@ -3397,22 +3397,22 @@
         <v>1.1</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Q22" t="n">
         <v>1.32</v>
       </c>
       <c r="R22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="S22" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
         <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
         <v>1.09</v>
@@ -3430,7 +3430,7 @@
         <v>130</v>
       </c>
       <c r="AA22" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB22" t="n">
         <v>18</v>
@@ -3517,10 +3517,10 @@
         <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3538,13 +3538,13 @@
         <v>1.22</v>
       </c>
       <c r="R23" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="S23" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="T23" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="U23" t="n">
         <v>1.56</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>990</v>
@@ -3580,13 +3580,13 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3601,7 +3601,7 @@
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AN23" t="n">
         <v>1.87</v>
@@ -3643,10 +3643,10 @@
         <v>4.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="I24" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J24" t="n">
         <v>4.1</v>
@@ -3664,16 +3664,16 @@
         <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
         <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
         <v>2.8</v>
@@ -3685,7 +3685,7 @@
         <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
         <v>1.3</v>
@@ -3700,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
         <v>20</v>
@@ -3730,7 +3730,7 @@
         <v>90</v>
       </c>
       <c r="AK24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL24" t="n">
         <v>48</v>
@@ -3739,10 +3739,10 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="G25" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="O25" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="S25" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="T25" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD25" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>36</v>
       </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>48</v>
-      </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
@@ -3925,7 +3925,7 @@
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3934,7 +3934,7 @@
         <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
         <v>2.12</v>
@@ -3952,7 +3952,7 @@
         <v>1.71</v>
       </c>
       <c r="U26" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
         <v>1.73</v>
@@ -3967,7 +3967,7 @@
         <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
         <v>32</v>
@@ -4009,7 +4009,7 @@
         <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
         <v>16.5</v>
@@ -4069,7 +4069,7 @@
         <v>1.02</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
@@ -4177,109 +4177,109 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G28" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U28" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="V28" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4318,10 +4318,10 @@
         <v>2.58</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
@@ -4336,7 +4336,7 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O29" t="n">
         <v>1.45</v>
@@ -4351,10 +4351,10 @@
         <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
         <v>1.9</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
         <v>1.94</v>
@@ -4480,7 +4480,7 @@
         <v>1.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
@@ -4507,7 +4507,7 @@
         <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="n">
         <v>150</v>
@@ -4546,7 +4546,7 @@
         <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN30" t="n">
         <v>20</v>
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>1.25</v>
+        <v>2.58</v>
       </c>
       <c r="O31" t="n">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="R31" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AK31" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -4759,7 +4759,7 @@
         <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
         <v>1.81</v>
@@ -4774,7 +4774,7 @@
         <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
         <v>46</v>
@@ -4789,7 +4789,7 @@
         <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
         <v>120</v>
@@ -4861,7 +4861,7 @@
         <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4870,34 +4870,34 @@
         <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P33" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U33" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V33" t="n">
         <v>1.63</v>
@@ -4939,7 +4939,7 @@
         <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
         <v>65</v>
@@ -4954,10 +4954,10 @@
         <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G34" t="n">
         <v>1.88</v>
@@ -5002,7 +5002,7 @@
         <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.51</v>
@@ -5011,7 +5011,7 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O34" t="n">
         <v>1.46</v>
@@ -5137,37 +5137,37 @@
         <v>3.9</v>
       </c>
       <c r="K35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L35" t="n">
         <v>1.48</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>1.25</v>
+        <v>2.94</v>
       </c>
       <c r="O35" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q35" t="n">
         <v>2.24</v>
       </c>
       <c r="R35" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="U35" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="V35" t="n">
         <v>1.11</v>
@@ -5209,7 +5209,7 @@
         <v>32</v>
       </c>
       <c r="AI35" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ35" t="n">
         <v>14.5</v>
@@ -5227,7 +5227,7 @@
         <v>12.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36">
@@ -5260,7 +5260,7 @@
         <v>2.18</v>
       </c>
       <c r="G36" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
@@ -5284,13 +5284,13 @@
         <v>3.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R36" t="n">
         <v>1.29</v>
@@ -5299,7 +5299,7 @@
         <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U36" t="n">
         <v>2.1</v>
@@ -5308,10 +5308,10 @@
         <v>1.34</v>
       </c>
       <c r="W36" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
         <v>13</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I37" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5413,91 +5413,91 @@
         <v>1.48</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.41</v>
       </c>
       <c r="P37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q37" t="n">
         <v>2.32</v>
       </c>
       <c r="R37" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V37" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -5527,61 +5527,61 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G38" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H38" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S38" t="n">
         <v>4.2</v>
       </c>
-      <c r="K38" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T38" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="U38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V38" t="n">
         <v>1.1</v>
       </c>
       <c r="W38" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="X38" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -5590,7 +5590,7 @@
         <v>90</v>
       </c>
       <c r="AA38" t="n">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="AB38" t="n">
         <v>7.2</v>
@@ -5599,10 +5599,10 @@
         <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AF38" t="n">
         <v>8</v>
@@ -5614,7 +5614,7 @@
         <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ38" t="n">
         <v>16</v>
@@ -5626,13 +5626,13 @@
         <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN38" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39">
@@ -5695,19 +5695,19 @@
         <v>1.77</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R39" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S39" t="n">
         <v>4.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U39" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V39" t="n">
         <v>1.96</v>
@@ -5752,10 +5752,10 @@
         <v>48</v>
       </c>
       <c r="AJ39" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL39" t="n">
         <v>80</v>
@@ -5764,7 +5764,7 @@
         <v>160</v>
       </c>
       <c r="AN39" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="n">
         <v>21</v>
@@ -5800,7 +5800,7 @@
         <v>2.7</v>
       </c>
       <c r="G40" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
@@ -5818,91 +5818,91 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N40" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="O40" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P40" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="R40" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T40" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="U40" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="V40" t="n">
         <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X40" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO40" t="n">
         <v>100</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5935,19 +5935,19 @@
         <v>3.05</v>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H41" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I41" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J41" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K41" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,40 +5956,40 @@
         <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S41" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T41" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V41" t="n">
         <v>1.52</v>
       </c>
       <c r="W41" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z41" t="n">
         <v>17.5</v>
@@ -5998,16 +5998,16 @@
         <v>48</v>
       </c>
       <c r="AB41" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
         <v>13.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF41" t="n">
         <v>22</v>
@@ -6022,7 +6022,7 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK41" t="n">
         <v>50</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>1.78</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>1.87</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.82</v>
+        <v>4.3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>7.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="I3" t="n">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>1.54</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.19</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN4" t="n">
         <v>13.5</v>
       </c>
-      <c r="AK4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AO4" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.94</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>1.29</v>
       </c>
       <c r="I5" t="n">
-        <v>2.58</v>
+        <v>1.52</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>2.12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>2.94</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.16</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
         <v>970</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AB6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>970</v>
       </c>
-      <c r="Z6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AF6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM6" t="n">
         <v>110</v>
       </c>
-      <c r="AB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AN6" t="n">
         <v>970</v>
       </c>
-      <c r="AG6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>22</v>
-      </c>
       <c r="AO6" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.55</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.7</v>
-      </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.76</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
-        <v>2.56</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>3.35</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>32</v>
       </c>
-      <c r="AB8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>14.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.14</v>
+        <v>2.96</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>26</v>
       </c>
-      <c r="I9" t="n">
-        <v>28</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AF9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>55</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.7</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>2.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.17</v>
       </c>
       <c r="S10" t="n">
-        <v>2.52</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>2.78</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>1.49</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.9</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF11" t="n">
         <v>13</v>
       </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>23</v>
-      </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL11" t="n">
         <v>48</v>
       </c>
-      <c r="AK11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38</v>
-      </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.24</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO12" t="n">
         <v>13.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2143,16 +2143,16 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
@@ -2161,103 +2161,103 @@
         <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>1.14</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>1.15</v>
       </c>
       <c r="H14" t="n">
-        <v>2.24</v>
+        <v>26</v>
       </c>
       <c r="I14" t="n">
-        <v>2.28</v>
+        <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="W14" t="n">
-        <v>1.42</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF14" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>25</v>
-      </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>2.68</v>
       </c>
       <c r="AO14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>1.61</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.18</v>
+        <v>5.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
         <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.36</v>
+        <v>2.6</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB15" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK15" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>38</v>
-      </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.15</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>1.16</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>2.46</v>
       </c>
       <c r="I16" t="n">
-        <v>26</v>
+        <v>2.48</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD16" t="n">
         <v>11.5</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG16" t="n">
         <v>13</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL16" t="n">
         <v>38</v>
       </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>320</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.4</v>
+        <v>1.24</v>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="n">
-        <v>1.64</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
-        <v>1.65</v>
+        <v>14.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="T17" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
-        <v>2.54</v>
+        <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>1.22</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="AB17" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AD17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>55</v>
-      </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>4.8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>5.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.26</v>
+        <v>5.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="I18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.6</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>1.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="X18" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z18" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>24</v>
-      </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AB18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE18" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="I19" t="n">
-        <v>1.76</v>
+        <v>2.42</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.78</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.66</v>
-      </c>
       <c r="V19" t="n">
-        <v>2.3</v>
+        <v>1.71</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
         <v>14</v>
       </c>
-      <c r="Z19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="G20" t="n">
-        <v>1.59</v>
+        <v>1.16</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I20" t="n">
-        <v>6.4</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
+        <v>11</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P20" t="n">
         <v>4.8</v>
       </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.7</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="W20" t="n">
-        <v>2.68</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="Z20" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>14</v>
-      </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>2.26</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>3.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="X21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="n">
         <v>16</v>
       </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>24</v>
-      </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.29</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB22" t="n">
         <v>11</v>
       </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>18</v>
-      </c>
       <c r="AC22" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
         <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.1</v>
+        <v>18.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.06</v>
+        <v>4.7</v>
       </c>
       <c r="G23" t="n">
-        <v>1.07</v>
+        <v>4.8</v>
       </c>
       <c r="H23" t="n">
-        <v>55</v>
+        <v>1.75</v>
       </c>
       <c r="I23" t="n">
-        <v>65</v>
+        <v>1.76</v>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>4.5</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>5.2</v>
+        <v>2.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>1.72</v>
       </c>
       <c r="S23" t="n">
-        <v>1.55</v>
+        <v>2.32</v>
       </c>
       <c r="T23" t="n">
-        <v>2.72</v>
+        <v>1.57</v>
       </c>
       <c r="U23" t="n">
-        <v>1.56</v>
+        <v>2.64</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="W23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH23" t="n">
         <v>16</v>
       </c>
-      <c r="X23" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>990</v>
-      </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.6</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.87</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.2</v>
+        <v>1.57</v>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>1.58</v>
       </c>
       <c r="H24" t="n">
-        <v>1.89</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.34</v>
+        <v>2.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="W24" t="n">
-        <v>1.3</v>
+        <v>2.72</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC24" t="n">
         <v>11</v>
       </c>
-      <c r="Z24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9</v>
-      </c>
       <c r="AD24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>90</v>
+        <v>15.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AM24" t="n">
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>5.9</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.86</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.14</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.43</v>
       </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>170</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.25</v>
+        <v>1.29</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.34</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>11.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W26" t="n">
         <v>4.3</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="AB26" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL26" t="n">
         <v>23</v>
       </c>
-      <c r="AF26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>40</v>
-      </c>
       <c r="AM26" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>3.1</v>
       </c>
       <c r="AO26" t="n">
-        <v>16.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,75 +4028,75 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.02</v>
+        <v>13.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>5.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="R27" t="n">
-        <v>1.08</v>
+        <v>2.7</v>
       </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4120,31 +4120,31 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.57</v>
+        <v>4.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>1.86</v>
       </c>
       <c r="I28" t="n">
-        <v>9.199999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>1.71</v>
       </c>
       <c r="R28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.28</v>
       </c>
-      <c r="S28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.52</v>
-      </c>
       <c r="X28" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AA28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB28" t="n">
         <v>20</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM28" t="n">
         <v>75</v>
       </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.05</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.92</v>
+        <v>2.32</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AJ29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK29" t="n">
         <v>38</v>
       </c>
-      <c r="AK29" t="n">
-        <v>34</v>
-      </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="AN29" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="G30" t="n">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>2.32</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>2.34</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="R30" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="W30" t="n">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="X30" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG30" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
       <c r="AH30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN30" t="n">
         <v>29</v>
       </c>
-      <c r="AI30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>20</v>
-      </c>
       <c r="AO30" t="n">
-        <v>130</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.58</v>
+        <v>1.02</v>
       </c>
       <c r="O31" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="R31" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="S31" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="T31" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,126 +4703,126 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="G32" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T32" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="W32" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI32" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ32" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM32" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="J33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.3</v>
       </c>
-      <c r="K33" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L33" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O33" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R33" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U33" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.63</v>
       </c>
-      <c r="W33" t="n">
-        <v>1.41</v>
-      </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AA33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>38</v>
       </c>
-      <c r="AB33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>65</v>
-      </c>
       <c r="AK33" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
         <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -4973,99 +4973,99 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="G34" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="H34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I34" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="W34" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
@@ -5074,25 +5074,25 @@
         <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK34" t="n">
         <v>25</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM34" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="n">
         <v>970</v>
       </c>
       <c r="AO34" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.52</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>1.59</v>
+        <v>2.46</v>
       </c>
       <c r="H35" t="n">
-        <v>8.4</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X35" t="n">
         <v>9.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD35" t="n">
         <v>21</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AE35" t="n">
         <v>80</v>
       </c>
-      <c r="AA35" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE35" t="n">
+      <c r="AF35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM35" t="n">
         <v>230</v>
       </c>
-      <c r="AF35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>310</v>
-      </c>
       <c r="AN35" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -5243,126 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="G36" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P36" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="V36" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="W36" t="n">
-        <v>1.74</v>
+        <v>2.18</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AA36" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AF36" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL36" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AN36" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -5378,90 +5378,90 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G37" t="n">
         <v>3.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I37" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
         <v>3.15</v>
       </c>
-      <c r="K37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O37" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
         <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W37" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z37" t="n">
         <v>16.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
         <v>12.5</v>
@@ -5470,40 +5470,40 @@
         <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG37" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK37" t="n">
         <v>42</v>
       </c>
       <c r="AL37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="G38" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="H38" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF38" t="n">
         <v>10.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W38" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>480</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>8</v>
-      </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI38" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AJ38" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AK38" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AN38" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AO38" t="n">
-        <v>460</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>1.52</v>
       </c>
       <c r="G39" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.04</v>
+        <v>9.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R39" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="U39" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="V39" t="n">
-        <v>1.96</v>
+        <v>1.11</v>
       </c>
       <c r="W39" t="n">
-        <v>1.27</v>
+        <v>2.68</v>
       </c>
       <c r="X39" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="n">
-        <v>27</v>
+        <v>440</v>
       </c>
       <c r="AB39" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AE39" t="n">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH39" t="n">
         <v>32</v>
       </c>
-      <c r="AG39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>25</v>
-      </c>
       <c r="AI39" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AJ39" t="n">
-        <v>120</v>
+        <v>14.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AL39" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="n">
-        <v>80</v>
+        <v>12.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>21</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="G40" t="n">
-        <v>2.92</v>
+        <v>2.34</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="J40" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="K40" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.92</v>
+        <v>2.16</v>
       </c>
       <c r="R40" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="T40" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="U40" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="W40" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="X40" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AC40" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO40" t="n">
         <v>60</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,125 +5918,665 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N41" t="n">
         <v>3.05</v>
       </c>
-      <c r="G41" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.56</v>
-      </c>
       <c r="O41" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="R41" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S41" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="T41" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="U41" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="V41" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="W41" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X41" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC41" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AF41" t="n">
         <v>22</v>
       </c>
       <c r="AG41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AK42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S44" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF45" t="n">
         <v>22</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AG45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL45" t="n">
         <v>75</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL41" t="n">
+      <c r="AM45" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN45" t="n">
         <v>75</v>
       </c>
-      <c r="AM41" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO41" t="n">
+      <c r="AO45" t="n">
         <v>55</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>2.46</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>6.2</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.87</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,115 +805,115 @@
         <v>4.3</v>
       </c>
       <c r="G3" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>1.54</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>1.08</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>1.52</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>11.5</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>1.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>1.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,7 +1120,7 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>1.08</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.97</v>
+        <v>1.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
-        <v>2.66</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.58</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>1.94</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>9.199999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>1.53</v>
       </c>
       <c r="J8" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="W8" t="n">
-        <v>3.35</v>
+        <v>1.11</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI8" t="n">
         <v>42</v>
       </c>
-      <c r="Z8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>130</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>13.5</v>
+        <v>290</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
         <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.7</v>
+        <v>160</v>
       </c>
       <c r="AO8" t="n">
-        <v>200</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
         <v>970</v>
       </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO9" t="n">
         <v>24</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,108 +1733,108 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.55</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.7</v>
-      </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1843,7 +1843,7 @@
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>2.58</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.41</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>970</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>970</v>
       </c>
-      <c r="Z11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>1.34</v>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>2.22</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.82</v>
+        <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>3.35</v>
       </c>
       <c r="X12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK12" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>38</v>
-      </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>5.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.1</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="U13" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
         <v>14</v>
       </c>
-      <c r="Z13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL13" t="n">
         <v>48</v>
       </c>
-      <c r="AK13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
-      </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,123 +2273,123 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="G14" t="n">
-        <v>1.15</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>26</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF14" t="n">
         <v>8.4</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
         <v>980</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>270</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>55</v>
       </c>
       <c r="AI14" t="n">
         <v>260</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AM14" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.68</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.61</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>5.9</v>
+        <v>2.24</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.52</v>
+        <v>2.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.77</v>
       </c>
       <c r="W15" t="n">
-        <v>2.6</v>
+        <v>1.42</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA15" t="n">
         <v>28</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>55</v>
       </c>
-      <c r="AA15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="n">
         <v>70</v>
       </c>
-      <c r="AF15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>80</v>
-      </c>
       <c r="AN15" t="n">
-        <v>6.6</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="16">
@@ -2548,91 +2548,91 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I16" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V16" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="W16" t="n">
         <v>1.48</v>
       </c>
       <c r="X16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>17</v>
-      </c>
       <c r="AA16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
         <v>23</v>
@@ -2644,7 +2644,7 @@
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
         <v>48</v>
@@ -2653,16 +2653,16 @@
         <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="G17" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I17" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="V17" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="X17" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
         <v>55</v>
       </c>
-      <c r="Y17" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>27</v>
-      </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="AO17" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.2</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>1.65</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.66</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.8</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="S18" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.22</v>
+        <v>2.6</v>
       </c>
       <c r="X18" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>38</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO18" t="n">
         <v>55</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>4.8</v>
       </c>
     </row>
     <row r="19">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2968,106 +2968,106 @@
         <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="I19" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="S19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.5</v>
       </c>
-      <c r="T19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.78</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
         <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>18</v>
-      </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="G20" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="O20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.07</v>
       </c>
-      <c r="P20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.04</v>
-      </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI20" t="n">
         <v>120</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>290</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="I21" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.51</v>
+        <v>2.06</v>
       </c>
       <c r="S21" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="n">
         <v>13</v>
       </c>
-      <c r="Z21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN21" t="n">
         <v>28</v>
       </c>
-      <c r="AB21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>25</v>
-      </c>
       <c r="AO21" t="n">
-        <v>13.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="S22" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AN22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>1.14</v>
       </c>
       <c r="G23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P23" t="n">
         <v>4.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="Q23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.04</v>
       </c>
-      <c r="N23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.3</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.26</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="Y23" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="Z23" t="n">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AD23" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c r="AF23" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>2.24</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.8</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.57</v>
+        <v>3.65</v>
       </c>
       <c r="G24" t="n">
-        <v>1.58</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>2.22</v>
       </c>
       <c r="I24" t="n">
-        <v>6.4</v>
+        <v>2.24</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
         <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>1.18</v>
+        <v>1.81</v>
       </c>
       <c r="W24" t="n">
-        <v>2.72</v>
+        <v>1.37</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="n">
         <v>70</v>
       </c>
-      <c r="AF24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>75</v>
-      </c>
       <c r="AN24" t="n">
-        <v>5.9</v>
+        <v>34</v>
       </c>
       <c r="AO24" t="n">
-        <v>60</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="25">
@@ -3763,85 +3763,85 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="R25" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="V25" t="n">
         <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
         <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
         <v>13.5</v>
@@ -3850,34 +3850,34 @@
         <v>36</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ25" t="n">
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO25" t="n">
         <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L26" t="n">
         <v>1.29</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC26" t="n">
         <v>10.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="n">
         <v>18.5</v>
       </c>
-      <c r="AD26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
       <c r="AH26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI26" t="n">
         <v>24</v>
       </c>
-      <c r="AI26" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.1</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>80</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.06</v>
+        <v>1.58</v>
       </c>
       <c r="G27" t="n">
-        <v>1.07</v>
+        <v>1.59</v>
       </c>
       <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z27" t="n">
         <v>55</v>
       </c>
-      <c r="I27" t="n">
+      <c r="AA27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI27" t="n">
         <v>60</v>
       </c>
-      <c r="J27" t="n">
-        <v>22</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="AJ27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL27" t="n">
         <v>24</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM27" t="n">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.88</v>
+        <v>5.9</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
         <v>4.4</v>
       </c>
-      <c r="G28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>5</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="S28" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U28" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="W28" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="X28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>11</v>
       </c>
-      <c r="Z28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AH28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
         <v>34</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>48</v>
       </c>
       <c r="AM28" t="n">
         <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.800000000000001</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.28</v>
+        <v>1.29</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>7.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>2.32</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>1.43</v>
+        <v>3.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>1.32</v>
       </c>
       <c r="R29" t="n">
-        <v>1.15</v>
+        <v>2.22</v>
       </c>
       <c r="S29" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="X29" t="n">
-        <v>7.4</v>
+        <v>55</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="AA29" t="n">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.6</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO29" t="n">
         <v>80</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>310</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.25</v>
+        <v>1.06</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>1.07</v>
       </c>
       <c r="H30" t="n">
-        <v>2.32</v>
+        <v>55</v>
       </c>
       <c r="I30" t="n">
-        <v>2.34</v>
+        <v>60</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>22</v>
       </c>
       <c r="K30" t="n">
-        <v>3.75</v>
+        <v>23</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>13.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>5.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.87</v>
+        <v>1.22</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>2.72</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>1.56</v>
       </c>
       <c r="T30" t="n">
-        <v>1.71</v>
+        <v>2.72</v>
       </c>
       <c r="U30" t="n">
-        <v>2.32</v>
+        <v>1.56</v>
       </c>
       <c r="V30" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>1.43</v>
+        <v>15.5</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>990</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>8.6</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>1.88</v>
       </c>
       <c r="AO30" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>1.02</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R31" t="n">
-        <v>1.08</v>
+        <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,96 +4703,96 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.56</v>
+        <v>2.28</v>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N32" t="n">
-        <v>2.84</v>
+        <v>2.32</v>
       </c>
       <c r="O32" t="n">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="P32" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.29</v>
       </c>
-      <c r="S32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W32" t="n">
-        <v>2.52</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y32" t="n">
         <v>970</v>
       </c>
-      <c r="Y32" t="n">
-        <v>20</v>
-      </c>
       <c r="Z32" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="AC32" t="n">
         <v>970</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AE32" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AF32" t="n">
         <v>970</v>
@@ -4801,34 +4801,34 @@
         <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI32" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AK32" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN32" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="T33" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
         <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM33" t="n">
         <v>75</v>
       </c>
-      <c r="AB33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AN33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO33" t="n">
         <v>16</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="O34" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.28</v>
+        <v>1.58</v>
       </c>
       <c r="G35" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="T35" t="n">
         <v>2.14</v>
       </c>
       <c r="U35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V35" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="W35" t="n">
-        <v>1.69</v>
+        <v>2.52</v>
       </c>
       <c r="X35" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AF35" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM35" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AO35" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.81</v>
+        <v>2.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.84</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="O36" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P36" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T36" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="U36" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="V36" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>2.18</v>
+        <v>1.62</v>
       </c>
       <c r="X36" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AB36" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
         <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN36" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.15</v>
+        <v>1.86</v>
       </c>
       <c r="G37" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J37" t="n">
         <v>3.4</v>
       </c>
-      <c r="H37" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K37" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R37" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="V37" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC37" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="AD37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF37" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>23</v>
-      </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AJ37" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AK37" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.84</v>
+        <v>2.28</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88</v>
+        <v>2.44</v>
       </c>
       <c r="H38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S38" t="n">
         <v>5</v>
       </c>
-      <c r="I38" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T38" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U38" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V38" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="W38" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="Y38" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA38" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE38" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH38" t="n">
         <v>28</v>
       </c>
       <c r="AI38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO38" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,126 +5648,126 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="H39" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="I39" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R39" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T39" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="U39" t="n">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="V39" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="W39" t="n">
-        <v>2.68</v>
+        <v>2.26</v>
       </c>
       <c r="X39" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AA39" t="n">
-        <v>440</v>
+        <v>210</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE39" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI39" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AJ39" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM39" t="n">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="AN39" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="G40" t="n">
-        <v>2.34</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="I40" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P40" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R40" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S40" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T40" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="W40" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z40" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC40" t="n">
         <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>65</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>30</v>
-      </c>
       <c r="AK40" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN40" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AO40" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.1</v>
+        <v>1.84</v>
       </c>
       <c r="G41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.4</v>
       </c>
-      <c r="H41" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M41" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="O41" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P41" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R41" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T41" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="U41" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="W41" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="X41" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AB41" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG41" t="n">
         <v>11</v>
       </c>
-      <c r="AC41" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF41" t="n">
+      <c r="AH41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>22</v>
       </c>
-      <c r="AG41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>60</v>
-      </c>
       <c r="AK41" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AN41" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO41" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,111 +6053,111 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L42" t="n">
         <v>1.48</v>
       </c>
-      <c r="G42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.37</v>
-      </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T42" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V42" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W42" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z42" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE42" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF42" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI42" t="n">
         <v>200</v>
       </c>
       <c r="AJ42" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK42" t="n">
         <v>21</v>
@@ -6166,13 +6166,13 @@
         <v>60</v>
       </c>
       <c r="AM42" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AN42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>460</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="G43" t="n">
-        <v>4.6</v>
+        <v>2.34</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>2.04</v>
+        <v>3.95</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K43" t="n">
         <v>3.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P43" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R43" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="T43" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="U43" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="V43" t="n">
-        <v>1.96</v>
+        <v>1.34</v>
       </c>
       <c r="W43" t="n">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AA43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK43" t="n">
         <v>27</v>
       </c>
-      <c r="AB43" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>65</v>
-      </c>
       <c r="AL43" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AM43" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN43" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AO43" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,126 +6323,126 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="G44" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="H44" t="n">
-        <v>3.25</v>
+        <v>2.44</v>
       </c>
       <c r="I44" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="J44" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="L44" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="M44" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q44" t="n">
         <v>2.32</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
       <c r="R44" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="S44" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="U44" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="V44" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W44" t="n">
         <v>1.4</v>
       </c>
-      <c r="W44" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X44" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z44" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AF44" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AG44" t="n">
         <v>14.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ44" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="AN44" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AO44" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -6458,125 +6458,530 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S47" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F48" t="n">
         <v>3.05</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G48" t="n">
         <v>3.45</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>2.64</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>2.92</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J48" t="n">
         <v>2.86</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K48" t="n">
         <v>3.15</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>1.01</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M48" t="n">
         <v>1.11</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N48" t="n">
         <v>2.64</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O48" t="n">
         <v>1.52</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P48" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q48" t="n">
         <v>2.56</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R48" t="n">
         <v>1.2</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S48" t="n">
         <v>5.1</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T48" t="n">
         <v>2.04</v>
       </c>
-      <c r="U45" t="n">
+      <c r="U48" t="n">
         <v>1.82</v>
       </c>
-      <c r="V45" t="n">
+      <c r="V48" t="n">
         <v>1.52</v>
       </c>
-      <c r="W45" t="n">
+      <c r="W48" t="n">
         <v>1.41</v>
       </c>
-      <c r="X45" t="n">
+      <c r="X48" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Y48" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="Z48" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AA48" t="n">
         <v>48</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AB48" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AC48" t="n">
         <v>7</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AD48" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AE48" t="n">
         <v>42</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AF48" t="n">
         <v>22</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AG48" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AH48" t="n">
         <v>22</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AI48" t="n">
         <v>65</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AJ48" t="n">
         <v>65</v>
       </c>
-      <c r="AK45" t="n">
+      <c r="AK48" t="n">
         <v>50</v>
       </c>
-      <c r="AL45" t="n">
+      <c r="AL48" t="n">
         <v>75</v>
       </c>
-      <c r="AM45" t="n">
+      <c r="AM48" t="n">
         <v>190</v>
       </c>
-      <c r="AN45" t="n">
+      <c r="AN48" t="n">
         <v>75</v>
       </c>
-      <c r="AO45" t="n">
+      <c r="AO48" t="n">
         <v>55</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Eastern AA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>North District</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.42</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="n">
         <v>95</v>
       </c>
-      <c r="AL3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN3" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.08</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.08</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.08</v>
       </c>
-      <c r="N7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.53</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
-        <v>2.84</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.11</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF8" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
         <v>85</v>
       </c>
-      <c r="AG8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>120</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>7.2</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="I9" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.86</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.7</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>2.88</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="AK9" t="n">
-        <v>970</v>
+        <v>140</v>
       </c>
       <c r="AL9" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>7.6</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.58</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.96</v>
+        <v>1.89</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>2.58</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.26</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.63</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.34</v>
+        <v>2.92</v>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>9.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.1</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>3.35</v>
+        <v>1.41</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>110</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.3</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>200</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>1.41</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>5.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>2.42</v>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>3.35</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>5.3</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.59</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S14" t="n">
         <v>4.1</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>460</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.3</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W15" t="n">
         <v>2.24</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>6.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="W16" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB16" t="n">
         <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.14</v>
+        <v>3.05</v>
       </c>
       <c r="G17" t="n">
-        <v>1.15</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>26</v>
+        <v>2.36</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AE17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO17" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="H18" t="n">
-        <v>5.8</v>
+        <v>25</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.04</v>
       </c>
-      <c r="N18" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W18" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>520</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>55</v>
       </c>
-      <c r="AA18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>18</v>
-      </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.6</v>
+        <v>2.68</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.05</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>1.71</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.48</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="S19" t="n">
-        <v>2.9</v>
+        <v>2.52</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="X19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>48</v>
-      </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>6.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.24</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.25</v>
       </c>
-      <c r="H20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.1</v>
-      </c>
       <c r="P20" t="n">
-        <v>3.8</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
-        <v>1.85</v>
+        <v>2.86</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.67</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>1.46</v>
       </c>
       <c r="X20" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>530</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>18.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>48</v>
       </c>
-      <c r="AE20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.2</v>
+        <v>1.24</v>
       </c>
       <c r="G21" t="n">
-        <v>5.4</v>
+        <v>1.25</v>
       </c>
       <c r="H21" t="n">
-        <v>1.65</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>1.66</v>
+        <v>14.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="R21" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="Y21" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC21" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AE21" t="n">
-        <v>13.5</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AO21" t="n">
         <v>120</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>4.8</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U22" t="n">
         <v>3.05</v>
       </c>
-      <c r="G22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="V22" t="n">
         <v>2.5</v>
       </c>
-      <c r="T22" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.69</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
         <v>21</v>
       </c>
-      <c r="AF22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN22" t="n">
         <v>28</v>
       </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>18</v>
-      </c>
       <c r="AO22" t="n">
-        <v>12.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.14</v>
+        <v>2.96</v>
       </c>
       <c r="G23" t="n">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF23" t="n">
         <v>24</v>
       </c>
-      <c r="I23" t="n">
-        <v>25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>12</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>330</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>12</v>
-      </c>
       <c r="AG23" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AK23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO23" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>320</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.65</v>
+        <v>1.14</v>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>1.15</v>
       </c>
       <c r="H24" t="n">
-        <v>2.22</v>
+        <v>24</v>
       </c>
       <c r="I24" t="n">
-        <v>2.24</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>12</v>
       </c>
       <c r="L24" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="P24" t="n">
-        <v>2.22</v>
+        <v>4.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>2.58</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="W24" t="n">
-        <v>1.37</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>85</v>
       </c>
       <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF24" t="n">
         <v>12</v>
       </c>
-      <c r="Z24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>65</v>
-      </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>12.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>34</v>
+        <v>2.26</v>
       </c>
       <c r="AO24" t="n">
-        <v>13.5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.42</v>
+        <v>3.65</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>2.26</v>
       </c>
       <c r="J25" t="n">
         <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO25" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>2.58</v>
       </c>
       <c r="H26" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.77</v>
+        <v>3.15</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>2.78</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>2.34</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>2.28</v>
+        <v>1.46</v>
       </c>
       <c r="W26" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AK26" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -4033,34 +4033,34 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.58</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1.59</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>1.78</v>
       </c>
       <c r="I27" t="n">
-        <v>6.4</v>
+        <v>1.79</v>
       </c>
       <c r="J27" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -4069,85 +4069,85 @@
         <v>6.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P27" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T27" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U27" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>2.26</v>
       </c>
       <c r="W27" t="n">
-        <v>2.68</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>19.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM27" t="n">
         <v>60</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>75</v>
-      </c>
       <c r="AN27" t="n">
-        <v>5.9</v>
+        <v>34</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.36</v>
+        <v>1.56</v>
       </c>
       <c r="G28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.38</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U28" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V28" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y28" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL28" t="n">
         <v>24</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
       </c>
       <c r="AM28" t="n">
         <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.5</v>
+        <v>5.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.29</v>
+        <v>2.48</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>11.5</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>7.4</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>3.9</v>
+        <v>2.16</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="R29" t="n">
-        <v>2.22</v>
+        <v>1.46</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U29" t="n">
         <v>2.4</v>
       </c>
       <c r="V29" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>4.3</v>
+        <v>1.66</v>
       </c>
       <c r="X29" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="AB29" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI29" t="n">
         <v>40</v>
       </c>
-      <c r="AE29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK29" t="n">
         <v>24</v>
       </c>
-      <c r="AI29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>12</v>
-      </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM29" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="G30" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
+        <v>11</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X30" t="n">
         <v>55</v>
       </c>
-      <c r="I30" t="n">
-        <v>60</v>
-      </c>
-      <c r="J30" t="n">
-        <v>22</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="Y30" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL30" t="n">
         <v>23</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X30" t="n">
+      <c r="AM30" t="n">
         <v>85</v>
       </c>
-      <c r="Y30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>460</v>
-      </c>
       <c r="AN30" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>1.06</v>
       </c>
       <c r="G31" t="n">
-        <v>4.5</v>
+        <v>1.07</v>
       </c>
       <c r="H31" t="n">
-        <v>1.88</v>
+        <v>55</v>
       </c>
       <c r="I31" t="n">
-        <v>1.89</v>
+        <v>65</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="P31" t="n">
-        <v>2.34</v>
+        <v>5.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.71</v>
+        <v>1.22</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>2.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2.8</v>
+        <v>1.56</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>2.72</v>
       </c>
       <c r="U31" t="n">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="V31" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>1.28</v>
+        <v>15.5</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
         <v>11</v>
       </c>
-      <c r="Z31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AG31" t="n">
         <v>21</v>
       </c>
-      <c r="AB31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG31" t="n">
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK31" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>46</v>
-      </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>1.91</v>
       </c>
       <c r="AO31" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.28</v>
+        <v>4.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>4.4</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>1.88</v>
       </c>
       <c r="I32" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>2.32</v>
+        <v>5.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>1.43</v>
+        <v>2.38</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>1.69</v>
       </c>
       <c r="R32" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="S32" t="n">
-        <v>6.4</v>
+        <v>2.74</v>
       </c>
       <c r="T32" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>1.66</v>
+        <v>2.44</v>
       </c>
       <c r="V32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.29</v>
       </c>
-      <c r="W32" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X32" t="n">
-        <v>7.4</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.6</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE32" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="AJ32" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="n">
-        <v>170</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="H33" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N33" t="n">
         <v>2.32</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
       <c r="P33" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="S33" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>2.32</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>14.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>36</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>55</v>
-      </c>
       <c r="AK33" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="n">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AO33" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R34" t="n">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,123 +5108,123 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.08</v>
       </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S35" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="T35" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,126 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="W36" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL36" t="n">
         <v>70</v>
       </c>
-      <c r="AB36" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>55</v>
-      </c>
       <c r="AM36" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="G37" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L37" t="n">
         <v>1.49</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P37" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T37" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U37" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V37" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W37" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y37" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA37" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK37" t="n">
         <v>22</v>
       </c>
-      <c r="AE37" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>28</v>
-      </c>
       <c r="AL37" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO37" t="n">
         <v>190</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="G38" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="O38" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="U38" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="V38" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="X38" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AF38" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
         <v>40</v>
       </c>
       <c r="AK38" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AN38" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AO38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="G39" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="H39" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="I39" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.85</v>
       </c>
       <c r="L39" t="n">
         <v>1.49</v>
@@ -5686,94 +5686,94 @@
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O39" t="n">
         <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R39" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S39" t="n">
         <v>4.2</v>
       </c>
       <c r="T39" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U39" t="n">
         <v>1.81</v>
       </c>
       <c r="V39" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W39" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z39" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AB39" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AC39" t="n">
         <v>8.4</v>
       </c>
       <c r="AD39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>23</v>
       </c>
-      <c r="AE39" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH39" t="n">
+      <c r="AK39" t="n">
         <v>24</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>22</v>
       </c>
       <c r="AL39" t="n">
         <v>48</v>
       </c>
       <c r="AM39" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN39" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="H40" t="n">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N40" t="n">
         <v>2.58</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O40" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="P40" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="R40" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="T40" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="V40" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="W40" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AA40" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AB40" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AE40" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AI40" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN40" t="n">
         <v>42</v>
       </c>
-      <c r="AL40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>48</v>
-      </c>
       <c r="AO40" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.84</v>
+        <v>3.2</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="I41" t="n">
-        <v>5.7</v>
+        <v>2.58</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K41" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L41" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P41" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="R41" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S41" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="U41" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="W41" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="Z41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA41" t="n">
         <v>40</v>
       </c>
-      <c r="AA41" t="n">
-        <v>180</v>
-      </c>
       <c r="AB41" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="AC41" t="n">
         <v>8</v>
       </c>
       <c r="AD41" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AF41" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AI41" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ41" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AK41" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AL41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AO41" t="n">
-        <v>170</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L42" t="n">
         <v>1.52</v>
       </c>
-      <c r="G42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.48</v>
-      </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P42" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S42" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T42" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="V42" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="W42" t="n">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z42" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="n">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AE42" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AG42" t="n">
         <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AJ42" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AK42" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="AN42" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AO42" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.18</v>
+        <v>1.52</v>
       </c>
       <c r="G43" t="n">
-        <v>2.34</v>
+        <v>1.59</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.95</v>
+        <v>9.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.44</v>
       </c>
-      <c r="M43" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P43" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R43" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S43" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.88</v>
+        <v>2.36</v>
       </c>
       <c r="U43" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="W43" t="n">
-        <v>1.75</v>
+        <v>2.68</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN43" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>22</v>
-      </c>
       <c r="AO43" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="G44" t="n">
-        <v>3.45</v>
+        <v>2.34</v>
       </c>
       <c r="H44" t="n">
-        <v>2.44</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>2.62</v>
+        <v>3.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="P44" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="R44" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U44" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="X44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG44" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>14.5</v>
       </c>
       <c r="AH44" t="n">
         <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AK44" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="n">
         <v>140</v>
       </c>
       <c r="AN44" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AO44" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L45" t="n">
         <v>1.48</v>
       </c>
-      <c r="G45" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H45" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.37</v>
-      </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
         <v>3.05</v>
       </c>
       <c r="O45" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P45" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R45" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S45" t="n">
         <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="V45" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="W45" t="n">
-        <v>2.74</v>
+        <v>1.44</v>
       </c>
       <c r="X45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD45" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y45" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>480</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>40</v>
-      </c>
       <c r="AE45" t="n">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="AF45" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AI45" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AJ45" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="AO45" t="n">
-        <v>460</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="G46" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I46" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="J46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.4</v>
       </c>
-      <c r="K46" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L46" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="O46" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="P46" t="n">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R46" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="S46" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T46" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U46" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="V46" t="n">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="W46" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,261 +6728,531 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="G47" t="n">
-        <v>2.88</v>
+        <v>1.59</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>3.45</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="M47" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="P47" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="R47" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB47" t="n">
         <v>6.4</v>
       </c>
-      <c r="T47" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X47" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AC47" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AE47" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL47" t="n">
         <v>60</v>
       </c>
-      <c r="AF47" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>85</v>
-      </c>
       <c r="AM47" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AN47" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="AO47" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G50" t="n">
         <v>3.45</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N50" t="n">
         <v>2.64</v>
       </c>
-      <c r="I48" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="O50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V50" t="n">
         <v>1.52</v>
       </c>
-      <c r="P48" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W48" t="n">
+      <c r="W50" t="n">
         <v>1.41</v>
       </c>
-      <c r="X48" t="n">
+      <c r="X50" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y48" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA48" t="n">
+      <c r="Y50" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA50" t="n">
         <v>48</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AB50" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AC50" t="n">
         <v>7</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AD50" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE48" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF48" t="n">
+      <c r="AE50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH50" t="n">
         <v>22</v>
       </c>
-      <c r="AG48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI48" t="n">
+      <c r="AI50" t="n">
         <v>65</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AJ50" t="n">
         <v>65</v>
       </c>
-      <c r="AK48" t="n">
+      <c r="AK50" t="n">
         <v>50</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AL50" t="n">
         <v>75</v>
       </c>
-      <c r="AM48" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>55</v>
+      <c r="AM50" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eastern AA</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>North District</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1.34</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>1.81</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>8.800000000000001</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Ankaraspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>1.61</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>1.97</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>2.36</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>2.62</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Ankara Demirspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Eastern AA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>North District</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,34 +1096,34 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.08</v>
+        <v>2.16</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>1.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U5" t="n">
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.08</v>
+        <v>1.61</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.08</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,33 +1328,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.08</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.08</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1393,7 +1393,7 @@
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.1</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.5</v>
-      </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>1.94</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Arnavutkoy Belediyesi GVS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>1.89</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
       <c r="AE10" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL10" t="n">
         <v>46</v>
       </c>
-      <c r="AK10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>970</v>
-      </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>1.87</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>2.06</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>2.14</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.92</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>2.24</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>24</v>
-      </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>2.42</v>
+        <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA13" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="n">
         <v>380</v>
       </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>150</v>
-      </c>
       <c r="AN13" t="n">
-        <v>5.3</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1.08</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Isparta 32 Spor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Menemen Belediyespor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>2.36</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.96</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.15</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>2.68</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.52</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>2.24</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>7.4</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.26</v>
+        <v>1.45</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.76</v>
+        <v>2.88</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AF16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH16" t="n">
         <v>28</v>
       </c>
-      <c r="AB16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="H17" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>5.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.95</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.72</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>2.56</v>
+        <v>1.88</v>
       </c>
       <c r="V17" t="n">
-        <v>1.72</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>22</v>
       </c>
-      <c r="Y17" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AK17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN17" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>21</v>
-      </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.14</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>25</v>
+        <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>2.84</v>
       </c>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>8.6</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.55</v>
+        <v>1.96</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.37</v>
       </c>
-      <c r="R18" t="n">
-        <v>2.04</v>
-      </c>
       <c r="S18" t="n">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>520</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>320</v>
+        <v>970</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.199999999999999</v>
+        <v>46</v>
       </c>
       <c r="AK18" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.68</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.6</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.61</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.64</v>
+        <v>1.08</v>
       </c>
       <c r="S19" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.1</v>
+        <v>1.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>1.41</v>
       </c>
       <c r="H20" t="n">
-        <v>2.46</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.86</v>
+        <v>2.42</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>1.46</v>
+        <v>3.35</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
         <v>15</v>
       </c>
-      <c r="AC20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>30</v>
-      </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>5.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.24</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>2.3</v>
       </c>
       <c r="I21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="n">
         <v>14.5</v>
       </c>
-      <c r="J21" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W21" t="n">
-        <v>5</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AC21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>55</v>
       </c>
-      <c r="Y21" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
       <c r="AK21" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.98</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
-        <v>120</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>1.64</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.66</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X22" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>38</v>
-      </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
         <v>21</v>
       </c>
-      <c r="AH22" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI22" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.96</v>
+        <v>1.73</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1.81</v>
       </c>
       <c r="H23" t="n">
-        <v>2.44</v>
+        <v>6.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.48</v>
+        <v>7.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>2.36</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="P23" t="n">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>2.94</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>6.4</v>
       </c>
       <c r="T23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.52</v>
       </c>
-      <c r="U23" t="n">
-        <v>2.84</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>7.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="AJ23" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.14</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>1.15</v>
+        <v>3.45</v>
       </c>
       <c r="H24" t="n">
-        <v>24</v>
+        <v>2.24</v>
       </c>
       <c r="I24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
         <v>25</v>
       </c>
-      <c r="J24" t="n">
-        <v>11</v>
-      </c>
-      <c r="K24" t="n">
-        <v>12</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="AG24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO24" t="n">
         <v>13</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X24" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>320</v>
       </c>
     </row>
     <row r="25">
@@ -3763,118 +3763,118 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="I25" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="W25" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB25" t="n">
         <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM25" t="n">
         <v>65</v>
       </c>
-      <c r="AK25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>70</v>
-      </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
         <v>13.5</v>
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>1.14</v>
       </c>
       <c r="G26" t="n">
-        <v>2.58</v>
+        <v>1.15</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>27</v>
       </c>
       <c r="I26" t="n">
-        <v>3.15</v>
+        <v>29</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>3.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>3.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>1.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>2.06</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>1.92</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>2.36</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>1.71</v>
       </c>
       <c r="V26" t="n">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="W26" t="n">
-        <v>1.63</v>
+        <v>7.8</v>
       </c>
       <c r="X26" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
         <v>14</v>
       </c>
-      <c r="Y26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>11</v>
-      </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>27</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>530</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>240</v>
       </c>
       <c r="AI26" t="n">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="AJ26" t="n">
-        <v>36</v>
+        <v>8.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>2.66</v>
       </c>
       <c r="AO26" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,25 +4033,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>1.71</v>
       </c>
       <c r="H27" t="n">
-        <v>1.78</v>
+        <v>5.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.79</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4060,94 +4060,94 @@
         <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R27" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="S27" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="T27" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="V27" t="n">
-        <v>2.26</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>2.42</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB27" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG27" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
+      <c r="AH27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO27" t="n">
         <v>42</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.56</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>1.58</v>
+        <v>3.05</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="I28" t="n">
-        <v>6.4</v>
+        <v>2.56</v>
       </c>
       <c r="J28" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.74</v>
+        <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U28" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="W28" t="n">
-        <v>2.72</v>
+        <v>1.48</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK28" t="n">
         <v>29</v>
       </c>
-      <c r="Z28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AL28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN28" t="n">
         <v>23</v>
       </c>
-      <c r="AE28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>1.24</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>13.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>14.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>4.5</v>
+        <v>9.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>2.16</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.84</v>
+        <v>1.33</v>
       </c>
       <c r="R29" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="S29" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="U29" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>1.66</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB29" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y29" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB29" t="n">
+      <c r="AC29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK29" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>24</v>
-      </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>2.98</v>
       </c>
       <c r="AO29" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.29</v>
+        <v>5.3</v>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>1.64</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>1.66</v>
       </c>
       <c r="J30" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="K30" t="n">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="R30" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="S30" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="U30" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="V30" t="n">
-        <v>1.09</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
-        <v>4.3</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF30" t="n">
         <v>55</v>
       </c>
-      <c r="Y30" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>12</v>
-      </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12.5</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.1</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>80</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.06</v>
+        <v>2.9</v>
       </c>
       <c r="G31" t="n">
-        <v>1.07</v>
+        <v>2.92</v>
       </c>
       <c r="H31" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM31" t="n">
         <v>55</v>
       </c>
-      <c r="I31" t="n">
-        <v>65</v>
-      </c>
-      <c r="J31" t="n">
-        <v>21</v>
-      </c>
-      <c r="K31" t="n">
-        <v>23</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>500</v>
-      </c>
       <c r="AN31" t="n">
-        <v>1.91</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32">
@@ -4708,55 +4708,55 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="J32" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="R32" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
@@ -4765,70 +4765,70 @@
         <v>2.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AG32" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ32" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AO32" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S33" t="n">
         <v>2.3</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S33" t="n">
-        <v>6.4</v>
-      </c>
       <c r="T33" t="n">
-        <v>2.32</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="n">
-        <v>1.65</v>
+        <v>2.68</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>2.26</v>
       </c>
       <c r="W33" t="n">
-        <v>1.69</v>
+        <v>1.27</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.6</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="AJ33" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL33" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="AN33" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>170</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="34">
@@ -4990,13 +4990,13 @@
         <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I34" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5011,31 +5011,31 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R34" t="n">
         <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
         <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W34" t="n">
         <v>1.41</v>
@@ -5050,13 +5050,13 @@
         <v>14.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD34" t="n">
         <v>10.5</v>
@@ -5071,7 +5071,7 @@
         <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI34" t="n">
         <v>36</v>
@@ -5083,7 +5083,7 @@
         <v>36</v>
       </c>
       <c r="AL34" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="n">
         <v>75</v>
@@ -5092,13 +5092,13 @@
         <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="O35" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.24</v>
+        <v>1.97</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="S35" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="V35" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1.56</v>
       </c>
       <c r="G36" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
         <v>6.2</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>1.73</v>
+        <v>2.76</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>2.36</v>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="U36" t="n">
-        <v>1.72</v>
+        <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Y36" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Z36" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB36" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AG36" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
-        <v>970</v>
+        <v>5.8</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="H37" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.65</v>
       </c>
-      <c r="K37" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="P37" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="R37" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="S37" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="T37" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="W37" t="n">
-        <v>2.26</v>
+        <v>1.66</v>
       </c>
       <c r="X37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y37" t="n">
         <v>14</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF37" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z37" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD37" t="n">
+      <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK37" t="n">
         <v>24</v>
       </c>
-      <c r="AE37" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH37" t="n">
+      <c r="AL37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO37" t="n">
         <v>25</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.48</v>
+        <v>1.28</v>
       </c>
       <c r="G38" t="n">
-        <v>2.62</v>
+        <v>1.29</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>7.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.3</v>
+        <v>7.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="M38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.1</v>
       </c>
-      <c r="N38" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P38" t="n">
-        <v>1.68</v>
+        <v>4.1</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.36</v>
+        <v>1.31</v>
       </c>
       <c r="R38" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="S38" t="n">
-        <v>4.6</v>
+        <v>1.78</v>
       </c>
       <c r="T38" t="n">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="W38" t="n">
-        <v>1.61</v>
+        <v>4.4</v>
       </c>
       <c r="X38" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Z38" t="n">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="AA38" t="n">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AE38" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AF38" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AJ38" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AK38" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AM38" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AN38" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="AO38" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.91</v>
+        <v>1.06</v>
       </c>
       <c r="G39" t="n">
-        <v>1.94</v>
+        <v>1.07</v>
       </c>
       <c r="H39" t="n">
-        <v>4.9</v>
+        <v>60</v>
       </c>
       <c r="I39" t="n">
-        <v>5.5</v>
+        <v>65</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>23</v>
       </c>
       <c r="L39" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>3.05</v>
+        <v>13.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="P39" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.22</v>
+        <v>1.22</v>
       </c>
       <c r="R39" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="S39" t="n">
-        <v>4.2</v>
+        <v>1.56</v>
       </c>
       <c r="T39" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="U39" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>2.06</v>
+        <v>15.5</v>
       </c>
       <c r="X39" t="n">
-        <v>13.5</v>
+        <v>85</v>
       </c>
       <c r="Y39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.6</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG39" t="n">
         <v>22</v>
       </c>
-      <c r="AE39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>11</v>
-      </c>
       <c r="AH39" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AL39" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AM39" t="n">
-        <v>190</v>
+        <v>570</v>
       </c>
       <c r="AN39" t="n">
-        <v>18.5</v>
+        <v>1.86</v>
       </c>
       <c r="AO39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="G40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P40" t="n">
         <v>2.44</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q40" t="n">
-        <v>2.66</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="S40" t="n">
-        <v>5.1</v>
+        <v>2.68</v>
       </c>
       <c r="T40" t="n">
-        <v>2.14</v>
+        <v>1.65</v>
       </c>
       <c r="U40" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="V40" t="n">
-        <v>1.31</v>
+        <v>2.12</v>
       </c>
       <c r="W40" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="X40" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z40" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AA40" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD40" t="n">
-        <v>21</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AG40" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AI40" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AJ40" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM40" t="n">
         <v>75</v>
       </c>
-      <c r="AM40" t="n">
-        <v>230</v>
-      </c>
       <c r="AN40" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO40" t="n">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="H41" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="I41" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="K41" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N41" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="O41" t="n">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="P41" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V41" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="W41" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="Z41" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ41" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK41" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO41" t="n">
         <v>140</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.85</v>
+        <v>1.15</v>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>1.16</v>
       </c>
       <c r="H42" t="n">
-        <v>5.1</v>
+        <v>23</v>
       </c>
       <c r="I42" t="n">
-        <v>5.7</v>
+        <v>24</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>10.5</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.84</v>
+        <v>12.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="P42" t="n">
-        <v>1.65</v>
+        <v>4.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="R42" t="n">
-        <v>1.23</v>
+        <v>2.58</v>
       </c>
       <c r="S42" t="n">
-        <v>4.7</v>
+        <v>1.61</v>
       </c>
       <c r="T42" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="W42" t="n">
-        <v>2.06</v>
+        <v>7.2</v>
       </c>
       <c r="X42" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y42" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>22</v>
-      </c>
       <c r="AK42" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>970</v>
+        <v>2.26</v>
       </c>
       <c r="AO42" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R43" t="n">
         <v>1.08</v>
       </c>
-      <c r="N43" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S43" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="T43" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W43" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,126 +6323,126 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.22</v>
+        <v>1.56</v>
       </c>
       <c r="G44" t="n">
-        <v>2.34</v>
+        <v>1.64</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>9.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P44" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="W44" t="n">
-        <v>1.74</v>
+        <v>2.56</v>
       </c>
       <c r="X44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y44" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD44" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AE44" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AG44" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AJ44" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AK44" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AM44" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AO44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="H45" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
         <v>3.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O45" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R45" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S45" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T45" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="U45" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V45" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="X45" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AA45" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AB45" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC45" t="n">
         <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AF45" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI45" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL45" t="n">
         <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN45" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AO45" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.65</v>
       </c>
-      <c r="G46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="O46" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R46" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S46" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T46" t="n">
         <v>2.02</v>
       </c>
       <c r="U46" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="V46" t="n">
-        <v>1.66</v>
+        <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>1.3</v>
+        <v>2.06</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="G47" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="H47" t="n">
-        <v>8.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="I47" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K47" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P47" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S47" t="n">
         <v>4.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U47" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="V47" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="W47" t="n">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y47" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AA47" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="AB47" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AC47" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG47" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD47" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>12</v>
-      </c>
       <c r="AH47" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AI47" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AJ47" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AK47" t="n">
         <v>22</v>
       </c>
       <c r="AL47" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.3</v>
+        <v>2.28</v>
       </c>
       <c r="G48" t="n">
-        <v>4.7</v>
+        <v>2.44</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>2.04</v>
+        <v>4.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N48" t="n">
-        <v>3.15</v>
+        <v>2.58</v>
       </c>
       <c r="O48" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="P48" t="n">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="R48" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="V48" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="W48" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="X48" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF48" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y48" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF48" t="n">
+      <c r="AG48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ48" t="n">
         <v>34</v>
       </c>
-      <c r="AG48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>130</v>
-      </c>
       <c r="AK48" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL48" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM48" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="AN48" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AO48" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,261 +6998,1341 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="G49" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N49" t="n">
         <v>3.2</v>
       </c>
-      <c r="I49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.32</v>
-      </c>
       <c r="O49" t="n">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="P49" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="S49" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="U49" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="V49" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="W49" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="X49" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z49" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AA49" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD49" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL49" t="n">
         <v>60</v>
       </c>
-      <c r="AF49" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK49" t="n">
+      <c r="AM49" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN49" t="n">
         <v>48</v>
       </c>
-      <c r="AL49" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>310</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>75</v>
-      </c>
       <c r="AO49" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X53" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Club 2 de Mayo</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X57" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F58" t="n">
         <v>3.1</v>
       </c>
-      <c r="G50" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="G58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J58" t="n">
         <v>2.86</v>
       </c>
-      <c r="K50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X50" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z50" t="n">
+      <c r="K58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X58" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z58" t="n">
         <v>17</v>
       </c>
-      <c r="AA50" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB50" t="n">
+      <c r="AA58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB58" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AC58" t="n">
         <v>7</v>
       </c>
-      <c r="AD50" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE50" t="n">
+      <c r="AD58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE58" t="n">
         <v>50</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AF58" t="n">
         <v>21</v>
       </c>
-      <c r="AG50" t="n">
+      <c r="AG58" t="n">
         <v>18</v>
       </c>
-      <c r="AH50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI50" t="n">
+      <c r="AH58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>65</v>
       </c>
-      <c r="AJ50" t="n">
+      <c r="AK58" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN58" t="n">
         <v>65</v>
       </c>
-      <c r="AK50" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>46</v>
+      <c r="AO58" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -814,34 +814,34 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -988,7 +988,7 @@
         <v>1.99</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>2.12</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>160</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
         <v>1.77</v>
@@ -1222,7 +1222,7 @@
         <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1750,16 +1750,16 @@
         <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1783,22 +1783,22 @@
         <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
         <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X10" t="n">
         <v>19.5</v>
@@ -1807,7 +1807,7 @@
         <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
         <v>60</v>
@@ -1822,7 +1822,7 @@
         <v>16.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -2071,10 +2071,10 @@
         <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>48</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
         <v>28</v>
@@ -2095,10 +2095,10 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
         <v>34</v>
@@ -2155,7 +2155,7 @@
         <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>5.3</v>
@@ -2299,7 +2299,7 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,16 +2446,16 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
         <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.34</v>
@@ -2464,70 +2464,70 @@
         <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>21</v>
       </c>
-      <c r="AE15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>22</v>
-      </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="G16" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="I16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.26</v>
@@ -2587,28 +2587,28 @@
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2620,7 +2620,7 @@
         <v>11.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -2632,10 +2632,10 @@
         <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="n">
         <v>36</v>
@@ -2647,22 +2647,22 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AK16" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="n">
         <v>120</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>4.8</v>
@@ -2710,7 +2710,7 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2728,7 +2728,7 @@
         <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
         <v>3.95</v>
@@ -2743,7 +2743,7 @@
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
@@ -2752,13 +2752,13 @@
         <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="n">
         <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
         <v>8.4</v>
@@ -2770,10 +2770,10 @@
         <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -2794,7 +2794,7 @@
         <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
         <v>120</v>
@@ -2845,7 +2845,7 @@
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -2914,7 +2914,7 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>46</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="G19" t="n">
         <v>2.3</v>
@@ -2971,19 +2971,19 @@
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
         <v>3.2</v>
@@ -2992,82 +2992,82 @@
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R19" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -3244,13 +3244,13 @@
         <v>2.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3418,7 +3418,7 @@
         <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
@@ -3559,7 +3559,7 @@
         <v>7.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
         <v>60</v>
@@ -3568,13 +3568,13 @@
         <v>350</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE23" t="n">
         <v>210</v>
@@ -3640,13 +3640,13 @@
         <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
@@ -3673,10 +3673,10 @@
         <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T24" t="n">
         <v>1.64</v>
@@ -3685,7 +3685,7 @@
         <v>2.46</v>
       </c>
       <c r="V24" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
@@ -3697,7 +3697,7 @@
         <v>12.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
         <v>28</v>
@@ -3715,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
         <v>14</v>
@@ -3739,7 +3739,7 @@
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
@@ -3775,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
         <v>2.38</v>
@@ -3787,7 +3787,7 @@
         <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
@@ -3802,13 +3802,13 @@
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
         <v>2.68</v>
@@ -3823,7 +3823,7 @@
         <v>1.71</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3913,10 +3913,10 @@
         <v>1.15</v>
       </c>
       <c r="H26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" t="n">
         <v>11</v>
@@ -3940,16 +3940,16 @@
         <v>3.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R26" t="n">
         <v>2.06</v>
       </c>
       <c r="S26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T26" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="n">
         <v>1.71</v>
@@ -3982,7 +3982,7 @@
         <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AF26" t="n">
         <v>8.800000000000001</v>
@@ -3994,7 +3994,7 @@
         <v>240</v>
       </c>
       <c r="AI26" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.4</v>
@@ -4003,7 +4003,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>2.66</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H27" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4060,7 +4060,7 @@
         <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4072,7 +4072,7 @@
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q27" t="n">
         <v>1.57</v>
@@ -4081,19 +4081,19 @@
         <v>1.68</v>
       </c>
       <c r="S27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
         <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X27" t="n">
         <v>24</v>
@@ -4114,13 +4114,13 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>60</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
         <v>3.7</v>
@@ -4210,7 +4210,7 @@
         <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
         <v>1.51</v>
@@ -4219,13 +4219,13 @@
         <v>2.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U28" t="n">
         <v>2.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W28" t="n">
         <v>1.48</v>
@@ -4234,10 +4234,10 @@
         <v>17.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
         <v>34</v>
@@ -4252,10 +4252,10 @@
         <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -4267,13 +4267,13 @@
         <v>32</v>
       </c>
       <c r="AJ28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK28" t="n">
         <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
         <v>50</v>
@@ -4312,31 +4312,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H29" t="n">
+        <v>13</v>
+      </c>
+      <c r="I29" t="n">
         <v>13.5</v>
       </c>
-      <c r="I29" t="n">
-        <v>14.5</v>
-      </c>
       <c r="J29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K29" t="n">
         <v>8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.1</v>
@@ -4348,22 +4348,22 @@
         <v>1.33</v>
       </c>
       <c r="R29" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="S29" t="n">
         <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X29" t="n">
         <v>55</v>
@@ -4372,7 +4372,7 @@
         <v>70</v>
       </c>
       <c r="Z29" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AA29" t="n">
         <v>530</v>
@@ -4384,10 +4384,10 @@
         <v>18.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE29" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -4399,10 +4399,10 @@
         <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK29" t="n">
         <v>12.5</v>
@@ -4411,10 +4411,10 @@
         <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AO29" t="n">
         <v>120</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G30" t="n">
         <v>5.5</v>
       </c>
       <c r="H30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.64</v>
       </c>
-      <c r="I30" t="n">
-        <v>1.66</v>
-      </c>
       <c r="J30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>1.21</v>
@@ -4480,13 +4480,13 @@
         <v>3.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R30" t="n">
         <v>2.06</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T30" t="n">
         <v>1.46</v>
@@ -4495,13 +4495,13 @@
         <v>3.05</v>
       </c>
       <c r="V30" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W30" t="n">
         <v>1.22</v>
       </c>
       <c r="X30" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="n">
         <v>18.5</v>
@@ -4513,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="AB30" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC30" t="n">
         <v>13</v>
@@ -4525,10 +4525,10 @@
         <v>13.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
         <v>14.5</v>
@@ -4537,7 +4537,7 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK30" t="n">
         <v>50</v>
@@ -4549,10 +4549,10 @@
         <v>44</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="31">
@@ -4588,16 +4588,16 @@
         <v>2.92</v>
       </c>
       <c r="H31" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I31" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
         <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
@@ -4612,7 +4612,7 @@
         <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q31" t="n">
         <v>1.58</v>
@@ -4624,13 +4624,13 @@
         <v>2.46</v>
       </c>
       <c r="T31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U31" t="n">
         <v>2.82</v>
       </c>
       <c r="V31" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
         <v>1.52</v>
@@ -4639,16 +4639,16 @@
         <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
         <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC31" t="n">
         <v>9.199999999999999</v>
@@ -4666,7 +4666,7 @@
         <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI31" t="n">
         <v>27</v>
@@ -4675,7 +4675,7 @@
         <v>46</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>32</v>
@@ -4684,7 +4684,7 @@
         <v>55</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
         <v>12.5</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="I32" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J32" t="n">
         <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.38</v>
@@ -4744,16 +4744,16 @@
         <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q32" t="n">
         <v>1.79</v>
       </c>
       <c r="R32" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S32" t="n">
         <v>2.96</v>
@@ -4765,10 +4765,10 @@
         <v>2.44</v>
       </c>
       <c r="V32" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W32" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X32" t="n">
         <v>16.5</v>
@@ -4780,7 +4780,7 @@
         <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB32" t="n">
         <v>16</v>
@@ -4792,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
         <v>27</v>
@@ -4813,7 +4813,7 @@
         <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
         <v>70</v>
@@ -4822,7 +4822,7 @@
         <v>28</v>
       </c>
       <c r="AO32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -4864,16 +4864,16 @@
         <v>1.79</v>
       </c>
       <c r="J33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
         <v>6.4</v>
@@ -4888,7 +4888,7 @@
         <v>1.54</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S33" t="n">
         <v>2.3</v>
@@ -4897,7 +4897,7 @@
         <v>1.57</v>
       </c>
       <c r="U33" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V33" t="n">
         <v>2.26</v>
@@ -4906,7 +4906,7 @@
         <v>1.27</v>
       </c>
       <c r="X33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y33" t="n">
         <v>14</v>
@@ -4936,7 +4936,7 @@
         <v>18</v>
       </c>
       <c r="AH33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI33" t="n">
         <v>24</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5011,37 +5011,37 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R34" t="n">
         <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U34" t="n">
         <v>2.32</v>
       </c>
       <c r="V34" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="W34" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5053,16 +5053,16 @@
         <v>29</v>
       </c>
       <c r="AB34" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>24</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -5152,7 +5152,7 @@
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q35" t="n">
         <v>2.02</v>
@@ -5161,7 +5161,7 @@
         <v>1.38</v>
       </c>
       <c r="S35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
         <v>1.78</v>
@@ -5170,10 +5170,10 @@
         <v>2.24</v>
       </c>
       <c r="V35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W35" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
         <v>14</v>
@@ -5182,7 +5182,7 @@
         <v>12.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA35" t="n">
         <v>48</v>
@@ -5200,19 +5200,19 @@
         <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>16.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="n">
         <v>25</v>
@@ -5224,7 +5224,7 @@
         <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
         <v>30</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G36" t="n">
         <v>1.57</v>
@@ -5269,37 +5269,37 @@
         <v>6.4</v>
       </c>
       <c r="J36" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O36" t="n">
         <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S36" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T36" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U36" t="n">
         <v>2.44</v>
@@ -5308,13 +5308,13 @@
         <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X36" t="n">
         <v>27</v>
       </c>
       <c r="Y36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
         <v>55</v>
@@ -5326,7 +5326,7 @@
         <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
         <v>23</v>
@@ -5335,7 +5335,7 @@
         <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG36" t="n">
         <v>9.6</v>
@@ -5347,10 +5347,10 @@
         <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL36" t="n">
         <v>24</v>
@@ -5359,7 +5359,7 @@
         <v>75</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="G37" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.6</v>
       </c>
-      <c r="K37" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5419,37 +5419,37 @@
         <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
         <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V37" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W37" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="X37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
         <v>21</v>
@@ -5470,10 +5470,10 @@
         <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
         <v>15</v>
@@ -5482,10 +5482,10 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL37" t="n">
         <v>34</v>
@@ -5494,7 +5494,7 @@
         <v>75</v>
       </c>
       <c r="AN37" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO37" t="n">
         <v>25</v>
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="G38" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="K38" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P38" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R38" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="S38" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T38" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="U38" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="V38" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="X38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y38" t="n">
         <v>65</v>
       </c>
       <c r="Z38" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AA38" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="AB38" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE38" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AF38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK38" t="n">
         <v>12</v>
       </c>
       <c r="AL38" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="AO38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -5671,10 +5671,10 @@
         <v>60</v>
       </c>
       <c r="I39" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" t="n">
         <v>23</v>
@@ -5704,16 +5704,16 @@
         <v>1.56</v>
       </c>
       <c r="T39" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="U39" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="V39" t="n">
         <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X39" t="n">
         <v>85</v>
@@ -5731,7 +5731,7 @@
         <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD39" t="n">
         <v>1000</v>
@@ -5743,7 +5743,7 @@
         <v>10.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5755,13 +5755,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK39" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM39" t="n">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="AN39" t="n">
         <v>1.86</v>
@@ -5803,7 +5803,7 @@
         <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I40" t="n">
         <v>1.88</v>
@@ -5821,7 +5821,7 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
@@ -5833,13 +5833,13 @@
         <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
         <v>2.68</v>
       </c>
       <c r="T40" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U40" t="n">
         <v>2.46</v>
@@ -5851,7 +5851,7 @@
         <v>1.28</v>
       </c>
       <c r="X40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -5866,7 +5866,7 @@
         <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD40" t="n">
         <v>9.800000000000001</v>
@@ -5884,10 +5884,10 @@
         <v>16</v>
       </c>
       <c r="AI40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK40" t="n">
         <v>46</v>
@@ -5935,10 +5935,10 @@
         <v>2.46</v>
       </c>
       <c r="G41" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H41" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I41" t="n">
         <v>4.2</v>
@@ -5947,7 +5947,7 @@
         <v>2.8</v>
       </c>
       <c r="K41" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="L41" t="n">
         <v>1.68</v>
@@ -5956,7 +5956,7 @@
         <v>1.16</v>
       </c>
       <c r="N41" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O41" t="n">
         <v>1.68</v>
@@ -5974,7 +5974,7 @@
         <v>6.8</v>
       </c>
       <c r="T41" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U41" t="n">
         <v>1.67</v>
@@ -5983,37 +5983,37 @@
         <v>1.32</v>
       </c>
       <c r="W41" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X41" t="n">
         <v>7</v>
       </c>
       <c r="Y41" t="n">
-        <v>32</v>
+        <v>9.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="n">
         <v>110</v>
       </c>
       <c r="AB41" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC41" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
         <v>46</v>
@@ -6022,10 +6022,10 @@
         <v>130</v>
       </c>
       <c r="AJ41" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AK41" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6034,7 +6034,7 @@
         <v>290</v>
       </c>
       <c r="AN41" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO41" t="n">
         <v>140</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G42" t="n">
         <v>1.15</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.16</v>
       </c>
       <c r="H42" t="n">
         <v>23</v>
       </c>
       <c r="I42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.16</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
         <v>1.07</v>
@@ -6103,7 +6103,7 @@
         <v>1.24</v>
       </c>
       <c r="R42" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="S42" t="n">
         <v>1.61</v>
@@ -6118,7 +6118,7 @@
         <v>1.04</v>
       </c>
       <c r="W42" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="X42" t="n">
         <v>85</v>
@@ -6127,37 +6127,37 @@
         <v>120</v>
       </c>
       <c r="Z42" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC42" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG42" t="n">
         <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK42" t="n">
         <v>12.5</v>
@@ -6166,13 +6166,13 @@
         <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
         <v>2.26</v>
       </c>
       <c r="AO42" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G44" t="n">
         <v>1.64</v>
@@ -6346,13 +6346,13 @@
         <v>6.4</v>
       </c>
       <c r="I44" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J44" t="n">
         <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L44" t="n">
         <v>1.39</v>
@@ -6379,10 +6379,10 @@
         <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U44" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V44" t="n">
         <v>1.13</v>
@@ -6409,10 +6409,10 @@
         <v>970</v>
       </c>
       <c r="AD44" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF44" t="n">
         <v>970</v>
@@ -6424,7 +6424,7 @@
         <v>28</v>
       </c>
       <c r="AI44" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
         <v>970</v>
@@ -6490,7 +6490,7 @@
         <v>3.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M45" t="n">
         <v>1.1</v>
@@ -6508,7 +6508,7 @@
         <v>2.36</v>
       </c>
       <c r="R45" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
         <v>4.6</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G46" t="n">
         <v>1.93</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I46" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J46" t="n">
         <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.49</v>
@@ -6640,13 +6640,13 @@
         <v>1.71</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R46" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S46" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T46" t="n">
         <v>2.02</v>
@@ -6655,16 +6655,16 @@
         <v>1.86</v>
       </c>
       <c r="V46" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W46" t="n">
         <v>2.06</v>
       </c>
       <c r="X46" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z46" t="n">
         <v>38</v>
@@ -6694,7 +6694,7 @@
         <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="n">
         <v>22</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="G47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I47" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J47" t="n">
         <v>3.7</v>
       </c>
       <c r="K47" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L47" t="n">
         <v>1.49</v>
@@ -6784,7 +6784,7 @@
         <v>4.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U47" t="n">
         <v>1.82</v>
@@ -6820,7 +6820,7 @@
         <v>130</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G48" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>3.8</v>
@@ -6895,7 +6895,7 @@
         <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M48" t="n">
         <v>1.13</v>
@@ -6910,10 +6910,10 @@
         <v>1.53</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S48" t="n">
         <v>5.5</v>
@@ -6928,7 +6928,7 @@
         <v>1.31</v>
       </c>
       <c r="W48" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X48" t="n">
         <v>9.6</v>
@@ -6958,7 +6958,7 @@
         <v>13.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
         <v>24</v>
@@ -7018,7 +7018,7 @@
         <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I49" t="n">
         <v>2.58</v>
@@ -7045,7 +7045,7 @@
         <v>1.77</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R49" t="n">
         <v>1.28</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G50" t="n">
         <v>1.93</v>
       </c>
       <c r="H50" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I50" t="n">
         <v>5.7</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K50" t="n">
         <v>3.6</v>
@@ -7189,7 +7189,7 @@
         <v>4.8</v>
       </c>
       <c r="T50" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U50" t="n">
         <v>1.78</v>
@@ -7234,7 +7234,7 @@
         <v>29</v>
       </c>
       <c r="AI50" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ50" t="n">
         <v>22</v>
@@ -7252,7 +7252,7 @@
         <v>970</v>
       </c>
       <c r="AO50" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51">
@@ -7351,7 +7351,7 @@
         <v>6.2</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD51" t="n">
         <v>36</v>
@@ -7450,7 +7450,7 @@
         <v>1.78</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R52" t="n">
         <v>1.29</v>
@@ -7708,19 +7708,19 @@
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N54" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O54" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P54" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="R54" t="n">
         <v>1.2</v>
@@ -7729,7 +7729,7 @@
         <v>5</v>
       </c>
       <c r="T54" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U54" t="n">
         <v>1.78</v>
@@ -7738,61 +7738,61 @@
         <v>1.69</v>
       </c>
       <c r="W54" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
@@ -7822,97 +7822,97 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="G55" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="H55" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K55" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L55" t="n">
         <v>1.37</v>
       </c>
       <c r="M55" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="P55" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R55" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S55" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="U55" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="V55" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W55" t="n">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z55" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA55" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="AB55" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AE55" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AF55" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG55" t="n">
         <v>11.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI55" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AJ55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK55" t="n">
         <v>23</v>
@@ -7924,10 +7924,10 @@
         <v>260</v>
       </c>
       <c r="AN55" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56">
@@ -7963,7 +7963,7 @@
         <v>4.6</v>
       </c>
       <c r="H56" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
         <v>2.04</v>
@@ -7972,7 +7972,7 @@
         <v>3.4</v>
       </c>
       <c r="K56" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L56" t="n">
         <v>1.48</v>
@@ -7981,13 +7981,13 @@
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O56" t="n">
         <v>1.42</v>
       </c>
       <c r="P56" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q56" t="n">
         <v>2.28</v>
@@ -7996,13 +7996,13 @@
         <v>1.27</v>
       </c>
       <c r="S56" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T56" t="n">
         <v>1.98</v>
       </c>
       <c r="U56" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V56" t="n">
         <v>1.96</v>
@@ -8017,7 +8017,7 @@
         <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA56" t="n">
         <v>27</v>
@@ -8095,7 +8095,7 @@
         <v>2.64</v>
       </c>
       <c r="G57" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H57" t="n">
         <v>3.2</v>
@@ -8227,40 +8227,40 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
         <v>3.35</v>
       </c>
       <c r="H58" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="I58" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="J58" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K58" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L58" t="n">
         <v>1.59</v>
       </c>
       <c r="M58" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N58" t="n">
         <v>2.52</v>
       </c>
       <c r="O58" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P58" t="n">
         <v>1.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="R58" t="n">
         <v>1.18</v>
@@ -8275,10 +8275,10 @@
         <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W58" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X58" t="n">
         <v>8.6</v>
@@ -8323,7 +8323,7 @@
         <v>55</v>
       </c>
       <c r="AL58" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="n">
         <v>200</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -682,7 +682,7 @@
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,16 +691,16 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.52</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
         <v>1.7</v>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
         <v>44</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="I5" t="n">
         <v>2.16</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,19 +1096,19 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
         <v>2.12</v>
@@ -1123,7 +1123,7 @@
         <v>1.86</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1261,7 +1261,7 @@
         <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1366,7 +1366,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1375,7 +1375,7 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
         <v>1.54</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2.76</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.58</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>1.94</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1639,7 +1639,7 @@
         <v>1.89</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
         <v>1.89</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="G10" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1777,7 +1777,7 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
         <v>1.82</v>
@@ -1789,28 +1789,28 @@
         <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="X10" t="n">
         <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
         <v>14</v>
@@ -1819,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -1834,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
         <v>42</v>
@@ -1843,16 +1843,16 @@
         <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
         <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
         <v>2.14</v>
@@ -1936,7 +1936,7 @@
         <v>1.17</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y11" t="n">
         <v>8.4</v>
@@ -2020,13 +2020,13 @@
         <v>1.87</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
         <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.72</v>
@@ -2068,7 +2068,7 @@
         <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2158,13 +2158,13 @@
         <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>5.3</v>
+        <v>1.49</v>
       </c>
       <c r="I13" t="n">
         <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2203,7 +2203,7 @@
         <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X13" t="n">
         <v>14</v>
@@ -2425,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
@@ -2470,10 +2470,10 @@
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
         <v>18</v>
@@ -2566,7 +2566,7 @@
         <v>1.42</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J16" t="n">
         <v>4.7</v>
@@ -2695,7 +2695,7 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
         <v>4.8</v>
@@ -2704,13 +2704,13 @@
         <v>5.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2752,7 +2752,7 @@
         <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AA17" t="n">
         <v>150</v>
@@ -2992,7 +2992,7 @@
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
         <v>1.97</v>
@@ -3001,7 +3001,7 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
@@ -3016,7 +3016,7 @@
         <v>1.78</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
         <v>970</v>
@@ -3112,7 +3112,7 @@
         <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.26</v>
@@ -3121,13 +3121,13 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q20" t="n">
         <v>1.57</v>
@@ -3142,7 +3142,7 @@
         <v>1.9</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
@@ -3160,7 +3160,7 @@
         <v>110</v>
       </c>
       <c r="AA20" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
@@ -3172,7 +3172,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="n">
         <v>9.6</v>
@@ -3199,10 +3199,10 @@
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G21" t="n">
         <v>3.4</v>
@@ -3241,7 +3241,7 @@
         <v>2.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
@@ -3262,13 +3262,13 @@
         <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
         <v>1.77</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
         <v>3</v>
@@ -3280,7 +3280,7 @@
         <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
         <v>1.41</v>
@@ -3370,7 +3370,7 @@
         <v>2.16</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
         <v>3.75</v>
@@ -3385,7 +3385,7 @@
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3397,10 +3397,10 @@
         <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
@@ -3418,7 +3418,7 @@
         <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H23" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.65</v>
@@ -3526,16 +3526,16 @@
         <v>1.15</v>
       </c>
       <c r="N23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.65</v>
       </c>
       <c r="P23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="R23" t="n">
         <v>1.15</v>
@@ -3550,10 +3550,10 @@
         <v>1.52</v>
       </c>
       <c r="V23" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X23" t="n">
         <v>7.4</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.22</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
@@ -3664,46 +3664,46 @@
         <v>4.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
         <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
         <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="n">
         <v>12.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>8.6</v>
@@ -3712,13 +3712,13 @@
         <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
         <v>15.5</v>
@@ -3730,16 +3730,16 @@
         <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
@@ -3778,16 +3778,16 @@
         <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.95</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
@@ -3802,7 +3802,7 @@
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q25" t="n">
         <v>1.68</v>
@@ -3814,22 +3814,22 @@
         <v>2.68</v>
       </c>
       <c r="T25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
         <v>2.6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W25" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
         <v>17.5</v>
@@ -3865,7 +3865,7 @@
         <v>48</v>
       </c>
       <c r="AK25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL25" t="n">
         <v>36</v>
@@ -3874,10 +3874,10 @@
         <v>65</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -3916,13 +3916,13 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26" t="n">
         <v>11</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.21</v>
@@ -3931,7 +3931,7 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.12</v>
@@ -3949,19 +3949,19 @@
         <v>1.91</v>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V26" t="n">
         <v>1.03</v>
       </c>
       <c r="W26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="n">
         <v>970</v>
@@ -3976,28 +3976,28 @@
         <v>14</v>
       </c>
       <c r="AC26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD26" t="n">
         <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AI26" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="AO26" t="n">
         <v>610</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G27" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I27" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.3</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4066,19 +4066,19 @@
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R27" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S27" t="n">
         <v>2.4</v>
@@ -4090,25 +4090,25 @@
         <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W27" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X27" t="n">
         <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
         <v>46</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
@@ -4144,7 +4144,7 @@
         <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO27" t="n">
         <v>42</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
         <v>2.5</v>
@@ -4189,61 +4189,61 @@
         <v>2.52</v>
       </c>
       <c r="J28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S28" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
         <v>1.66</v>
       </c>
       <c r="W28" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z28" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>17</v>
       </c>
       <c r="AA28" t="n">
         <v>34</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.25</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.26</v>
       </c>
       <c r="H29" t="n">
         <v>13</v>
@@ -4324,10 +4324,10 @@
         <v>13.5</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
@@ -4342,7 +4342,7 @@
         <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q29" t="n">
         <v>1.33</v>
@@ -4351,7 +4351,7 @@
         <v>2.16</v>
       </c>
       <c r="S29" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T29" t="n">
         <v>1.79</v>
@@ -4363,7 +4363,7 @@
         <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
         <v>55</v>
@@ -4381,13 +4381,13 @@
         <v>16.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="n">
         <v>46</v>
       </c>
       <c r="AE29" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -4402,19 +4402,19 @@
         <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AO29" t="n">
         <v>120</v>
@@ -4450,7 +4450,7 @@
         <v>5.4</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H30" t="n">
         <v>1.63</v>
@@ -4459,7 +4459,7 @@
         <v>1.64</v>
       </c>
       <c r="J30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K30" t="n">
         <v>5</v>
@@ -4471,22 +4471,22 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R30" t="n">
         <v>2.06</v>
       </c>
       <c r="S30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
         <v>1.46</v>
@@ -4498,7 +4498,7 @@
         <v>2.56</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X30" t="n">
         <v>40</v>
@@ -4531,7 +4531,7 @@
         <v>22</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI30" t="n">
         <v>20</v>
@@ -4546,13 +4546,13 @@
         <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN30" t="n">
         <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="G31" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H31" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
@@ -4612,7 +4612,7 @@
         <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q31" t="n">
         <v>1.58</v>
@@ -4621,34 +4621,34 @@
         <v>1.66</v>
       </c>
       <c r="S31" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U31" t="n">
         <v>2.82</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="n">
         <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC31" t="n">
         <v>9.199999999999999</v>
@@ -4660,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
         <v>12.5</v>
@@ -4669,25 +4669,25 @@
         <v>13.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
       </c>
       <c r="AL31" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
         <v>55</v>
       </c>
       <c r="AN31" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H32" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="I32" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="J32" t="n">
         <v>3.5</v>
@@ -4741,7 +4741,7 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -4750,37 +4750,37 @@
         <v>2.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R32" t="n">
         <v>1.49</v>
       </c>
       <c r="S32" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U32" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V32" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="W32" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X32" t="n">
         <v>16.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB32" t="n">
         <v>16</v>
@@ -4792,13 +4792,13 @@
         <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
         <v>15</v>
@@ -4810,7 +4810,7 @@
         <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
         <v>42</v>
@@ -4822,7 +4822,7 @@
         <v>28</v>
       </c>
       <c r="AO32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="33">
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G33" t="n">
         <v>4.7</v>
       </c>
       <c r="H33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I33" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
         <v>4.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -4882,40 +4882,40 @@
         <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R33" t="n">
         <v>1.74</v>
       </c>
       <c r="S33" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T33" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U33" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W33" t="n">
         <v>1.27</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y33" t="n">
         <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB33" t="n">
         <v>26</v>
@@ -4927,7 +4927,7 @@
         <v>10.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF33" t="n">
         <v>42</v>
@@ -4936,7 +4936,7 @@
         <v>18</v>
       </c>
       <c r="AH33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
         <v>24</v>
@@ -4993,16 +4993,16 @@
         <v>3.5</v>
       </c>
       <c r="H34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.24</v>
       </c>
-      <c r="I34" t="n">
-        <v>2.26</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
         <v>1.41</v>
@@ -5011,37 +5011,37 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.28</v>
       </c>
       <c r="P34" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R34" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T34" t="n">
         <v>1.71</v>
       </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5053,7 +5053,7 @@
         <v>29</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC34" t="n">
         <v>8.199999999999999</v>
@@ -5065,16 +5065,16 @@
         <v>21</v>
       </c>
       <c r="AF34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG34" t="n">
         <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ34" t="n">
         <v>60</v>
@@ -5092,7 +5092,7 @@
         <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="35">
@@ -5125,7 +5125,7 @@
         <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -5143,19 +5143,19 @@
         <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.32</v>
       </c>
       <c r="P35" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>1.38</v>
@@ -5167,10 +5167,10 @@
         <v>1.78</v>
       </c>
       <c r="U35" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W35" t="n">
         <v>1.6</v>
@@ -5179,7 +5179,7 @@
         <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>19.5</v>
@@ -5197,7 +5197,7 @@
         <v>13</v>
       </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
         <v>16</v>
@@ -5224,10 +5224,10 @@
         <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO35" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -5260,7 +5260,7 @@
         <v>1.55</v>
       </c>
       <c r="G36" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H36" t="n">
         <v>6.2</v>
@@ -5275,7 +5275,7 @@
         <v>5.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -5284,25 +5284,25 @@
         <v>6.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="S36" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T36" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U36" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V36" t="n">
         <v>1.18</v>
@@ -5311,7 +5311,7 @@
         <v>2.78</v>
       </c>
       <c r="X36" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y36" t="n">
         <v>32</v>
@@ -5323,7 +5323,7 @@
         <v>150</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
         <v>11.5</v>
@@ -5338,7 +5338,7 @@
         <v>11.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH36" t="n">
         <v>18</v>
@@ -5347,7 +5347,7 @@
         <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK36" t="n">
         <v>13</v>
@@ -5356,10 +5356,10 @@
         <v>24</v>
       </c>
       <c r="AM36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.4</v>
@@ -5425,7 +5425,7 @@
         <v>2.14</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R37" t="n">
         <v>1.45</v>
@@ -5434,31 +5434,31 @@
         <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U37" t="n">
         <v>2.38</v>
       </c>
       <c r="V37" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W37" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z37" t="n">
         <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
         <v>8</v>
@@ -5482,10 +5482,10 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
         <v>34</v>
@@ -5494,10 +5494,10 @@
         <v>75</v>
       </c>
       <c r="AN37" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.34</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H38" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I38" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K38" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
         <v>1.2</v>
@@ -5551,34 +5551,34 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P38" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q38" t="n">
         <v>1.33</v>
       </c>
       <c r="R38" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
         <v>1.59</v>
       </c>
       <c r="U38" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V38" t="n">
         <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X38" t="n">
         <v>60</v>
@@ -5590,28 +5590,28 @@
         <v>110</v>
       </c>
       <c r="AA38" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AB38" t="n">
         <v>16.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
         <v>36</v>
       </c>
       <c r="AE38" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF38" t="n">
         <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI38" t="n">
         <v>75</v>
@@ -5629,7 +5629,7 @@
         <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AO38" t="n">
         <v>65</v>
@@ -5686,7 +5686,7 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="O39" t="n">
         <v>1.07</v>
@@ -5698,13 +5698,13 @@
         <v>1.22</v>
       </c>
       <c r="R39" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="S39" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="T39" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="U39" t="n">
         <v>1.52</v>
@@ -5728,10 +5728,10 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC39" t="n">
-        <v>990</v>
+        <v>65</v>
       </c>
       <c r="AD39" t="n">
         <v>1000</v>
@@ -5743,7 +5743,7 @@
         <v>10.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5752,16 +5752,16 @@
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK39" t="n">
         <v>18.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
         <v>1.86</v>
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="I40" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.2</v>
       </c>
       <c r="L40" t="n">
         <v>1.34</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S40" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T40" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U40" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V40" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="W40" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X40" t="n">
         <v>21</v>
@@ -5857,52 +5857,52 @@
         <v>12</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD40" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ40" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK40" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN40" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO40" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="41">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G41" t="n">
         <v>2.58</v>
@@ -5941,7 +5941,7 @@
         <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J41" t="n">
         <v>2.8</v>
@@ -5956,13 +5956,13 @@
         <v>1.16</v>
       </c>
       <c r="N41" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O41" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P41" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q41" t="n">
         <v>3.1</v>
@@ -5971,7 +5971,7 @@
         <v>1.15</v>
       </c>
       <c r="S41" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T41" t="n">
         <v>2.36</v>
@@ -5983,22 +5983,22 @@
         <v>1.32</v>
       </c>
       <c r="W41" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X41" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z41" t="n">
         <v>36</v>
       </c>
       <c r="AA41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC41" t="n">
         <v>6.8</v>
@@ -6010,13 +6010,13 @@
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="n">
         <v>130</v>
@@ -6025,16 +6025,16 @@
         <v>70</v>
       </c>
       <c r="AK41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL41" t="n">
         <v>100</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1000</v>
       </c>
       <c r="AM41" t="n">
         <v>290</v>
       </c>
       <c r="AN41" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO41" t="n">
         <v>140</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G42" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="H42" t="n">
         <v>23</v>
       </c>
       <c r="I42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" t="n">
         <v>11</v>
@@ -6091,7 +6091,7 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.07</v>
@@ -6106,10 +6106,10 @@
         <v>2.56</v>
       </c>
       <c r="S42" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T42" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U42" t="n">
         <v>2.1</v>
@@ -6118,7 +6118,7 @@
         <v>1.04</v>
       </c>
       <c r="W42" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X42" t="n">
         <v>85</v>
@@ -6127,13 +6127,13 @@
         <v>120</v>
       </c>
       <c r="Z42" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
         <v>27</v>
@@ -6142,37 +6142,37 @@
         <v>80</v>
       </c>
       <c r="AE42" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF42" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK42" t="n">
         <v>12.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="AO42" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G45" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J45" t="n">
         <v>3.1</v>
@@ -6496,13 +6496,13 @@
         <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="O45" t="n">
         <v>1.46</v>
       </c>
       <c r="P45" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q45" t="n">
         <v>2.36</v>
@@ -6511,19 +6511,19 @@
         <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U45" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W45" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
@@ -6538,16 +6538,16 @@
         <v>70</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF45" t="n">
         <v>16.5</v>
@@ -6562,7 +6562,7 @@
         <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="n">
         <v>36</v>
@@ -6571,7 +6571,7 @@
         <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN45" t="n">
         <v>34</v>
@@ -6610,19 +6610,19 @@
         <v>1.89</v>
       </c>
       <c r="G46" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H46" t="n">
         <v>4.9</v>
       </c>
       <c r="I46" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J46" t="n">
         <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L46" t="n">
         <v>1.49</v>
@@ -6637,16 +6637,16 @@
         <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R46" t="n">
         <v>1.26</v>
       </c>
       <c r="S46" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T46" t="n">
         <v>2.02</v>
@@ -6664,7 +6664,7 @@
         <v>11.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z46" t="n">
         <v>38</v>
@@ -6679,7 +6679,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE46" t="n">
         <v>85</v>
@@ -6694,7 +6694,7 @@
         <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="n">
         <v>22</v>
@@ -6709,10 +6709,10 @@
         <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G47" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H47" t="n">
         <v>5.8</v>
@@ -6757,7 +6757,7 @@
         <v>3.7</v>
       </c>
       <c r="K47" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L47" t="n">
         <v>1.49</v>
@@ -6784,13 +6784,13 @@
         <v>4.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U47" t="n">
         <v>1.82</v>
       </c>
       <c r="V47" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
         <v>2.28</v>
@@ -6802,7 +6802,7 @@
         <v>16.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AA47" t="n">
         <v>220</v>
@@ -6820,7 +6820,7 @@
         <v>130</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG47" t="n">
         <v>10.5</v>
@@ -6835,7 +6835,7 @@
         <v>19</v>
       </c>
       <c r="AK47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL47" t="n">
         <v>46</v>
@@ -6844,7 +6844,7 @@
         <v>210</v>
       </c>
       <c r="AN47" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO47" t="n">
         <v>190</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H48" t="n">
         <v>3.8</v>
@@ -6889,7 +6889,7 @@
         <v>4.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K48" t="n">
         <v>3.25</v>
@@ -6898,19 +6898,19 @@
         <v>1.59</v>
       </c>
       <c r="M48" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N48" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O48" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P48" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R48" t="n">
         <v>1.19</v>
@@ -6919,25 +6919,25 @@
         <v>5.5</v>
       </c>
       <c r="T48" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V48" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W48" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
         <v>110</v>
@@ -6949,37 +6949,37 @@
         <v>7.2</v>
       </c>
       <c r="AD48" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE48" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG48" t="n">
         <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AI48" t="n">
         <v>110</v>
       </c>
       <c r="AJ48" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AK48" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL48" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN48" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO48" t="n">
         <v>120</v>
@@ -7018,7 +7018,7 @@
         <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I49" t="n">
         <v>2.58</v>
@@ -7036,22 +7036,22 @@
         <v>1.09</v>
       </c>
       <c r="N49" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O49" t="n">
         <v>1.41</v>
       </c>
       <c r="P49" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q49" t="n">
         <v>2.24</v>
       </c>
       <c r="R49" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S49" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T49" t="n">
         <v>1.89</v>
@@ -7081,7 +7081,7 @@
         <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD49" t="n">
         <v>12.5</v>
@@ -7147,52 +7147,52 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="G50" t="n">
         <v>1.93</v>
       </c>
       <c r="H50" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
         <v>5.7</v>
       </c>
       <c r="J50" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
         <v>3.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M50" t="n">
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O50" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P50" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="R50" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S50" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="T50" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="U50" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
         <v>1.21</v>
@@ -7201,7 +7201,7 @@
         <v>2.06</v>
       </c>
       <c r="X50" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y50" t="n">
         <v>970</v>
@@ -7210,16 +7210,16 @@
         <v>40</v>
       </c>
       <c r="AA50" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB50" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC50" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE50" t="n">
         <v>110</v>
@@ -7228,10 +7228,10 @@
         <v>10.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI50" t="n">
         <v>120</v>
@@ -7240,19 +7240,19 @@
         <v>22</v>
       </c>
       <c r="AK50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM50" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN50" t="n">
         <v>970</v>
       </c>
       <c r="AO50" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51">
@@ -7282,49 +7282,49 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G51" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H51" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I51" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
         <v>3.95</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.48</v>
       </c>
       <c r="M51" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N51" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O51" t="n">
         <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R51" t="n">
         <v>1.25</v>
       </c>
       <c r="S51" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U51" t="n">
         <v>1.64</v>
@@ -7333,19 +7333,19 @@
         <v>1.11</v>
       </c>
       <c r="W51" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="X51" t="n">
         <v>12.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z51" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA51" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AB51" t="n">
         <v>6.2</v>
@@ -7369,25 +7369,25 @@
         <v>32</v>
       </c>
       <c r="AI51" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ51" t="n">
         <v>14.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="n">
         <v>12.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G52" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J52" t="n">
         <v>3.3</v>
@@ -7438,16 +7438,16 @@
         <v>1.47</v>
       </c>
       <c r="M52" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P52" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q52" t="n">
         <v>2.12</v>
@@ -7456,7 +7456,7 @@
         <v>1.29</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T52" t="n">
         <v>1.83</v>
@@ -7468,13 +7468,13 @@
         <v>1.35</v>
       </c>
       <c r="W52" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X52" t="n">
         <v>13.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z52" t="n">
         <v>27</v>
@@ -7492,10 +7492,10 @@
         <v>15.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF52" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG52" t="n">
         <v>11</v>
@@ -7510,13 +7510,13 @@
         <v>32</v>
       </c>
       <c r="AK52" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL52" t="n">
         <v>44</v>
       </c>
       <c r="AM52" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN52" t="n">
         <v>23</v>
@@ -7555,13 +7555,13 @@
         <v>3.15</v>
       </c>
       <c r="G53" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I53" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J53" t="n">
         <v>3.25</v>
@@ -7570,7 +7570,7 @@
         <v>3.3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M53" t="n">
         <v>1.09</v>
@@ -7600,10 +7600,10 @@
         <v>1.96</v>
       </c>
       <c r="V53" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W53" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X53" t="n">
         <v>11</v>
@@ -7633,7 +7633,7 @@
         <v>20</v>
       </c>
       <c r="AG53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH53" t="n">
         <v>20</v>
@@ -7645,7 +7645,7 @@
         <v>55</v>
       </c>
       <c r="AK53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="n">
         <v>60</v>
@@ -7654,7 +7654,7 @@
         <v>140</v>
       </c>
       <c r="AN53" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO53" t="n">
         <v>32</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="G55" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="J55" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K55" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L55" t="n">
         <v>1.37</v>
@@ -7849,85 +7849,85 @@
         <v>3.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R55" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T55" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="U55" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="V55" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W55" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="X55" t="n">
         <v>13.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z55" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AA55" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
         <v>6.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD55" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE55" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="AF55" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AG55" t="n">
         <v>11.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="n">
         <v>240</v>
       </c>
       <c r="AJ55" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK55" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM55" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="AN55" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G56" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="I56" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
         <v>3.65</v>
@@ -7981,88 +7981,88 @@
         <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O56" t="n">
         <v>1.42</v>
       </c>
       <c r="P56" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q56" t="n">
         <v>2.28</v>
       </c>
       <c r="R56" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T56" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V56" t="n">
         <v>1.98</v>
       </c>
-      <c r="U56" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.96</v>
-      </c>
       <c r="W56" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X56" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA56" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB56" t="n">
         <v>14</v>
       </c>
       <c r="AC56" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD56" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF56" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH56" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI56" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ56" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK56" t="n">
         <v>70</v>
       </c>
       <c r="AL56" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN56" t="n">
         <v>90</v>
       </c>
       <c r="AO56" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="57">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G57" t="n">
         <v>2.88</v>
@@ -8137,7 +8137,7 @@
         <v>2.28</v>
       </c>
       <c r="U57" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V57" t="n">
         <v>1.4</v>
@@ -8227,25 +8227,25 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G58" t="n">
         <v>3.35</v>
       </c>
       <c r="H58" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I58" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J58" t="n">
         <v>3.05</v>
       </c>
       <c r="K58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M58" t="n">
         <v>1.12</v>
@@ -8260,7 +8260,7 @@
         <v>1.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R58" t="n">
         <v>1.18</v>
@@ -8275,10 +8275,10 @@
         <v>1.78</v>
       </c>
       <c r="V58" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W58" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X58" t="n">
         <v>8.6</v>
@@ -8290,10 +8290,10 @@
         <v>17</v>
       </c>
       <c r="AA58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC58" t="n">
         <v>7</v>
@@ -8332,7 +8332,7 @@
         <v>65</v>
       </c>
       <c r="AO58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,19 +679,19 @@
         <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>2.52</v>
+        <v>1.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -718,7 +718,7 @@
         <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X2" t="n">
         <v>90</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>38</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
         <v>27</v>
@@ -757,10 +757,10 @@
         <v>95</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.09</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.4</v>
-      </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
@@ -820,46 +820,46 @@
         <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>1.54</v>
@@ -949,16 +949,16 @@
         <v>2.02</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>13.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>1.89</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.35</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,10 +1096,10 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
         <v>2.28</v>
@@ -1114,16 +1114,16 @@
         <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>1.77</v>
@@ -1219,7 +1219,7 @@
         <v>2.36</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1228,13 +1228,13 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>1.61</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.61</v>
@@ -1345,22 +1345,22 @@
         <v>1.15</v>
       </c>
       <c r="G7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
         <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1369,22 +1369,22 @@
         <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="U7" t="n">
         <v>1.47</v>
@@ -1393,13 +1393,13 @@
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X7" t="n">
         <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="n">
         <v>390</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD7" t="n">
         <v>130</v>
@@ -1420,19 +1420,19 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1444,7 +1444,7 @@
         <v>550</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
         <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.22</v>
@@ -1519,16 +1519,16 @@
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1555,10 +1555,10 @@
         <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
@@ -1567,19 +1567,19 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO8" t="n">
         <v>55</v>
@@ -1615,7 +1615,7 @@
         <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H9" t="n">
         <v>1.4</v>
@@ -1633,7 +1633,7 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>1.89</v>
@@ -1663,19 +1663,19 @@
         <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB9" t="n">
         <v>1000</v>
@@ -1684,7 +1684,7 @@
         <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1756,10 +1756,10 @@
         <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1780,7 +1780,7 @@
         <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
@@ -1789,13 +1789,13 @@
         <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
         <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
         <v>1.55</v>
@@ -1807,7 +1807,7 @@
         <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
@@ -1819,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE10" t="n">
         <v>38</v>
@@ -1852,7 +1852,7 @@
         <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1924,10 +1924,10 @@
         <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
         <v>2.14</v>
@@ -1939,7 +1939,7 @@
         <v>90</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
@@ -2029,7 +2029,7 @@
         <v>6.8</v>
       </c>
       <c r="J12" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
@@ -2155,16 +2155,16 @@
         <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
         <v>1.49</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -2200,10 +2200,10 @@
         <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="X13" t="n">
         <v>14</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2422,88 +2422,88 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
         <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2512,22 +2512,22 @@
         <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="I16" t="n">
         <v>1.49</v>
       </c>
       <c r="J16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.26</v>
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -2590,7 +2590,7 @@
         <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R16" t="n">
         <v>1.5</v>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2620,7 +2620,7 @@
         <v>11.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -2695,13 +2695,13 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
@@ -2710,7 +2710,7 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2719,10 +2719,10 @@
         <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
         <v>2.2</v>
@@ -2737,7 +2737,7 @@
         <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
         <v>1.21</v>
@@ -2752,7 +2752,7 @@
         <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="n">
         <v>150</v>
@@ -2869,7 +2869,7 @@
         <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
         <v>2.18</v>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -2974,13 +2974,13 @@
         <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3001,7 +3001,7 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
@@ -3013,7 +3013,7 @@
         <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X19" t="n">
         <v>90</v>
@@ -3043,7 +3043,7 @@
         <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
         <v>23</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="I21" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.32</v>
@@ -3256,46 +3256,46 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="n">
         <v>14.5</v>
@@ -3304,28 +3304,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
         <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>44</v>
@@ -3334,10 +3334,10 @@
         <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -3385,22 +3385,22 @@
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
@@ -3409,7 +3409,7 @@
         <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
         <v>1.93</v>
@@ -3421,7 +3421,7 @@
         <v>1.76</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y22" t="n">
         <v>13</v>
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G23" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="H23" t="n">
         <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
         <v>1.65</v>
       </c>
       <c r="M23" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="O23" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="P23" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="U23" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="n">
         <v>350</v>
@@ -3574,22 +3574,22 @@
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
         <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3598,13 +3598,13 @@
         <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="n">
         <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G24" t="n">
         <v>3.65</v>
@@ -3646,7 +3646,7 @@
         <v>2.16</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J24" t="n">
         <v>3.8</v>
@@ -3655,7 +3655,7 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3664,34 +3664,34 @@
         <v>4.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
         <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W24" t="n">
         <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>12.5</v>
@@ -3709,10 +3709,10 @@
         <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
@@ -3724,7 +3724,7 @@
         <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
         <v>60</v>
@@ -3733,16 +3733,16 @@
         <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="25">
@@ -3778,10 +3778,10 @@
         <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3796,31 +3796,31 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U25" t="n">
         <v>2.6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W25" t="n">
         <v>1.49</v>
@@ -3832,7 +3832,7 @@
         <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA25" t="n">
         <v>32</v>
@@ -3844,7 +3844,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
@@ -3859,7 +3859,7 @@
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
         <v>48</v>
@@ -3868,10 +3868,10 @@
         <v>28</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN25" t="n">
         <v>19</v>
@@ -3919,7 +3919,7 @@
         <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="K26" t="n">
         <v>11.5</v>
@@ -3931,28 +3931,28 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O26" t="n">
         <v>1.12</v>
       </c>
       <c r="P26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q26" t="n">
         <v>1.37</v>
       </c>
       <c r="R26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T26" t="n">
         <v>2.36</v>
       </c>
       <c r="U26" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V26" t="n">
         <v>1.03</v>
@@ -3961,10 +3961,10 @@
         <v>7.6</v>
       </c>
       <c r="X26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="Z26" t="n">
         <v>310</v>
@@ -3973,19 +3973,19 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
         <v>26</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AE26" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG26" t="n">
         <v>14.5</v>
@@ -4000,16 +4000,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="AO26" t="n">
         <v>610</v>
@@ -4048,10 +4048,10 @@
         <v>1.74</v>
       </c>
       <c r="H27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I27" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.2</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4081,34 +4081,34 @@
         <v>1.69</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V27" t="n">
         <v>1.24</v>
       </c>
       <c r="W27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
         <v>110</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
         <v>10.5</v>
@@ -4117,34 +4117,34 @@
         <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ27" t="n">
         <v>17.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO27" t="n">
         <v>42</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I28" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J28" t="n">
         <v>3.6</v>
@@ -4198,40 +4198,40 @@
         <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
         <v>4.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V28" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="W28" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y28" t="n">
         <v>13.5</v>
@@ -4243,7 +4243,7 @@
         <v>34</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
@@ -4255,34 +4255,34 @@
         <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ28" t="n">
         <v>48</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="n">
         <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="K29" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
@@ -4342,7 +4342,7 @@
         <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="n">
         <v>1.33</v>
@@ -4351,19 +4351,19 @@
         <v>2.16</v>
       </c>
       <c r="S29" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U29" t="n">
         <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X29" t="n">
         <v>55</v>
@@ -4381,7 +4381,7 @@
         <v>16.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD29" t="n">
         <v>46</v>
@@ -4393,25 +4393,25 @@
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
         <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
         <v>2.98</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G30" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I30" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J30" t="n">
         <v>4.8</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.21</v>
@@ -4477,28 +4477,28 @@
         <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="R30" t="n">
         <v>2.06</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
         <v>40</v>
@@ -4507,7 +4507,7 @@
         <v>18.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA30" t="n">
         <v>19</v>
@@ -4519,10 +4519,10 @@
         <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
         <v>60</v>
@@ -4534,25 +4534,25 @@
         <v>15.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G31" t="n">
         <v>2.86</v>
@@ -4591,7 +4591,7 @@
         <v>2.52</v>
       </c>
       <c r="I31" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J31" t="n">
         <v>3.9</v>
@@ -4615,10 +4615,10 @@
         <v>2.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
         <v>2.44</v>
@@ -4627,7 +4627,7 @@
         <v>1.52</v>
       </c>
       <c r="U31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V31" t="n">
         <v>1.64</v>
@@ -4648,7 +4648,7 @@
         <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC31" t="n">
         <v>9.199999999999999</v>
@@ -4669,7 +4669,7 @@
         <v>13.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
         <v>44</v>
@@ -4681,13 +4681,13 @@
         <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN31" t="n">
         <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32">
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="I32" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
         <v>3.6</v>
@@ -4741,7 +4741,7 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -4756,19 +4756,19 @@
         <v>1.49</v>
       </c>
       <c r="S32" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V32" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X32" t="n">
         <v>16.5</v>
@@ -4780,7 +4780,7 @@
         <v>16</v>
       </c>
       <c r="AA32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
         <v>16</v>
@@ -4804,25 +4804,25 @@
         <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ32" t="n">
         <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN32" t="n">
         <v>28</v>
       </c>
       <c r="AO32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>1.81</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="O33" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P33" t="n">
-        <v>2.82</v>
+        <v>1.95</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="S33" t="n">
-        <v>2.28</v>
+        <v>3.55</v>
       </c>
       <c r="T33" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
       <c r="W33" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AB33" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE33" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AG33" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN33" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AO33" t="n">
-        <v>6.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -4990,13 +4990,13 @@
         <v>3.45</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.24</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5005,22 +5005,22 @@
         <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
         <v>2.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R34" t="n">
         <v>1.46</v>
@@ -5029,19 +5029,19 @@
         <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W34" t="n">
         <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5050,7 +5050,7 @@
         <v>14.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB34" t="n">
         <v>15.5</v>
@@ -5077,7 +5077,7 @@
         <v>32</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK34" t="n">
         <v>36</v>
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.62</v>
+        <v>4.5</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>4.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>1.95</v>
+        <v>2.82</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="R35" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="S35" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="T35" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="U35" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="V35" t="n">
-        <v>1.48</v>
+        <v>2.22</v>
       </c>
       <c r="W35" t="n">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="X35" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y35" t="n">
         <v>14</v>
       </c>
-      <c r="Y35" t="n">
-        <v>12</v>
-      </c>
       <c r="Z35" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN35" t="n">
         <v>32</v>
       </c>
-      <c r="AF35" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>23</v>
-      </c>
       <c r="AO35" t="n">
-        <v>28</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
         <v>6.2</v>
@@ -5275,43 +5275,43 @@
         <v>5.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="T36" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U36" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V36" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W36" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="X36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y36" t="n">
         <v>32</v>
@@ -5320,46 +5320,46 @@
         <v>55</v>
       </c>
       <c r="AA36" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD36" t="n">
         <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
         <v>15.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM36" t="n">
         <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G37" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.1</v>
       </c>
-      <c r="I37" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.4</v>
@@ -5416,13 +5416,13 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O37" t="n">
         <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q37" t="n">
         <v>1.86</v>
@@ -5431,7 +5431,7 @@
         <v>1.45</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T37" t="n">
         <v>1.69</v>
@@ -5440,7 +5440,7 @@
         <v>2.38</v>
       </c>
       <c r="V37" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W37" t="n">
         <v>1.64</v>
@@ -5455,7 +5455,7 @@
         <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB37" t="n">
         <v>12</v>
@@ -5479,13 +5479,13 @@
         <v>15</v>
       </c>
       <c r="AI37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL37" t="n">
         <v>34</v>
@@ -5494,7 +5494,7 @@
         <v>75</v>
       </c>
       <c r="AN37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO37" t="n">
         <v>26</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.33</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.34</v>
-      </c>
       <c r="H38" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I38" t="n">
         <v>10</v>
@@ -5551,49 +5551,49 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O38" t="n">
         <v>1.1</v>
       </c>
       <c r="P38" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R38" t="n">
         <v>2.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T38" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U38" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="V38" t="n">
         <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X38" t="n">
         <v>60</v>
       </c>
       <c r="Y38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA38" t="n">
         <v>320</v>
       </c>
       <c r="AB38" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC38" t="n">
         <v>17</v>
@@ -5602,7 +5602,7 @@
         <v>36</v>
       </c>
       <c r="AE38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF38" t="n">
         <v>12.5</v>
@@ -5623,16 +5623,16 @@
         <v>12</v>
       </c>
       <c r="AL38" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AM38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -5668,16 +5668,16 @@
         <v>1.07</v>
       </c>
       <c r="H39" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I39" t="n">
         <v>70</v>
       </c>
       <c r="J39" t="n">
+        <v>21</v>
+      </c>
+      <c r="K39" t="n">
         <v>22</v>
-      </c>
-      <c r="K39" t="n">
-        <v>23</v>
       </c>
       <c r="L39" t="n">
         <v>1.15</v>
@@ -5686,7 +5686,7 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.07</v>
@@ -5698,25 +5698,25 @@
         <v>1.22</v>
       </c>
       <c r="R39" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="S39" t="n">
         <v>1.55</v>
       </c>
       <c r="T39" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="U39" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V39" t="n">
         <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X39" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="n">
         <v>1000</v>
@@ -5740,19 +5740,19 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AK39" t="n">
         <v>18.5</v>
@@ -5761,7 +5761,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN39" t="n">
         <v>1.86</v>
@@ -5803,31 +5803,31 @@
         <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="I40" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.34</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
         <v>5.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q40" t="n">
         <v>1.68</v>
@@ -5836,22 +5836,22 @@
         <v>1.56</v>
       </c>
       <c r="S40" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U40" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V40" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
       </c>
       <c r="X40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -5866,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD40" t="n">
         <v>9.800000000000001</v>
@@ -5878,19 +5878,19 @@
         <v>34</v>
       </c>
       <c r="AG40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH40" t="n">
         <v>16</v>
       </c>
-      <c r="AH40" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI40" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
         <v>85</v>
       </c>
       <c r="AK40" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="n">
         <v>44</v>
@@ -5902,7 +5902,7 @@
         <v>34</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>2.44</v>
       </c>
       <c r="G41" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H41" t="n">
         <v>3.85</v>
@@ -5983,7 +5983,7 @@
         <v>1.32</v>
       </c>
       <c r="W41" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X41" t="n">
         <v>6.8</v>
@@ -5998,10 +5998,10 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD41" t="n">
         <v>27</v>
@@ -6097,16 +6097,16 @@
         <v>1.07</v>
       </c>
       <c r="P42" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Q42" t="n">
         <v>1.24</v>
       </c>
       <c r="R42" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="S42" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="T42" t="n">
         <v>1.85</v>
@@ -6121,7 +6121,7 @@
         <v>7.4</v>
       </c>
       <c r="X42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="n">
         <v>120</v>
@@ -6136,7 +6136,7 @@
         <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD42" t="n">
         <v>80</v>
@@ -6145,31 +6145,31 @@
         <v>310</v>
       </c>
       <c r="AF42" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ42" t="n">
         <v>11</v>
       </c>
       <c r="AK42" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM42" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="AO42" t="n">
         <v>290</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,34 +6226,34 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="O43" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W43" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G44" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="H44" t="n">
         <v>6.4</v>
       </c>
       <c r="I44" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
         <v>1.39</v>
@@ -6361,43 +6361,43 @@
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="O44" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P44" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R44" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S44" t="n">
         <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="V44" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W44" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="X44" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y44" t="n">
         <v>20</v>
       </c>
       <c r="Z44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
@@ -6409,7 +6409,7 @@
         <v>970</v>
       </c>
       <c r="AD44" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE44" t="n">
         <v>180</v>
@@ -6421,7 +6421,7 @@
         <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI44" t="n">
         <v>170</v>
@@ -6430,16 +6430,16 @@
         <v>970</v>
       </c>
       <c r="AK44" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6502,7 +6502,7 @@
         <v>1.46</v>
       </c>
       <c r="P45" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q45" t="n">
         <v>2.36</v>
@@ -6514,10 +6514,10 @@
         <v>4.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U45" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V45" t="n">
         <v>1.42</v>
@@ -6529,7 +6529,7 @@
         <v>10.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
         <v>23</v>
@@ -6556,7 +6556,7 @@
         <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI45" t="n">
         <v>65</v>
@@ -6574,7 +6574,7 @@
         <v>160</v>
       </c>
       <c r="AN45" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AO45" t="n">
         <v>60</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G46" t="n">
         <v>1.94</v>
       </c>
       <c r="H46" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I46" t="n">
         <v>5.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.49</v>
@@ -6631,28 +6631,28 @@
         <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="n">
         <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R46" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S46" t="n">
         <v>4.3</v>
       </c>
       <c r="T46" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V46" t="n">
         <v>1.23</v>
@@ -6667,7 +6667,7 @@
         <v>15.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA46" t="n">
         <v>140</v>
@@ -6676,7 +6676,7 @@
         <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD46" t="n">
         <v>21</v>
@@ -6685,7 +6685,7 @@
         <v>85</v>
       </c>
       <c r="AF46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG46" t="n">
         <v>10.5</v>
@@ -6694,10 +6694,10 @@
         <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK46" t="n">
         <v>23</v>
@@ -6706,10 +6706,10 @@
         <v>48</v>
       </c>
       <c r="AM46" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO46" t="n">
         <v>120</v>
@@ -6733,43 +6733,43 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.72</v>
+        <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>1.78</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>5.8</v>
+        <v>2.48</v>
       </c>
       <c r="I47" t="n">
-        <v>6.4</v>
+        <v>2.56</v>
       </c>
       <c r="J47" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P47" t="n">
         <v>1.74</v>
@@ -6778,76 +6778,76 @@
         <v>2.24</v>
       </c>
       <c r="R47" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="U47" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>2.28</v>
+        <v>1.43</v>
       </c>
       <c r="X47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>16.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL47" t="n">
         <v>60</v>
       </c>
-      <c r="AA47" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>46</v>
-      </c>
       <c r="AM47" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AN47" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="AO47" t="n">
-        <v>190</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G48" t="n">
         <v>2.36</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
         <v>3.05</v>
@@ -6898,13 +6898,13 @@
         <v>1.59</v>
       </c>
       <c r="M48" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N48" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O48" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P48" t="n">
         <v>1.58</v>
@@ -6919,13 +6919,13 @@
         <v>5.5</v>
       </c>
       <c r="T48" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U48" t="n">
         <v>1.78</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W48" t="n">
         <v>1.73</v>
@@ -6937,7 +6937,7 @@
         <v>10.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA48" t="n">
         <v>110</v>
@@ -7003,46 +7003,46 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.2</v>
+        <v>1.72</v>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>1.78</v>
       </c>
       <c r="H49" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="I49" t="n">
-        <v>2.58</v>
+        <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K49" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L49" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M49" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
         <v>3.15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P49" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q49" t="n">
         <v>2.24</v>
@@ -7051,73 +7051,73 @@
         <v>1.27</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="U49" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="V49" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>1.43</v>
+        <v>2.28</v>
       </c>
       <c r="X49" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AA49" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AB49" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD49" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AE49" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>9.4</v>
       </c>
       <c r="AG49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN49" t="n">
         <v>15</v>
       </c>
-      <c r="AH49" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>48</v>
-      </c>
       <c r="AO49" t="n">
-        <v>29</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G50" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I50" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J50" t="n">
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L50" t="n">
         <v>1.51</v>
@@ -7174,7 +7174,7 @@
         <v>2.92</v>
       </c>
       <c r="O50" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P50" t="n">
         <v>1.67</v>
@@ -7192,13 +7192,13 @@
         <v>2.08</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V50" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X50" t="n">
         <v>12.5</v>
@@ -7207,7 +7207,7 @@
         <v>970</v>
       </c>
       <c r="Z50" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA50" t="n">
         <v>180</v>
@@ -7219,7 +7219,7 @@
         <v>8.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE50" t="n">
         <v>110</v>
@@ -7285,7 +7285,7 @@
         <v>1.5</v>
       </c>
       <c r="G51" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H51" t="n">
         <v>8.6</v>
@@ -7327,13 +7327,13 @@
         <v>2.38</v>
       </c>
       <c r="U51" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V51" t="n">
         <v>1.11</v>
       </c>
       <c r="W51" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X51" t="n">
         <v>12.5</v>
@@ -7351,7 +7351,7 @@
         <v>6.2</v>
       </c>
       <c r="AC51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
         <v>36</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G52" t="n">
         <v>2.38</v>
@@ -7468,7 +7468,7 @@
         <v>1.35</v>
       </c>
       <c r="W52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X52" t="n">
         <v>13.5</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G53" t="n">
         <v>3.15</v>
       </c>
-      <c r="G53" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H53" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I53" t="n">
         <v>2.68</v>
@@ -7591,7 +7591,7 @@
         <v>1.26</v>
       </c>
       <c r="S53" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T53" t="n">
         <v>1.89</v>
@@ -7603,7 +7603,7 @@
         <v>1.59</v>
       </c>
       <c r="W53" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X53" t="n">
         <v>11</v>
@@ -7615,7 +7615,7 @@
         <v>16</v>
       </c>
       <c r="AA53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="n">
         <v>10.5</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,127 +7678,127 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="H54" t="n">
-        <v>2.22</v>
+        <v>1.02</v>
       </c>
       <c r="I54" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>2.64</v>
+        <v>1.02</v>
       </c>
       <c r="K54" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>2.62</v>
+        <v>1.08</v>
       </c>
       <c r="O54" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="P54" t="n">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.54</v>
+        <v>1.24</v>
       </c>
       <c r="R54" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>1.24</v>
       </c>
       <c r="T54" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W54" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="X54" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.37</v>
+        <v>3.75</v>
       </c>
       <c r="G55" t="n">
-        <v>1.44</v>
+        <v>4.5</v>
       </c>
       <c r="H55" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X55" t="n">
         <v>10.5</v>
       </c>
-      <c r="I55" t="n">
+      <c r="Y55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB55" t="n">
         <v>13.5</v>
       </c>
-      <c r="J55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T55" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X55" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AC55" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="AD55" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="AF55" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AG55" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH55" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO55" t="n">
         <v>40</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>370</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,132 +7943,132 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4.4</v>
+        <v>1.37</v>
       </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>1.45</v>
       </c>
       <c r="H56" t="n">
-        <v>1.96</v>
+        <v>10.5</v>
       </c>
       <c r="I56" t="n">
-        <v>2.02</v>
+        <v>13</v>
       </c>
       <c r="J56" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="K56" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="L56" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="M56" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P56" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R56" t="n">
         <v>1.28</v>
       </c>
       <c r="S56" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T56" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="U56" t="n">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="V56" t="n">
-        <v>1.98</v>
+        <v>1.08</v>
       </c>
       <c r="W56" t="n">
-        <v>1.26</v>
+        <v>3.2</v>
       </c>
       <c r="X56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>340</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG56" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y56" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>19</v>
-      </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI56" t="n">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="AJ56" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="AK56" t="n">
-        <v>70</v>
+        <v>19.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM56" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="AN56" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AO56" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="G57" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
       <c r="H57" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N57" t="n">
         <v>3.2</v>
       </c>
-      <c r="I57" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.34</v>
-      </c>
       <c r="O57" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="P57" t="n">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="R57" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="T57" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="U57" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="V57" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="W57" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="X57" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z57" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK57" t="n">
         <v>70</v>
       </c>
-      <c r="AB57" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>48</v>
-      </c>
       <c r="AL57" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM57" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="AN57" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AO57" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,126 +8213,396 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F58" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.05</v>
       </c>
-      <c r="G58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L58" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M58" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N58" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="O58" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="P58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S58" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="T58" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="U58" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="V58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W58" t="n">
         <v>1.53</v>
       </c>
-      <c r="W58" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X58" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y58" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y58" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="Z58" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA58" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>50</v>
       </c>
-      <c r="AB58" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>65</v>
-      </c>
       <c r="AK58" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL58" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM58" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="AN58" t="n">
         <v>65</v>
       </c>
       <c r="AO58" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X59" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA59" t="n">
         <v>50</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Juticalpa</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K60" t="n">
+        <v>950</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G2" t="n">
         <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
         <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>7.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>2.52</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -709,22 +709,22 @@
         <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>95</v>
@@ -739,7 +739,7 @@
         <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>95</v>
@@ -763,13 +763,13 @@
         <v>970</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.4</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>110</v>
@@ -802,43 +802,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>2.32</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>2.1</v>
@@ -853,13 +853,13 @@
         <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,10 +871,10 @@
         <v>970</v>
       </c>
       <c r="AC3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="n">
         <v>970</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>44</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -898,7 +898,7 @@
         <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1081,10 +1081,10 @@
         <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
@@ -1102,7 +1102,7 @@
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>1.55</v>
       </c>
       <c r="Q5" t="n">
         <v>1.43</v>
@@ -1114,70 +1114,70 @@
         <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U5" t="n">
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,13 +1231,13 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
         <v>1.87</v>
@@ -1255,64 +1255,64 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
         <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
         <v>9.4</v>
@@ -1372,28 +1372,28 @@
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
         <v>1.47</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W7" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
         <v>32</v>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
         <v>75</v>
@@ -1444,7 +1444,7 @@
         <v>550</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,7 +1483,7 @@
         <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
         <v>3.45</v>
@@ -1498,7 +1498,7 @@
         <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
         <v>2.6</v>
@@ -1522,7 +1522,7 @@
         <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
         <v>1.43</v>
@@ -1531,7 +1531,7 @@
         <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1546,7 +1546,7 @@
         <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>16</v>
@@ -1615,7 +1615,7 @@
         <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
         <v>1.4</v>
@@ -1627,7 +1627,7 @@
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1663,10 +1663,10 @@
         <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
         <v>970</v>
@@ -1675,19 +1675,19 @@
         <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
@@ -1699,7 +1699,7 @@
         <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1762,7 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1777,7 +1777,7 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q10" t="n">
         <v>1.83</v>
@@ -1807,7 +1807,7 @@
         <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
@@ -1822,7 +1822,7 @@
         <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -1834,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
         <v>42</v>
@@ -1846,7 +1846,7 @@
         <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>24</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="I11" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X11" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
         <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO11" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="12">
@@ -2050,7 +2050,7 @@
         <v>1.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.17</v>
@@ -2071,58 +2071,58 @@
         <v>1.89</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>1.49</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
         <v>12.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
@@ -2176,13 +2176,13 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
         <v>2.04</v>
@@ -2203,58 +2203,58 @@
         <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="AA13" t="n">
         <v>640</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AE13" t="n">
         <v>310</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AI13" t="n">
         <v>270</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AM13" t="n">
         <v>380</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
         <v>650</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>2.84</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>8.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2335,13 +2335,13 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2368,7 +2368,7 @@
         <v>970</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2377,19 +2377,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G15" t="n">
         <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
         <v>3.15</v>
@@ -2437,7 +2437,7 @@
         <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,16 +2446,16 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="O15" t="n">
         <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
@@ -2467,67 +2467,67 @@
         <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
         <v>55</v>
       </c>
-      <c r="AB15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AJ15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK15" t="n">
         <v>40</v>
       </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
         <v>60</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>65</v>
-      </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN15" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="G16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I16" t="n">
         <v>1.49</v>
@@ -2629,7 +2629,7 @@
         <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>18</v>
@@ -2638,13 +2638,13 @@
         <v>90</v>
       </c>
       <c r="AG16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH16" t="n">
         <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
         <v>310</v>
@@ -2653,16 +2653,16 @@
         <v>150</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="AN16" t="n">
         <v>170</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="17">
@@ -2695,13 +2695,13 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
@@ -2716,7 +2716,7 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2734,28 +2734,28 @@
         <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V17" t="n">
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AA17" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>7.8</v>
@@ -2767,7 +2767,7 @@
         <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AF17" t="n">
         <v>11</v>
@@ -2779,25 +2779,25 @@
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="AJ17" t="n">
         <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H18" t="n">
         <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.32</v>
@@ -2869,13 +2869,13 @@
         <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
         <v>1.5</v>
@@ -2890,19 +2890,19 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
@@ -2917,16 +2917,16 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
         <v>27</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.39</v>
@@ -3001,7 +3001,7 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
@@ -3010,64 +3010,64 @@
         <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z19" t="n">
         <v>90</v>
       </c>
-      <c r="Y19" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>34</v>
-      </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G20" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I20" t="n">
         <v>11</v>
@@ -3115,7 +3115,7 @@
         <v>6.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3148,7 +3148,7 @@
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
         <v>26</v>
@@ -3166,7 +3166,7 @@
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
         <v>38</v>
@@ -3178,13 +3178,13 @@
         <v>9.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="AJ20" t="n">
         <v>12</v>
@@ -3196,7 +3196,7 @@
         <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="AN20" t="n">
         <v>5.2</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="I21" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
@@ -3265,7 +3265,7 @@
         <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R21" t="n">
         <v>1.42</v>
@@ -3280,58 +3280,58 @@
         <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="n">
         <v>19</v>
       </c>
-      <c r="Y21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>22</v>
-      </c>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>26</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G22" t="n">
         <v>2.32</v>
       </c>
       <c r="H22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.75</v>
       </c>
-      <c r="I22" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,88 +3391,88 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN22" t="n">
         <v>60</v>
       </c>
-      <c r="AF22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>24</v>
-      </c>
       <c r="AO22" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H23" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
@@ -3520,52 +3520,52 @@
         <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M23" t="n">
         <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O23" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="R23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V23" t="n">
         <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y23" t="n">
         <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="AA23" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
         <v>6</v>
@@ -3577,34 +3577,34 @@
         <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="n">
         <v>220</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AM23" t="n">
         <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G24" t="n">
         <v>3.6</v>
       </c>
-      <c r="G24" t="n">
-        <v>3.65</v>
-      </c>
       <c r="H24" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I24" t="n">
         <v>2.18</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
         <v>3.9</v>
@@ -3676,28 +3676,28 @@
         <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
         <v>2.48</v>
       </c>
       <c r="V24" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
         <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="n">
         <v>12.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA24" t="n">
         <v>27</v>
@@ -3712,7 +3712,7 @@
         <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G25" t="n">
         <v>3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.05</v>
       </c>
       <c r="H25" t="n">
         <v>2.44</v>
@@ -3802,28 +3802,28 @@
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
         <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T25" t="n">
         <v>1.59</v>
       </c>
       <c r="U25" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V25" t="n">
         <v>1.68</v>
       </c>
       <c r="W25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3853,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI25" t="n">
         <v>29</v>
@@ -3874,10 +3874,10 @@
         <v>60</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26">
@@ -3913,13 +3913,13 @@
         <v>1.15</v>
       </c>
       <c r="H26" t="n">
+        <v>25</v>
+      </c>
+      <c r="I26" t="n">
         <v>26</v>
       </c>
-      <c r="I26" t="n">
-        <v>27</v>
-      </c>
       <c r="J26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K26" t="n">
         <v>11.5</v>
@@ -3931,7 +3931,7 @@
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.12</v>
@@ -3946,7 +3946,7 @@
         <v>2.04</v>
       </c>
       <c r="S26" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T26" t="n">
         <v>2.36</v>
@@ -3955,7 +3955,7 @@
         <v>1.71</v>
       </c>
       <c r="V26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W26" t="n">
         <v>7.6</v>
@@ -3964,10 +3964,10 @@
         <v>46</v>
       </c>
       <c r="Y26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Z26" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3976,22 +3976,22 @@
         <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AE26" t="n">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4003,16 +4003,16 @@
         <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="AO26" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H27" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.29</v>
@@ -4072,28 +4072,28 @@
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q27" t="n">
         <v>1.56</v>
       </c>
       <c r="R27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
         <v>1.64</v>
       </c>
       <c r="U27" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X27" t="n">
         <v>25</v>
@@ -4102,10 +4102,10 @@
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
         <v>13.5</v>
@@ -4114,25 +4114,25 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
         <v>48</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
@@ -4144,10 +4144,10 @@
         <v>65</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
         <v>3.25</v>
@@ -4216,28 +4216,28 @@
         <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V28" t="n">
         <v>1.69</v>
       </c>
       <c r="W28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X28" t="n">
         <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA28" t="n">
         <v>34</v>
@@ -4252,7 +4252,7 @@
         <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF28" t="n">
         <v>23</v>
@@ -4267,7 +4267,7 @@
         <v>30</v>
       </c>
       <c r="AJ28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK28" t="n">
         <v>30</v>
@@ -4276,13 +4276,13 @@
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN28" t="n">
         <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G29" t="n">
         <v>1.25</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H29" t="n">
+        <v>13</v>
+      </c>
+      <c r="I29" t="n">
         <v>13.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
       </c>
       <c r="J29" t="n">
         <v>7.8</v>
@@ -4336,7 +4336,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.1</v>
@@ -4348,22 +4348,22 @@
         <v>1.33</v>
       </c>
       <c r="R29" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="S29" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T29" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
         <v>55</v>
@@ -4372,13 +4372,13 @@
         <v>70</v>
       </c>
       <c r="Z29" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA29" t="n">
         <v>530</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC29" t="n">
         <v>19.5</v>
@@ -4414,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="AO29" t="n">
         <v>120</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="I30" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="J30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.21</v>
@@ -4471,52 +4471,52 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="R30" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="S30" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="T30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="V30" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -4525,34 +4525,34 @@
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN30" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="31">
@@ -4588,10 +4588,10 @@
         <v>2.86</v>
       </c>
       <c r="H31" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J31" t="n">
         <v>3.9</v>
@@ -4600,7 +4600,7 @@
         <v>3.95</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -4609,25 +4609,25 @@
         <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q31" t="n">
         <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S31" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T31" t="n">
         <v>1.52</v>
       </c>
       <c r="U31" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="V31" t="n">
         <v>1.64</v>
@@ -4753,10 +4753,10 @@
         <v>1.78</v>
       </c>
       <c r="R32" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
@@ -4768,7 +4768,7 @@
         <v>1.78</v>
       </c>
       <c r="W32" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X32" t="n">
         <v>16.5</v>
@@ -4783,7 +4783,7 @@
         <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC32" t="n">
         <v>8.199999999999999</v>
@@ -4792,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
         <v>25</v>
@@ -4801,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI32" t="n">
         <v>30</v>
@@ -4816,7 +4816,7 @@
         <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
         <v>28</v>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.45</v>
       </c>
-      <c r="K33" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
         <v>3.85</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P33" t="n">
         <v>1.95</v>
@@ -4888,73 +4888,73 @@
         <v>2.04</v>
       </c>
       <c r="R33" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
         <v>3.55</v>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V33" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W33" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE33" t="n">
         <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
         <v>16.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
         <v>90</v>
       </c>
       <c r="AN33" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
         <v>29</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I34" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>3.85</v>
@@ -5017,31 +5017,31 @@
         <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T34" t="n">
         <v>1.69</v>
       </c>
       <c r="U34" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5050,13 +5050,13 @@
         <v>14.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD34" t="n">
         <v>10.5</v>
@@ -5077,13 +5077,13 @@
         <v>32</v>
       </c>
       <c r="AJ34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
         <v>75</v>
@@ -5092,7 +5092,7 @@
         <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35">
@@ -5125,13 +5125,13 @@
         <v>4.5</v>
       </c>
       <c r="G35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
         <v>1.8</v>
       </c>
       <c r="I35" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J35" t="n">
         <v>4.3</v>
@@ -5143,7 +5143,7 @@
         <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
         <v>6.4</v>
@@ -5152,7 +5152,7 @@
         <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q35" t="n">
         <v>1.53</v>
@@ -5164,7 +5164,7 @@
         <v>2.28</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U35" t="n">
         <v>2.66</v>
@@ -5179,13 +5179,13 @@
         <v>27</v>
       </c>
       <c r="Y35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
         <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB35" t="n">
         <v>26</v>
@@ -5203,7 +5203,7 @@
         <v>40</v>
       </c>
       <c r="AG35" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH35" t="n">
         <v>16</v>
@@ -5212,16 +5212,16 @@
         <v>23</v>
       </c>
       <c r="AJ35" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK35" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="n">
         <v>42</v>
       </c>
       <c r="AM35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN35" t="n">
         <v>32</v>
@@ -5269,7 +5269,7 @@
         <v>6.4</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K36" t="n">
         <v>5.1</v>
@@ -5287,16 +5287,16 @@
         <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R36" t="n">
         <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T36" t="n">
         <v>1.63</v>
@@ -5305,28 +5305,28 @@
         <v>2.52</v>
       </c>
       <c r="V36" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="X36" t="n">
         <v>30</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA36" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
         <v>23</v>
@@ -5398,7 +5398,7 @@
         <v>2.56</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3.1</v>
@@ -5437,7 +5437,7 @@
         <v>1.69</v>
       </c>
       <c r="U37" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V37" t="n">
         <v>1.48</v>
@@ -5449,7 +5449,7 @@
         <v>15.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
         <v>21</v>
@@ -5470,7 +5470,7 @@
         <v>32</v>
       </c>
       <c r="AF37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG37" t="n">
         <v>11.5</v>
@@ -5488,7 +5488,7 @@
         <v>25</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
         <v>75</v>
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G38" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H38" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
@@ -5557,52 +5557,52 @@
         <v>1.1</v>
       </c>
       <c r="P38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
         <v>1.32</v>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S38" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U38" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V38" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X38" t="n">
         <v>60</v>
       </c>
       <c r="Y38" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z38" t="n">
         <v>120</v>
       </c>
       <c r="AA38" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AB38" t="n">
         <v>17.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF38" t="n">
         <v>12.5</v>
@@ -5611,28 +5611,28 @@
         <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI38" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK38" t="n">
         <v>12</v>
       </c>
       <c r="AL38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO38" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -5662,61 +5662,61 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.06</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.07</v>
       </c>
       <c r="H39" t="n">
         <v>65</v>
       </c>
       <c r="I39" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K39" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L39" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P39" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R39" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="S39" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="T39" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="U39" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="V39" t="n">
         <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="X39" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y39" t="n">
         <v>1000</v>
@@ -5728,7 +5728,7 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>65</v>
@@ -5740,31 +5740,31 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG39" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH39" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AK39" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM39" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5803,10 +5803,10 @@
         <v>4.3</v>
       </c>
       <c r="H40" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I40" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J40" t="n">
         <v>4.2</v>
@@ -5815,10 +5815,10 @@
         <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
         <v>5.1</v>
@@ -5827,25 +5827,25 @@
         <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R40" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T40" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U40" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W40" t="n">
         <v>1.3</v>
@@ -5872,7 +5872,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>34</v>
@@ -5896,13 +5896,13 @@
         <v>44</v>
       </c>
       <c r="AM40" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN40" t="n">
         <v>34</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5935,19 +5935,19 @@
         <v>2.44</v>
       </c>
       <c r="G41" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
         <v>2.8</v>
       </c>
       <c r="K41" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="L41" t="n">
         <v>1.68</v>
@@ -5956,7 +5956,7 @@
         <v>1.16</v>
       </c>
       <c r="N41" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O41" t="n">
         <v>1.7</v>
@@ -5977,10 +5977,10 @@
         <v>2.36</v>
       </c>
       <c r="U41" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W41" t="n">
         <v>1.64</v>
@@ -5995,49 +5995,49 @@
         <v>36</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC41" t="n">
         <v>7.2</v>
       </c>
       <c r="AD41" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF41" t="n">
         <v>16</v>
       </c>
       <c r="AG41" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ41" t="n">
         <v>70</v>
       </c>
       <c r="AK41" t="n">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="AL41" t="n">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="AM41" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AN41" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO41" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42">
@@ -6073,10 +6073,10 @@
         <v>1.16</v>
       </c>
       <c r="H42" t="n">
+        <v>22</v>
+      </c>
+      <c r="I42" t="n">
         <v>23</v>
-      </c>
-      <c r="I42" t="n">
-        <v>24</v>
       </c>
       <c r="J42" t="n">
         <v>11</v>
@@ -6097,7 +6097,7 @@
         <v>1.07</v>
       </c>
       <c r="P42" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q42" t="n">
         <v>1.24</v>
@@ -6109,10 +6109,10 @@
         <v>1.61</v>
       </c>
       <c r="T42" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U42" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V42" t="n">
         <v>1.04</v>
@@ -6127,7 +6127,7 @@
         <v>120</v>
       </c>
       <c r="Z42" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6139,22 +6139,22 @@
         <v>28</v>
       </c>
       <c r="AD42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF42" t="n">
         <v>12.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI42" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ42" t="n">
         <v>11</v>
@@ -6172,7 +6172,7 @@
         <v>2.26</v>
       </c>
       <c r="AO42" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G43" t="n">
-        <v>110</v>
+        <v>2.02</v>
       </c>
       <c r="H43" t="n">
-        <v>1.09</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>110</v>
+        <v>7.6</v>
       </c>
       <c r="J43" t="n">
-        <v>1.39</v>
+        <v>3.05</v>
       </c>
       <c r="K43" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6232,82 +6232,82 @@
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
         <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="V43" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W43" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44">
@@ -6352,7 +6352,7 @@
         <v>3.6</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L44" t="n">
         <v>1.39</v>
@@ -6385,61 +6385,61 @@
         <v>1.66</v>
       </c>
       <c r="V44" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W44" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X44" t="n">
         <v>12.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z44" t="n">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AD44" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AE44" t="n">
         <v>180</v>
       </c>
       <c r="AF44" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AG44" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH44" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AJ44" t="n">
         <v>970</v>
       </c>
       <c r="AK44" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6475,10 +6475,10 @@
         <v>2.54</v>
       </c>
       <c r="G45" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I45" t="n">
         <v>3.35</v>
@@ -6487,7 +6487,7 @@
         <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L45" t="n">
         <v>1.51</v>
@@ -6505,7 +6505,7 @@
         <v>1.65</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R45" t="n">
         <v>1.24</v>
@@ -6517,13 +6517,13 @@
         <v>1.94</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V45" t="n">
         <v>1.42</v>
       </c>
       <c r="W45" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
@@ -6532,13 +6532,13 @@
         <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA45" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC45" t="n">
         <v>7.4</v>
@@ -6556,7 +6556,7 @@
         <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
         <v>65</v>
@@ -6571,13 +6571,13 @@
         <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AN45" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AO45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -6616,7 +6616,7 @@
         <v>4.8</v>
       </c>
       <c r="I46" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J46" t="n">
         <v>3.5</v>
@@ -6640,7 +6640,7 @@
         <v>1.71</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R46" t="n">
         <v>1.27</v>
@@ -6652,10 +6652,10 @@
         <v>2.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W46" t="n">
         <v>2.06</v>
@@ -6664,7 +6664,7 @@
         <v>11.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z46" t="n">
         <v>36</v>
@@ -6748,7 +6748,7 @@
         <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I47" t="n">
         <v>2.56</v>
@@ -6757,7 +6757,7 @@
         <v>3.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L47" t="n">
         <v>1.48</v>
@@ -6766,13 +6766,13 @@
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.41</v>
       </c>
       <c r="P47" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q47" t="n">
         <v>2.24</v>
@@ -6796,22 +6796,22 @@
         <v>1.43</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AB47" t="n">
         <v>11.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD47" t="n">
         <v>12.5</v>
@@ -6820,7 +6820,7 @@
         <v>48</v>
       </c>
       <c r="AF47" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AG47" t="n">
         <v>15</v>
@@ -6829,25 +6829,25 @@
         <v>20</v>
       </c>
       <c r="AI47" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL47" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO47" t="n">
         <v>60</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G48" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H48" t="n">
         <v>3.9</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J48" t="n">
         <v>3.05</v>
       </c>
       <c r="K48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.59</v>
@@ -6901,46 +6901,46 @@
         <v>1.13</v>
       </c>
       <c r="N48" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O48" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P48" t="n">
         <v>1.58</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="R48" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S48" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="T48" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U48" t="n">
         <v>1.78</v>
       </c>
       <c r="V48" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W48" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X48" t="n">
         <v>9.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AA48" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB48" t="n">
         <v>7.2</v>
@@ -6949,40 +6949,40 @@
         <v>7.2</v>
       </c>
       <c r="AD48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AF48" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG48" t="n">
         <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ48" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="AK48" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM48" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AN48" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AO48" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49">
@@ -7024,7 +7024,7 @@
         <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K49" t="n">
         <v>3.9</v>
@@ -7102,16 +7102,16 @@
         <v>130</v>
       </c>
       <c r="AJ49" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK49" t="n">
         <v>21</v>
       </c>
       <c r="AL49" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM49" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
         <v>15</v>
@@ -7171,13 +7171,13 @@
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q50" t="n">
         <v>2.28</v>
@@ -7192,10 +7192,10 @@
         <v>2.08</v>
       </c>
       <c r="U50" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W50" t="n">
         <v>2.08</v>
@@ -7204,13 +7204,13 @@
         <v>12.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Z50" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AA50" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AB50" t="n">
         <v>7</v>
@@ -7219,10 +7219,10 @@
         <v>8.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AE50" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="AF50" t="n">
         <v>10.5</v>
@@ -7234,25 +7234,25 @@
         <v>28</v>
       </c>
       <c r="AI50" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AJ50" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="AK50" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AM50" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AO50" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51">
@@ -7285,10 +7285,10 @@
         <v>1.5</v>
       </c>
       <c r="G51" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H51" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I51" t="n">
         <v>10</v>
@@ -7297,7 +7297,7 @@
         <v>3.95</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L51" t="n">
         <v>1.48</v>
@@ -7333,7 +7333,7 @@
         <v>1.11</v>
       </c>
       <c r="W51" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X51" t="n">
         <v>12.5</v>
@@ -7366,25 +7366,25 @@
         <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI51" t="n">
         <v>210</v>
       </c>
       <c r="AJ51" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK51" t="n">
         <v>20</v>
       </c>
       <c r="AL51" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM51" t="n">
         <v>290</v>
       </c>
       <c r="AN51" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO51" t="n">
         <v>430</v>
@@ -7420,7 +7420,7 @@
         <v>2.24</v>
       </c>
       <c r="G52" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H52" t="n">
         <v>3.5</v>
@@ -7459,13 +7459,13 @@
         <v>3.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U52" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V52" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W52" t="n">
         <v>1.73</v>
@@ -7474,16 +7474,16 @@
         <v>13.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AA52" t="n">
         <v>80</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC52" t="n">
         <v>7.4</v>
@@ -7492,7 +7492,7 @@
         <v>15.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AF52" t="n">
         <v>14.5</v>
@@ -7504,19 +7504,19 @@
         <v>18.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AJ52" t="n">
         <v>32</v>
       </c>
       <c r="AK52" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM52" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN52" t="n">
         <v>23</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I53" t="n">
         <v>2.68</v>
@@ -7576,13 +7576,13 @@
         <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O53" t="n">
         <v>1.42</v>
       </c>
       <c r="P53" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q53" t="n">
         <v>2.32</v>
@@ -7594,7 +7594,7 @@
         <v>4.5</v>
       </c>
       <c r="T53" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="n">
         <v>1.96</v>
@@ -7603,13 +7603,13 @@
         <v>1.59</v>
       </c>
       <c r="W53" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X53" t="n">
         <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z53" t="n">
         <v>16</v>
@@ -7627,7 +7627,7 @@
         <v>12</v>
       </c>
       <c r="AE53" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF53" t="n">
         <v>20</v>
@@ -7645,7 +7645,7 @@
         <v>55</v>
       </c>
       <c r="AK53" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL53" t="n">
         <v>60</v>
@@ -7654,7 +7654,7 @@
         <v>140</v>
       </c>
       <c r="AN53" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AO53" t="n">
         <v>32</v>
@@ -7711,13 +7711,13 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="O54" t="n">
         <v>1.24</v>
       </c>
       <c r="P54" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q54" t="n">
         <v>1.24</v>
@@ -7732,7 +7732,7 @@
         <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>1.01</v>
@@ -7837,34 +7837,34 @@
         <v>2.64</v>
       </c>
       <c r="K55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L55" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M55" t="n">
         <v>1.12</v>
       </c>
       <c r="N55" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O55" t="n">
         <v>1.53</v>
       </c>
       <c r="P55" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R55" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
       </c>
       <c r="T55" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U55" t="n">
         <v>1.78</v>
@@ -7876,58 +7876,58 @@
         <v>1.3</v>
       </c>
       <c r="X55" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y55" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Z55" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AA55" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AB55" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AD55" t="n">
         <v>14.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AF55" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG55" t="n">
         <v>34</v>
       </c>
-      <c r="AG55" t="n">
-        <v>21</v>
-      </c>
       <c r="AH55" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AI55" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO55" t="n">
         <v>70</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -7999,10 +7999,10 @@
         <v>3.9</v>
       </c>
       <c r="T56" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U56" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V56" t="n">
         <v>1.08</v>
@@ -8014,7 +8014,7 @@
         <v>13.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z56" t="n">
         <v>130</v>
@@ -8029,7 +8029,7 @@
         <v>12</v>
       </c>
       <c r="AD56" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AE56" t="n">
         <v>340</v>
@@ -8053,7 +8053,7 @@
         <v>19.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM56" t="n">
         <v>360</v>
@@ -8095,7 +8095,7 @@
         <v>4.5</v>
       </c>
       <c r="G57" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H57" t="n">
         <v>1.96</v>
@@ -8107,7 +8107,7 @@
         <v>3.5</v>
       </c>
       <c r="K57" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
@@ -8116,7 +8116,7 @@
         <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O57" t="n">
         <v>1.42</v>
@@ -8137,10 +8137,10 @@
         <v>2.02</v>
       </c>
       <c r="U57" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V57" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W57" t="n">
         <v>1.26</v>
@@ -8170,7 +8170,7 @@
         <v>24</v>
       </c>
       <c r="AF57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG57" t="n">
         <v>19</v>
@@ -8185,7 +8185,7 @@
         <v>120</v>
       </c>
       <c r="AK57" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="n">
         <v>85</v>
@@ -8194,7 +8194,7 @@
         <v>150</v>
       </c>
       <c r="AN57" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO57" t="n">
         <v>18</v>
@@ -8245,7 +8245,7 @@
         <v>3.05</v>
       </c>
       <c r="L58" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M58" t="n">
         <v>1.15</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G59" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="I59" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J59" t="n">
         <v>2.92</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.9</v>
       </c>
       <c r="K59" t="n">
         <v>3.2</v>
@@ -8383,19 +8383,19 @@
         <v>1.57</v>
       </c>
       <c r="M59" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N59" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O59" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P59" t="n">
         <v>1.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R59" t="n">
         <v>1.18</v>
@@ -8404,19 +8404,19 @@
         <v>5.5</v>
       </c>
       <c r="T59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U59" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V59" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="W59" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="X59" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Y59" t="n">
         <v>8.199999999999999</v>
@@ -8425,10 +8425,10 @@
         <v>17</v>
       </c>
       <c r="AA59" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC59" t="n">
         <v>7</v>
@@ -8437,34 +8437,34 @@
         <v>14</v>
       </c>
       <c r="AE59" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF59" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AG59" t="n">
         <v>18</v>
       </c>
       <c r="AH59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI59" t="n">
         <v>70</v>
       </c>
       <c r="AJ59" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL59" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM59" t="n">
         <v>200</v>
       </c>
       <c r="AN59" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AO59" t="n">
         <v>50</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -676,10 +676,10 @@
         <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K2" t="n">
         <v>7.8</v>
@@ -721,7 +721,7 @@
         <v>3.15</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="Y2" t="n">
         <v>970</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
         <v>970</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I3" t="n">
         <v>13.5</v>
@@ -817,7 +817,7 @@
         <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -826,22 +826,22 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.84</v>
@@ -853,7 +853,7 @@
         <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G4" t="n">
         <v>6.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -967,7 +967,7 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
         <v>1.64</v>
@@ -976,7 +976,7 @@
         <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
@@ -985,10 +985,10 @@
         <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
@@ -1003,34 +1003,34 @@
         <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD4" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>500</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="n">
         <v>80</v>
@@ -1039,10 +1039,10 @@
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>1.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="T5" t="n">
         <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK5" t="n">
         <v>42</v>
       </c>
-      <c r="AD5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>500</v>
-      </c>
       <c r="AL5" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="I6" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.87</v>
+        <v>2.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>500</v>
+        <v>8.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>500</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>900</v>
       </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK6" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="AL6" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
         <v>4.1</v>
@@ -1372,22 +1372,22 @@
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="U7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="V7" t="n">
         <v>1.03</v>
@@ -1396,25 +1396,25 @@
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,28 +1423,28 @@
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,7 +1483,7 @@
         <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3.45</v>
@@ -1495,13 +1495,13 @@
         <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
@@ -1510,19 +1510,19 @@
         <v>1.59</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
         <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
         <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
         <v>1.43</v>
@@ -1537,34 +1537,34 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
         <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
@@ -1573,7 +1573,7 @@
         <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM8" t="n">
         <v>170</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.89</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="W9" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="X9" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>900</v>
+        <v>14.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC9" t="n">
-        <v>100</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1795,46 +1795,46 @@
         <v>2.22</v>
       </c>
       <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.54</v>
       </c>
-      <c r="W10" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>15.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
         <v>42</v>
@@ -1846,13 +1846,13 @@
         <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>320</v>
       </c>
       <c r="AN10" t="n">
         <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H11" t="n">
         <v>1.74</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
@@ -1942,13 +1942,13 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>14</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="I12" t="n">
         <v>6.8</v>
       </c>
       <c r="J12" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>1.49</v>
@@ -2059,19 +2059,19 @@
         <v>1.01</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
@@ -2083,7 +2083,7 @@
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
@@ -2095,7 +2095,7 @@
         <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
         <v>34</v>
@@ -2119,7 +2119,7 @@
         <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
         <v>500</v>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>13.5</v>
       </c>
       <c r="I13" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -2185,64 +2185,64 @@
         <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC13" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>480</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>640</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AF13" t="n">
         <v>6.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>310</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8</v>
       </c>
       <c r="AG13" t="n">
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AI13" t="n">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
         <v>22</v>
@@ -2251,13 +2251,13 @@
         <v>380</v>
       </c>
       <c r="AM13" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,91 +2287,91 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>8.4</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>1.08</v>
+        <v>2.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="P14" t="n">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y14" t="n">
         <v>970</v>
       </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="n">
         <v>500</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>2.68</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
         <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -2443,28 +2443,28 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.09</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
         <v>1.93</v>
@@ -2473,10 +2473,10 @@
         <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>10.5</v>
@@ -2521,7 +2521,7 @@
         <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
         <v>40</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="I16" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
         <v>1.26</v>
@@ -2590,7 +2590,7 @@
         <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
         <v>1.5</v>
@@ -2602,10 +2602,10 @@
         <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W16" t="n">
         <v>1.11</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
@@ -2710,7 +2710,7 @@
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
@@ -2725,34 +2725,34 @@
         <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
         <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
         <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
@@ -2761,10 +2761,10 @@
         <v>7.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>480</v>
@@ -2782,22 +2782,22 @@
         <v>380</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
         <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
         <v>2.52</v>
@@ -2851,16 +2851,16 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
         <v>1.37</v>
@@ -2872,7 +2872,7 @@
         <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
         <v>1.55</v>
@@ -2890,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2914,10 +2914,10 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="n">
         <v>80</v>
@@ -2926,7 +2926,7 @@
         <v>160</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
         <v>27</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G19" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,28 +2992,28 @@
         <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
@@ -3040,10 +3040,10 @@
         <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>60</v>
@@ -3052,7 +3052,7 @@
         <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK19" t="n">
         <v>85</v>
@@ -3100,13 +3100,13 @@
         <v>1.34</v>
       </c>
       <c r="G20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H20" t="n">
         <v>9.4</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J20" t="n">
         <v>5.3</v>
@@ -3139,13 +3139,13 @@
         <v>2.42</v>
       </c>
       <c r="T20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.9</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
         <v>3.4</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="I21" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
         <v>3.85</v>
@@ -3256,7 +3256,7 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.21</v>
@@ -3265,13 +3265,13 @@
         <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
         <v>1.65</v>
@@ -3283,40 +3283,40 @@
         <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>95</v>
@@ -3334,10 +3334,10 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22">
@@ -3370,16 +3370,16 @@
         <v>2.18</v>
       </c>
       <c r="G22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
         <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
@@ -3388,7 +3388,7 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
         <v>3.1</v>
@@ -3397,19 +3397,19 @@
         <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
         <v>2.18</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
         <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
         <v>1.92</v>
@@ -3418,10 +3418,10 @@
         <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -3430,7 +3430,7 @@
         <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
         <v>8.800000000000001</v>
@@ -3439,7 +3439,7 @@
         <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
         <v>250</v>
@@ -3454,7 +3454,7 @@
         <v>42</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AJ22" t="n">
         <v>120</v>
@@ -3469,7 +3469,7 @@
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
         <v>160</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
         <v>1.71</v>
       </c>
       <c r="H23" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I23" t="n">
         <v>8.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.64</v>
@@ -3529,13 +3529,13 @@
         <v>2.48</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="R23" t="n">
         <v>1.17</v>
@@ -3556,10 +3556,10 @@
         <v>2.4</v>
       </c>
       <c r="X23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="n">
         <v>340</v>
@@ -3568,28 +3568,28 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AE23" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AI23" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AJ23" t="n">
         <v>30</v>
@@ -3604,7 +3604,7 @@
         <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3640,7 +3640,7 @@
         <v>3.55</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H24" t="n">
         <v>2.14</v>
@@ -3670,7 +3670,7 @@
         <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
         <v>1.52</v>
@@ -3685,13 +3685,13 @@
         <v>2.48</v>
       </c>
       <c r="V24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W24" t="n">
         <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>12.5</v>
@@ -3700,7 +3700,7 @@
         <v>14.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -3712,7 +3712,7 @@
         <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3820,7 +3820,7 @@
         <v>2.64</v>
       </c>
       <c r="V25" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -3835,7 +3835,7 @@
         <v>18</v>
       </c>
       <c r="AA25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB25" t="n">
         <v>16.5</v>
@@ -3853,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>14.5</v>
@@ -3862,7 +3862,7 @@
         <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK25" t="n">
         <v>28</v>
@@ -3877,7 +3877,7 @@
         <v>18.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -3913,10 +3913,10 @@
         <v>1.15</v>
       </c>
       <c r="H26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J26" t="n">
         <v>11</v>
@@ -3937,7 +3937,7 @@
         <v>1.12</v>
       </c>
       <c r="P26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q26" t="n">
         <v>1.37</v>
@@ -3946,16 +3946,16 @@
         <v>2.04</v>
       </c>
       <c r="S26" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T26" t="n">
         <v>2.36</v>
       </c>
       <c r="U26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W26" t="n">
         <v>7.6</v>
@@ -3976,25 +3976,25 @@
         <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD26" t="n">
         <v>90</v>
       </c>
       <c r="AE26" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AF26" t="n">
         <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.199999999999999</v>
@@ -4003,16 +4003,16 @@
         <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="AO26" t="n">
-        <v>620</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.2</v>
       </c>
       <c r="J27" t="n">
         <v>4.5</v>
@@ -4072,13 +4072,13 @@
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q27" t="n">
         <v>1.56</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S27" t="n">
         <v>2.4</v>
@@ -4090,10 +4090,10 @@
         <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W27" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X27" t="n">
         <v>25</v>
@@ -4102,10 +4102,10 @@
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB27" t="n">
         <v>13.5</v>
@@ -4114,25 +4114,25 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>48</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.2</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.25</v>
-      </c>
       <c r="H28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I28" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J28" t="n">
         <v>3.6</v>
@@ -4201,22 +4201,22 @@
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R28" t="n">
         <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
@@ -4225,19 +4225,19 @@
         <v>2.56</v>
       </c>
       <c r="V28" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X28" t="n">
         <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
         <v>34</v>
@@ -4276,7 +4276,7 @@
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN28" t="n">
         <v>23</v>
@@ -4318,31 +4318,31 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O29" t="n">
         <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q29" t="n">
         <v>1.33</v>
@@ -4351,16 +4351,16 @@
         <v>2.14</v>
       </c>
       <c r="S29" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W29" t="n">
         <v>5</v>
@@ -4369,13 +4369,13 @@
         <v>55</v>
       </c>
       <c r="Y29" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="n">
         <v>150</v>
       </c>
       <c r="AA29" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AB29" t="n">
         <v>15.5</v>
@@ -4384,10 +4384,10 @@
         <v>19.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE29" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -4399,7 +4399,7 @@
         <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
         <v>11.5</v>
@@ -4411,13 +4411,13 @@
         <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
         <v>3.05</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -4456,7 +4456,7 @@
         <v>1.57</v>
       </c>
       <c r="I30" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
@@ -4483,10 +4483,10 @@
         <v>1.35</v>
       </c>
       <c r="R30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="S30" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T30" t="n">
         <v>1.48</v>
@@ -4495,10 +4495,10 @@
         <v>2.96</v>
       </c>
       <c r="V30" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="W30" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X30" t="n">
         <v>42</v>
@@ -4510,7 +4510,7 @@
         <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB30" t="n">
         <v>42</v>
@@ -4522,7 +4522,7 @@
         <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF30" t="n">
         <v>65</v>
@@ -4540,16 +4540,16 @@
         <v>140</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL30" t="n">
         <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AN30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
         <v>4.2</v>
@@ -4588,7 +4588,7 @@
         <v>2.86</v>
       </c>
       <c r="H31" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I31" t="n">
         <v>2.56</v>
@@ -4600,16 +4600,16 @@
         <v>3.95</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P31" t="n">
         <v>2.7</v>
@@ -4618,10 +4618,10 @@
         <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S31" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T31" t="n">
         <v>1.52</v>
@@ -4648,7 +4648,7 @@
         <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC31" t="n">
         <v>9.199999999999999</v>
@@ -4672,7 +4672,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -4723,16 +4723,16 @@
         <v>3.6</v>
       </c>
       <c r="H32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I32" t="n">
         <v>2.26</v>
       </c>
-      <c r="I32" t="n">
-        <v>2.28</v>
-      </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
         <v>1.38</v>
@@ -4741,52 +4741,52 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S32" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
         <v>1.38</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB32" t="n">
         <v>16.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
         <v>11</v>
@@ -4795,10 +4795,10 @@
         <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
         <v>14.5</v>
@@ -4816,13 +4816,13 @@
         <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="33">
@@ -4858,10 +4858,10 @@
         <v>2.78</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J33" t="n">
         <v>3.4</v>
@@ -4879,10 +4879,10 @@
         <v>3.85</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q33" t="n">
         <v>2.04</v>
@@ -4951,13 +4951,13 @@
         <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN33" t="n">
         <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -4990,7 +4990,7 @@
         <v>3.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H34" t="n">
         <v>2.22</v>
@@ -4999,7 +4999,7 @@
         <v>2.24</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
         <v>3.85</v>
@@ -5029,10 +5029,10 @@
         <v>3.15</v>
       </c>
       <c r="T34" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
         <v>1.8</v>
@@ -5041,7 +5041,7 @@
         <v>1.4</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -5053,7 +5053,7 @@
         <v>26</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
         <v>8.4</v>
@@ -5074,7 +5074,7 @@
         <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ34" t="n">
         <v>60</v>
@@ -5083,16 +5083,16 @@
         <v>34</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
         <v>75</v>
       </c>
       <c r="AN34" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -5152,7 +5152,7 @@
         <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q35" t="n">
         <v>1.53</v>
@@ -5179,7 +5179,7 @@
         <v>27</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
         <v>14.5</v>
@@ -5188,10 +5188,10 @@
         <v>21</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
         <v>10.5</v>
@@ -5221,13 +5221,13 @@
         <v>42</v>
       </c>
       <c r="AM35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN35" t="n">
         <v>32</v>
       </c>
       <c r="AO35" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -5293,7 +5293,7 @@
         <v>1.51</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S36" t="n">
         <v>2.24</v>
@@ -5314,7 +5314,7 @@
         <v>30</v>
       </c>
       <c r="Y36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
         <v>60</v>
@@ -5323,7 +5323,7 @@
         <v>150</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
         <v>11.5</v>
@@ -5359,7 +5359,7 @@
         <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO36" t="n">
         <v>55</v>
@@ -5398,7 +5398,7 @@
         <v>2.56</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
         <v>3.1</v>
@@ -5416,22 +5416,22 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R37" t="n">
         <v>1.45</v>
       </c>
       <c r="S37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
         <v>1.69</v>
@@ -5488,7 +5488,7 @@
         <v>25</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
         <v>75</v>
@@ -5533,7 +5533,7 @@
         <v>1.31</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I38" t="n">
         <v>11</v>
@@ -5542,7 +5542,7 @@
         <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.19</v>
@@ -5551,7 +5551,7 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.1</v>
@@ -5560,19 +5560,19 @@
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R38" t="n">
         <v>2.22</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T38" t="n">
         <v>1.63</v>
       </c>
       <c r="U38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V38" t="n">
         <v>1.1</v>
@@ -5596,13 +5596,13 @@
         <v>17.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD38" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="n">
         <v>12.5</v>
@@ -5617,7 +5617,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK38" t="n">
         <v>12</v>
@@ -5629,10 +5629,10 @@
         <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO38" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -5668,16 +5668,16 @@
         <v>1.06</v>
       </c>
       <c r="H39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L39" t="n">
         <v>1.14</v>
@@ -5686,25 +5686,25 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="O39" t="n">
         <v>1.06</v>
       </c>
       <c r="P39" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Q39" t="n">
         <v>1.2</v>
       </c>
       <c r="R39" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="S39" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="T39" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="U39" t="n">
         <v>1.48</v>
@@ -5728,43 +5728,43 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC39" t="n">
         <v>65</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG39" t="n">
         <v>25</v>
       </c>
       <c r="AH39" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AI39" t="n">
         <v>990</v>
       </c>
       <c r="AJ39" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK39" t="n">
         <v>20</v>
       </c>
       <c r="AL39" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AM39" t="n">
         <v>480</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5839,10 +5839,10 @@
         <v>2.66</v>
       </c>
       <c r="T40" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U40" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V40" t="n">
         <v>2.1</v>
@@ -5860,7 +5860,7 @@
         <v>14</v>
       </c>
       <c r="AA40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
         <v>20</v>
@@ -5872,7 +5872,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF40" t="n">
         <v>34</v>
@@ -5932,31 +5932,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G41" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I41" t="n">
         <v>4.2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K41" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="L41" t="n">
         <v>1.68</v>
       </c>
       <c r="M41" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N41" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O41" t="n">
         <v>1.7</v>
@@ -5968,10 +5968,10 @@
         <v>3.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T41" t="n">
         <v>2.36</v>
@@ -5983,28 +5983,28 @@
         <v>1.31</v>
       </c>
       <c r="W41" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X41" t="n">
         <v>6.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AA41" t="n">
         <v>500</v>
       </c>
       <c r="AB41" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC41" t="n">
         <v>7</v>
       </c>
-      <c r="AC41" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD41" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE41" t="n">
         <v>500</v>
@@ -6013,7 +6013,7 @@
         <v>16</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
         <v>46</v>
@@ -6025,7 +6025,7 @@
         <v>70</v>
       </c>
       <c r="AK41" t="n">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="AL41" t="n">
         <v>460</v>
@@ -6109,16 +6109,16 @@
         <v>1.61</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U42" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
         <v>1.04</v>
       </c>
       <c r="W42" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X42" t="n">
         <v>80</v>
@@ -6127,7 +6127,7 @@
         <v>120</v>
       </c>
       <c r="Z42" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
@@ -6139,19 +6139,19 @@
         <v>28</v>
       </c>
       <c r="AD42" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AE42" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AF42" t="n">
         <v>12.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="n">
         <v>160</v>
@@ -6160,19 +6160,19 @@
         <v>11</v>
       </c>
       <c r="AK42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL42" t="n">
         <v>30</v>
       </c>
       <c r="AM42" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN42" t="n">
         <v>2.26</v>
       </c>
       <c r="AO42" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G43" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="I43" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,34 +6226,34 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.78</v>
+        <v>2.18</v>
       </c>
       <c r="O43" t="n">
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V43" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W43" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X43" t="n">
         <v>500</v>
@@ -6265,7 +6265,7 @@
         <v>500</v>
       </c>
       <c r="AA43" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB43" t="n">
         <v>500</v>
@@ -6301,7 +6301,7 @@
         <v>500</v>
       </c>
       <c r="AM43" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
         <v>500</v>
@@ -6340,13 +6340,13 @@
         <v>1.61</v>
       </c>
       <c r="G44" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I44" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J44" t="n">
         <v>3.6</v>
@@ -6367,31 +6367,31 @@
         <v>1.46</v>
       </c>
       <c r="P44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T44" t="n">
         <v>2.3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V44" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W44" t="n">
         <v>2.42</v>
       </c>
       <c r="X44" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
@@ -6403,7 +6403,7 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC44" t="n">
         <v>16</v>
@@ -6412,10 +6412,10 @@
         <v>85</v>
       </c>
       <c r="AE44" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AF44" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG44" t="n">
         <v>22</v>
@@ -6433,13 +6433,13 @@
         <v>65</v>
       </c>
       <c r="AL44" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AM44" t="n">
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J45" t="n">
         <v>3.1</v>
@@ -6508,22 +6508,22 @@
         <v>2.38</v>
       </c>
       <c r="R45" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S45" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T45" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U45" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V45" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W45" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
@@ -6532,10 +6532,10 @@
         <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA45" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AB45" t="n">
         <v>9.199999999999999</v>
@@ -6544,13 +6544,13 @@
         <v>7.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF45" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG45" t="n">
         <v>13</v>
@@ -6568,10 +6568,10 @@
         <v>36</v>
       </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
         <v>36</v>
@@ -6619,7 +6619,7 @@
         <v>5.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
         <v>3.6</v>
@@ -6643,7 +6643,7 @@
         <v>2.24</v>
       </c>
       <c r="R46" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S46" t="n">
         <v>4.3</v>
@@ -6652,16 +6652,16 @@
         <v>2.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V46" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W46" t="n">
         <v>2.06</v>
       </c>
       <c r="X46" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y46" t="n">
         <v>15</v>
@@ -6679,10 +6679,10 @@
         <v>7.8</v>
       </c>
       <c r="AD46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="n">
         <v>10.5</v>
@@ -6694,7 +6694,7 @@
         <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="n">
         <v>21</v>
@@ -6706,13 +6706,13 @@
         <v>48</v>
       </c>
       <c r="AM46" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G47" t="n">
         <v>3.3</v>
@@ -6751,7 +6751,7 @@
         <v>2.52</v>
       </c>
       <c r="I47" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J47" t="n">
         <v>3.3</v>
@@ -6784,28 +6784,28 @@
         <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U47" t="n">
         <v>2.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W47" t="n">
         <v>1.43</v>
       </c>
       <c r="X47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z47" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA47" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AB47" t="n">
         <v>11.5</v>
@@ -6817,10 +6817,10 @@
         <v>12.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AF47" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG47" t="n">
         <v>15</v>
@@ -6829,22 +6829,22 @@
         <v>20</v>
       </c>
       <c r="AI47" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AJ47" t="n">
         <v>160</v>
       </c>
       <c r="AK47" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="n">
         <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AO47" t="n">
         <v>60</v>
@@ -6913,7 +6913,7 @@
         <v>2.62</v>
       </c>
       <c r="R48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
         <v>5.4</v>
@@ -6922,7 +6922,7 @@
         <v>2.16</v>
       </c>
       <c r="U48" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V48" t="n">
         <v>1.31</v>
@@ -6934,46 +6934,46 @@
         <v>9.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z48" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AA48" t="n">
         <v>900</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE48" t="n">
         <v>440</v>
       </c>
       <c r="AF48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI48" t="n">
         <v>260</v>
       </c>
       <c r="AJ48" t="n">
-        <v>220</v>
+        <v>900</v>
       </c>
       <c r="AK48" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AL48" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AM48" t="n">
         <v>500</v>
@@ -6982,7 +6982,7 @@
         <v>90</v>
       </c>
       <c r="AO48" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49">
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G49" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H49" t="n">
         <v>5.8</v>
@@ -7063,19 +7063,19 @@
         <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
         <v>16.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AA49" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AB49" t="n">
         <v>7</v>
@@ -7090,7 +7090,7 @@
         <v>130</v>
       </c>
       <c r="AF49" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG49" t="n">
         <v>10.5</v>
@@ -7105,10 +7105,10 @@
         <v>18.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL49" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AM49" t="n">
         <v>580</v>
@@ -7117,7 +7117,7 @@
         <v>15</v>
       </c>
       <c r="AO49" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50">
@@ -7150,10 +7150,10 @@
         <v>1.82</v>
       </c>
       <c r="G50" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H50" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I50" t="n">
         <v>5.8</v>
@@ -7162,16 +7162,16 @@
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L50" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
@@ -7180,7 +7180,7 @@
         <v>1.68</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R50" t="n">
         <v>1.24</v>
@@ -7192,19 +7192,19 @@
         <v>2.08</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V50" t="n">
         <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X50" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y50" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z50" t="n">
         <v>500</v>
@@ -7219,7 +7219,7 @@
         <v>8.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AE50" t="n">
         <v>480</v>
@@ -7231,7 +7231,7 @@
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI50" t="n">
         <v>500</v>
@@ -7288,16 +7288,16 @@
         <v>1.56</v>
       </c>
       <c r="H51" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I51" t="n">
         <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L51" t="n">
         <v>1.48</v>
@@ -7315,13 +7315,13 @@
         <v>1.69</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.26</v>
+        <v>1.44</v>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S51" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="T51" t="n">
         <v>2.38</v>
@@ -7333,61 +7333,61 @@
         <v>1.11</v>
       </c>
       <c r="W51" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X51" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y51" t="n">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="Z51" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>6.2</v>
+        <v>970</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD51" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AE51" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>7.8</v>
+        <v>500</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH51" t="n">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="AI51" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>13.5</v>
+        <v>500</v>
       </c>
       <c r="AK51" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AL51" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AM51" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AO51" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G52" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H52" t="n">
         <v>3.5</v>
@@ -7447,10 +7447,10 @@
         <v>1.38</v>
       </c>
       <c r="P52" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R52" t="n">
         <v>1.29</v>
@@ -7459,7 +7459,7 @@
         <v>3.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U52" t="n">
         <v>2.04</v>
@@ -7468,16 +7468,16 @@
         <v>1.36</v>
       </c>
       <c r="W52" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X52" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
         <v>12.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AA52" t="n">
         <v>80</v>
@@ -7486,7 +7486,7 @@
         <v>9</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD52" t="n">
         <v>15.5</v>
@@ -7501,22 +7501,22 @@
         <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI52" t="n">
         <v>380</v>
       </c>
       <c r="AJ52" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AL52" t="n">
         <v>110</v>
       </c>
       <c r="AM52" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
         <v>23</v>
@@ -7570,7 +7570,7 @@
         <v>3.3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M53" t="n">
         <v>1.09</v>
@@ -7582,7 +7582,7 @@
         <v>1.42</v>
       </c>
       <c r="P53" t="n">
-        <v>1.7</v>
+        <v>1.26</v>
       </c>
       <c r="Q53" t="n">
         <v>2.32</v>
@@ -7591,7 +7591,7 @@
         <v>1.26</v>
       </c>
       <c r="S53" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T53" t="n">
         <v>1.9</v>
@@ -7609,7 +7609,7 @@
         <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z53" t="n">
         <v>16</v>
@@ -7645,7 +7645,7 @@
         <v>55</v>
       </c>
       <c r="AK53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="n">
         <v>60</v>
@@ -7714,19 +7714,19 @@
         <v>1.09</v>
       </c>
       <c r="O54" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
         <v>1.09</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R54" t="n">
         <v>1.07</v>
       </c>
       <c r="S54" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
@@ -7822,25 +7822,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="G55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I55" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="J55" t="n">
         <v>2.64</v>
       </c>
       <c r="K55" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L55" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M55" t="n">
         <v>1.12</v>
@@ -7852,31 +7852,31 @@
         <v>1.53</v>
       </c>
       <c r="P55" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="R55" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U55" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V55" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="W55" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="n">
         <v>7.6</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G56" t="n">
         <v>1.45</v>
@@ -7990,10 +7990,10 @@
         <v>1.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R56" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S56" t="n">
         <v>3.9</v>
@@ -8029,7 +8029,7 @@
         <v>12</v>
       </c>
       <c r="AD56" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AE56" t="n">
         <v>340</v>
@@ -8038,13 +8038,13 @@
         <v>7</v>
       </c>
       <c r="AG56" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH56" t="n">
         <v>40</v>
       </c>
       <c r="AI56" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AJ56" t="n">
         <v>12</v>
@@ -8059,7 +8059,7 @@
         <v>360</v>
       </c>
       <c r="AN56" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8098,16 +8098,16 @@
         <v>4.9</v>
       </c>
       <c r="H57" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I57" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
@@ -8134,19 +8134,19 @@
         <v>4.3</v>
       </c>
       <c r="T57" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
         <v>1.91</v>
       </c>
       <c r="V57" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W57" t="n">
         <v>1.26</v>
       </c>
       <c r="X57" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y57" t="n">
         <v>7.6</v>
@@ -8176,7 +8176,7 @@
         <v>19</v>
       </c>
       <c r="AH57" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI57" t="n">
         <v>46</v>
@@ -8197,7 +8197,7 @@
         <v>95</v>
       </c>
       <c r="AO57" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="58">
@@ -8227,13 +8227,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G58" t="n">
         <v>2.88</v>
       </c>
       <c r="H58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I58" t="n">
         <v>3.45</v>
@@ -8245,31 +8245,31 @@
         <v>3.05</v>
       </c>
       <c r="L58" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="M58" t="n">
         <v>1.15</v>
       </c>
       <c r="N58" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R58" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S58" t="n">
         <v>6.6</v>
       </c>
       <c r="T58" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U58" t="n">
         <v>1.68</v>
@@ -8281,19 +8281,19 @@
         <v>1.53</v>
       </c>
       <c r="X58" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z58" t="n">
         <v>21</v>
       </c>
       <c r="AA58" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC58" t="n">
         <v>7.2</v>
@@ -8305,7 +8305,7 @@
         <v>60</v>
       </c>
       <c r="AF58" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG58" t="n">
         <v>14</v>
@@ -8365,16 +8365,16 @@
         <v>3.3</v>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H59" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I59" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J59" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="K59" t="n">
         <v>3.2</v>
@@ -8386,16 +8386,16 @@
         <v>1.13</v>
       </c>
       <c r="N59" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P59" t="n">
         <v>1.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R59" t="n">
         <v>1.18</v>
@@ -8407,7 +8407,7 @@
         <v>2.1</v>
       </c>
       <c r="U59" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V59" t="n">
         <v>1.58</v>
@@ -8416,58 +8416,58 @@
         <v>1.36</v>
       </c>
       <c r="X59" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Y59" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA59" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC59" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD59" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF59" t="n">
         <v>28</v>
       </c>
       <c r="AG59" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI59" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ59" t="n">
         <v>95</v>
       </c>
       <c r="AK59" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AM59" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AN59" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO59" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
@@ -8521,13 +8521,13 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="O60" t="n">
         <v>1.16</v>
       </c>
       <c r="P60" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q60" t="n">
         <v>1.16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
@@ -682,7 +682,7 @@
         <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.23</v>
@@ -691,13 +691,13 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -718,7 +718,7 @@
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="X2" t="n">
         <v>85</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G3" t="n">
         <v>1.39</v>
@@ -814,10 +814,10 @@
         <v>13.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -826,34 +826,34 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="T3" t="n">
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
         <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
         <v>970</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -955,19 +955,19 @@
         <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
         <v>1.64</v>
@@ -985,10 +985,10 @@
         <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
@@ -997,22 +997,22 @@
         <v>500</v>
       </c>
       <c r="Z4" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AB4" t="n">
         <v>46</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AF4" t="n">
         <v>130</v>
@@ -1033,7 +1033,7 @@
         <v>80</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.27</v>
@@ -1099,7 +1099,7 @@
         <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
         <v>2.52</v>
@@ -1108,10 +1108,10 @@
         <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
         <v>1.59</v>
@@ -1120,22 +1120,22 @@
         <v>2.46</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
         <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
@@ -1147,37 +1147,37 @@
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="n">
         <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Erbaaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.7</v>
+        <v>14.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.93</v>
+        <v>1.35</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="S6" t="n">
-        <v>2.98</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>2.06</v>
+        <v>3.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Muglaspor</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.17</v>
+        <v>4.7</v>
       </c>
       <c r="G7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.22</v>
       </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I7" t="n">
-        <v>28</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>70</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>330</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>190</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM7" t="n">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Iskenderunspor</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.54</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>6.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>8.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.66</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.47</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.84</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="n">
+        <v>330</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
         <v>22</v>
       </c>
-      <c r="AA8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>510</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>55</v>
-      </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AN8" t="n">
-        <v>48</v>
+        <v>4.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Arnavutkoy Belediyesi GVS</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bursaspor</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>8.199999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.47</v>
       </c>
-      <c r="I9" t="n">
+      <c r="P9" t="n">
         <v>1.59</v>
       </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.12</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.71</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V9" t="n">
-        <v>2.68</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN9" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Arnavutkoy Belediyesi GVS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>6.6</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.64</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>2.68</v>
       </c>
       <c r="W10" t="n">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="AM10" t="n">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.6</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>6.6</v>
+        <v>2.86</v>
       </c>
       <c r="H11" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="I11" t="n">
-        <v>1.82</v>
+        <v>2.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
         <v>50</v>
       </c>
       <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF11" t="n">
         <v>21</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AG11" t="n">
         <v>14</v>
       </c>
-      <c r="AD11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>70</v>
-      </c>
       <c r="AH11" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>320</v>
       </c>
       <c r="AN11" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,105 +2003,105 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.98</v>
+        <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>1.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.24</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.17</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
         <v>500</v>
       </c>
-      <c r="AE12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>40</v>
-      </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH12" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
@@ -2116,13 +2116,13 @@
         <v>500</v>
       </c>
       <c r="AM12" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN12" t="n">
         <v>500</v>
       </c>
-      <c r="AN12" t="n">
-        <v>600</v>
-      </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="H13" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S13" t="n">
         <v>5.3</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T13" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AE13" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.6</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>130</v>
       </c>
-      <c r="AI13" t="n">
-        <v>490</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AL13" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AM13" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14">
@@ -2278,118 +2278,118 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Avenir S Marsa</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AS Gabes</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.4</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.78</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="X14" t="n">
-        <v>90</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AN14" t="n">
-        <v>600</v>
+        <v>13.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Isparta 32 Spor</t>
+          <t>Avenir S Marsa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Menemen Belediyespor</t>
+          <t>AS Gabes</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.68</v>
+        <v>1.49</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>8.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="P15" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.09</v>
       </c>
-      <c r="S15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.46</v>
+        <v>2.8</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="AE15" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ15" t="n">
         <v>55</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Isparta 32 Spor</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Menemen Belediyespor</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="G16" t="n">
-        <v>10.5</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>1.35</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>1.55</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>1.91</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
         <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>2.8</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>310</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>7.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.86</v>
+        <v>9.6</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>1.41</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>1.48</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>2.14</v>
+        <v>1.11</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.8</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AL17" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN17" t="n">
-        <v>15.5</v>
+        <v>170</v>
       </c>
       <c r="AO17" t="n">
-        <v>500</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>1.79</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="n">
-        <v>2.52</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.29</v>
       </c>
-      <c r="P18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.37</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AA18" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>480</v>
       </c>
       <c r="AF18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>21</v>
       </c>
-      <c r="AG18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>230</v>
-      </c>
       <c r="AK18" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO19" t="n">
         <v>23</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.34</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W20" t="n">
-        <v>3.4</v>
+        <v>1.74</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Z20" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
-        <v>370</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.6</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="AM20" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.2</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.78</v>
+        <v>1.35</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>1.41</v>
       </c>
       <c r="H21" t="n">
-        <v>2.38</v>
+        <v>9.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.76</v>
+        <v>11.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="W21" t="n">
-        <v>1.44</v>
+        <v>3.45</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>900</v>
+        <v>370</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AF21" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN21" t="n">
-        <v>500</v>
+        <v>5.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.18</v>
+        <v>2.78</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>2.96</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>2.68</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>8.6</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.68</v>
+        <v>2.32</v>
       </c>
       <c r="R23" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.54</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB23" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y23" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="AM23" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.55</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.85</v>
       </c>
       <c r="K24" t="n">
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>4.9</v>
+        <v>2.58</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>2.76</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>5.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>2.52</v>
       </c>
       <c r="U24" t="n">
-        <v>2.48</v>
+        <v>1.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.85</v>
+        <v>1.12</v>
       </c>
       <c r="W24" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="n">
-        <v>14.5</v>
+        <v>340</v>
       </c>
       <c r="AA24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AE24" t="n">
-        <v>19.5</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>95</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.48</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3820,7 +3820,7 @@
         <v>2.64</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -3865,10 +3865,10 @@
         <v>46</v>
       </c>
       <c r="AK25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
         <v>60</v>
@@ -3877,7 +3877,7 @@
         <v>18.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26">
@@ -3913,10 +3913,10 @@
         <v>1.15</v>
       </c>
       <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
         <v>26</v>
-      </c>
-      <c r="I26" t="n">
-        <v>27</v>
       </c>
       <c r="J26" t="n">
         <v>11</v>
@@ -3949,13 +3949,13 @@
         <v>1.93</v>
       </c>
       <c r="T26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U26" t="n">
         <v>1.72</v>
       </c>
       <c r="V26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W26" t="n">
         <v>7.6</v>
@@ -3982,7 +3982,7 @@
         <v>90</v>
       </c>
       <c r="AE26" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AF26" t="n">
         <v>9</v>
@@ -3994,7 +3994,7 @@
         <v>46</v>
       </c>
       <c r="AI26" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.199999999999999</v>
@@ -4003,7 +4003,7 @@
         <v>13.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
@@ -4045,19 +4045,19 @@
         <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.29</v>
@@ -4081,7 +4081,7 @@
         <v>1.69</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T27" t="n">
         <v>1.64</v>
@@ -4090,10 +4090,10 @@
         <v>2.48</v>
       </c>
       <c r="V27" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X27" t="n">
         <v>25</v>
@@ -4114,7 +4114,7 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
         <v>55</v>
@@ -4126,7 +4126,7 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
         <v>48</v>
@@ -4207,7 +4207,7 @@
         <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
         <v>1.72</v>
@@ -4216,13 +4216,13 @@
         <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V28" t="n">
         <v>1.68</v>
@@ -4234,7 +4234,7 @@
         <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
         <v>17</v>
@@ -4261,7 +4261,7 @@
         <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
         <v>30</v>
@@ -4279,7 +4279,7 @@
         <v>55</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
@@ -4318,16 +4318,16 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K29" t="n">
         <v>8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
@@ -4336,10 +4336,10 @@
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P29" t="n">
         <v>3.8</v>
@@ -4354,7 +4354,7 @@
         <v>1.86</v>
       </c>
       <c r="T29" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
@@ -4369,13 +4369,13 @@
         <v>55</v>
       </c>
       <c r="Y29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z29" t="n">
         <v>150</v>
       </c>
       <c r="AA29" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AB29" t="n">
         <v>15.5</v>
@@ -4399,7 +4399,7 @@
         <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
         <v>11.5</v>
@@ -4411,13 +4411,13 @@
         <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
         <v>3.05</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
         <v>6.2</v>
@@ -4456,10 +4456,10 @@
         <v>1.57</v>
       </c>
       <c r="I30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K30" t="n">
         <v>5.1</v>
@@ -4471,7 +4471,7 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O30" t="n">
         <v>1.11</v>
@@ -4492,10 +4492,10 @@
         <v>1.48</v>
       </c>
       <c r="U30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W30" t="n">
         <v>1.19</v>
@@ -4504,10 +4504,10 @@
         <v>42</v>
       </c>
       <c r="Y30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA30" t="n">
         <v>18</v>
@@ -4528,7 +4528,7 @@
         <v>65</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>16</v>
@@ -4588,13 +4588,13 @@
         <v>2.86</v>
       </c>
       <c r="H31" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
         <v>2.56</v>
       </c>
       <c r="J31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
         <v>3.95</v>
@@ -4612,10 +4612,10 @@
         <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R31" t="n">
         <v>1.68</v>
@@ -4633,7 +4633,7 @@
         <v>1.64</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
         <v>23</v>
@@ -4708,103 +4708,103 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="I32" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S32" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB32" t="n">
         <v>17</v>
       </c>
-      <c r="Y32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG32" t="n">
         <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
         <v>60</v>
@@ -4816,13 +4816,13 @@
         <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO32" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.76</v>
+        <v>3.55</v>
       </c>
       <c r="G33" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="I33" t="n">
-        <v>2.92</v>
+        <v>2.26</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="V33" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="W33" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
         <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AJ33" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO33" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="H34" t="n">
-        <v>2.22</v>
+        <v>1.77</v>
       </c>
       <c r="I34" t="n">
-        <v>2.24</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="O34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.27</v>
       </c>
-      <c r="P34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="Y34" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
         <v>11</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.4</v>
       </c>
       <c r="AD34" t="n">
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH34" t="n">
         <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL34" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN34" t="n">
         <v>34</v>
       </c>
       <c r="AO34" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="G35" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V35" t="n">
         <v>1.8</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.22</v>
-      </c>
       <c r="W35" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
         <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB35" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
         <v>10.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AG35" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
         <v>16</v>
       </c>
       <c r="AI35" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AJ35" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.56</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.74</v>
-      </c>
       <c r="X36" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
         <v>32</v>
       </c>
-      <c r="Z36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>65</v>
-      </c>
       <c r="AF36" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH36" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AK36" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.4</v>
+        <v>25</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="G37" t="n">
-        <v>2.56</v>
+        <v>1.57</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.14</v>
+        <v>2.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="R37" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="T37" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="U37" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="V37" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="W37" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="X37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AK37" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>25</v>
-      </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>18.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.3</v>
+        <v>2.58</v>
       </c>
       <c r="G38" t="n">
-        <v>1.31</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>3.05</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>7.4</v>
+        <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>4.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.31</v>
+        <v>1.87</v>
       </c>
       <c r="R38" t="n">
-        <v>2.22</v>
+        <v>1.45</v>
       </c>
       <c r="S38" t="n">
-        <v>1.78</v>
+        <v>3.15</v>
       </c>
       <c r="T38" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="U38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V38" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="W38" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="X38" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>350</v>
+        <v>48</v>
       </c>
       <c r="AB38" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AC38" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AD38" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AE38" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AF38" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AK38" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AL38" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AM38" t="n">
         <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.15</v>
+        <v>18.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="G39" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="H39" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>75</v>
+        <v>10.5</v>
       </c>
       <c r="J39" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>25</v>
+        <v>7.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="P39" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="R39" t="n">
-        <v>2.84</v>
+        <v>2.24</v>
       </c>
       <c r="S39" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="T39" t="n">
-        <v>2.92</v>
+        <v>1.63</v>
       </c>
       <c r="U39" t="n">
-        <v>1.48</v>
+        <v>2.52</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB39" t="n">
         <v>17.5</v>
       </c>
-      <c r="X39" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH39" t="n">
         <v>22</v>
       </c>
-      <c r="AC39" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>110</v>
-      </c>
       <c r="AI39" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AL39" t="n">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="AM39" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AN39" t="n">
-        <v>1.77</v>
+        <v>3.1</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.2</v>
+        <v>1.05</v>
       </c>
       <c r="G40" t="n">
-        <v>4.3</v>
+        <v>1.06</v>
       </c>
       <c r="H40" t="n">
-        <v>1.89</v>
+        <v>60</v>
       </c>
       <c r="I40" t="n">
-        <v>1.9</v>
+        <v>75</v>
       </c>
       <c r="J40" t="n">
-        <v>4.2</v>
+        <v>24</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>25</v>
       </c>
       <c r="L40" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>5.1</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="P40" t="n">
-        <v>2.46</v>
+        <v>5.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>2.82</v>
       </c>
       <c r="S40" t="n">
-        <v>2.66</v>
+        <v>1.52</v>
       </c>
       <c r="T40" t="n">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>2.5</v>
+        <v>1.48</v>
       </c>
       <c r="V40" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>1.3</v>
+        <v>17.5</v>
       </c>
       <c r="X40" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>220</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
         <v>22</v>
       </c>
-      <c r="Y40" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>990</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK40" t="n">
         <v>20</v>
       </c>
-      <c r="AC40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>42</v>
-      </c>
       <c r="AL40" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AM40" t="n">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="AN40" t="n">
-        <v>34</v>
+        <v>1.77</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.199999999999999</v>
+        <v>990</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="G41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U41" t="n">
         <v>2.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S41" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.66</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="W41" t="n">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="X41" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA41" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.6</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>27</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE41" t="n">
-        <v>500</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>16</v>
       </c>
-      <c r="AG41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>46</v>
-      </c>
       <c r="AI41" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AJ41" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK41" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="n">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="AM41" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AN41" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AO41" t="n">
-        <v>500</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.15</v>
+        <v>2.42</v>
       </c>
       <c r="G42" t="n">
-        <v>1.16</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>23</v>
+        <v>4.3</v>
       </c>
       <c r="J42" t="n">
-        <v>11</v>
+        <v>2.78</v>
       </c>
       <c r="K42" t="n">
-        <v>11.5</v>
+        <v>2.92</v>
       </c>
       <c r="L42" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N42" t="n">
-        <v>12.5</v>
+        <v>2.32</v>
       </c>
       <c r="O42" t="n">
-        <v>1.07</v>
+        <v>1.7</v>
       </c>
       <c r="P42" t="n">
-        <v>4.8</v>
+        <v>1.42</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.24</v>
+        <v>3.1</v>
       </c>
       <c r="R42" t="n">
-        <v>2.6</v>
+        <v>1.14</v>
       </c>
       <c r="S42" t="n">
-        <v>1.61</v>
+        <v>7.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="U42" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="V42" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
-        <v>7.2</v>
+        <v>1.66</v>
       </c>
       <c r="X42" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="Y42" t="n">
-        <v>120</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="AC42" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD42" t="n">
         <v>28</v>
       </c>
-      <c r="AD42" t="n">
-        <v>85</v>
-      </c>
       <c r="AE42" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="AF42" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH42" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="AK42" t="n">
-        <v>13.5</v>
+        <v>280</v>
       </c>
       <c r="AL42" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="AM42" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.26</v>
+        <v>140</v>
       </c>
       <c r="AO42" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.82</v>
+        <v>1.15</v>
       </c>
       <c r="G43" t="n">
-        <v>1.94</v>
+        <v>1.16</v>
       </c>
       <c r="H43" t="n">
-        <v>5.3</v>
+        <v>21</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="K43" t="n">
-        <v>3.7</v>
+        <v>11.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.18</v>
+        <v>12.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P43" t="n">
-        <v>1.56</v>
+        <v>4.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="R43" t="n">
-        <v>1.21</v>
+        <v>2.58</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>1.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U43" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="V43" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="W43" t="n">
-        <v>2.06</v>
+        <v>7.2</v>
       </c>
       <c r="X43" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="Z43" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AA43" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AC43" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AD43" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AF43" t="n">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AI43" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AJ43" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="AL43" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AM43" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="n">
-        <v>500</v>
+        <v>2.26</v>
       </c>
       <c r="AO43" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="H44" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="I44" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="O44" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S44" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V44" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="X44" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="Y44" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z44" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.6</v>
+        <v>500</v>
       </c>
       <c r="AC44" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AE44" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AF44" t="n">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="AG44" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AH44" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AI44" t="n">
         <v>500</v>
       </c>
       <c r="AJ44" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK44" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL44" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AM44" t="n">
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,126 +6458,126 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.62</v>
+        <v>1.61</v>
       </c>
       <c r="G45" t="n">
-        <v>2.76</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K45" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="O45" t="n">
         <v>1.46</v>
       </c>
       <c r="P45" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R45" t="n">
         <v>1.23</v>
       </c>
       <c r="S45" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="U45" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="V45" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="W45" t="n">
-        <v>1.56</v>
+        <v>2.44</v>
       </c>
       <c r="X45" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z45" t="n">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="AA45" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="AD45" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
       <c r="AE45" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AF45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK45" t="n">
         <v>65</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>36</v>
-      </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AM45" t="n">
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO45" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="G46" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T46" t="n">
         <v>1.94</v>
       </c>
-      <c r="H46" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.04</v>
-      </c>
       <c r="U46" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V46" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="W46" t="n">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="X46" t="n">
         <v>10.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Z46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK46" t="n">
         <v>36</v>
       </c>
-      <c r="AA46" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>23</v>
-      </c>
       <c r="AL46" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AO46" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.15</v>
+        <v>1.9</v>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>1.94</v>
       </c>
       <c r="H47" t="n">
-        <v>2.52</v>
+        <v>4.8</v>
       </c>
       <c r="I47" t="n">
-        <v>2.58</v>
+        <v>5.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K47" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P47" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T47" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="U47" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V47" t="n">
-        <v>1.63</v>
+        <v>1.23</v>
       </c>
       <c r="W47" t="n">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AA47" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB47" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="n">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="AK47" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM47" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN47" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="AO47" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="F48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q48" t="n">
         <v>2.24</v>
       </c>
-      <c r="G48" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="R48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S48" t="n">
         <v>4.2</v>
       </c>
-      <c r="J48" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5.4</v>
-      </c>
       <c r="T48" t="n">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="U48" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="V48" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="W48" t="n">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="X48" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="Z48" t="n">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>440</v>
+        <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AG48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK48" t="n">
         <v>44</v>
       </c>
-      <c r="AI48" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>140</v>
-      </c>
       <c r="AL48" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM48" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AO48" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,118 +7003,118 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="G49" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U49" t="n">
         <v>1.79</v>
       </c>
-      <c r="H49" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P49" t="n">
+      <c r="V49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W49" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q49" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W49" t="n">
-        <v>2.26</v>
-      </c>
       <c r="X49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y49" t="n">
         <v>12</v>
       </c>
-      <c r="Y49" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z49" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AA49" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL49" t="n">
         <v>500</v>
       </c>
-      <c r="AB49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>48</v>
-      </c>
       <c r="AM49" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN49" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="AO49" t="n">
         <v>500</v>
@@ -7133,81 +7133,81 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="G50" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I50" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K50" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L50" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P50" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W50" t="n">
         <v>2.26</v>
       </c>
-      <c r="R50" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W50" t="n">
-        <v>2.12</v>
-      </c>
       <c r="X50" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AA50" t="n">
         <v>500</v>
@@ -7216,40 +7216,40 @@
         <v>7</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AE50" t="n">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="AF50" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG50" t="n">
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI50" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AJ50" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AL50" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AM50" t="n">
         <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="AO50" t="n">
         <v>500</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L51" t="n">
         <v>1.5</v>
       </c>
-      <c r="G51" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H51" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.48</v>
-      </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O51" t="n">
         <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.44</v>
+        <v>2.26</v>
       </c>
       <c r="R51" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S51" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T51" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="U51" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="V51" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.78</v>
+        <v>2.08</v>
       </c>
       <c r="X51" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y51" t="n">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB51" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="AC51" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI51" t="n">
         <v>500</v>
       </c>
-      <c r="AG51" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>210</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ51" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AK51" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL51" t="n">
         <v>500</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,121 +7408,121 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.28</v>
+        <v>1.48</v>
       </c>
       <c r="G52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T52" t="n">
         <v>2.38</v>
       </c>
-      <c r="H52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U52" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="V52" t="n">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="W52" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="X52" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y52" t="n">
-        <v>12.5</v>
+        <v>170</v>
       </c>
       <c r="Z52" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD52" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="AE52" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>14.5</v>
+        <v>500</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH52" t="n">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="AI52" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AK52" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL52" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AM52" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO52" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7543,127 +7543,127 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.1</v>
+        <v>2.24</v>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="H53" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.68</v>
+        <v>3.8</v>
       </c>
       <c r="J53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N53" t="n">
         <v>3.25</v>
       </c>
-      <c r="K53" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N53" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O53" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P53" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="R53" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S53" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U53" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V53" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="W53" t="n">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="X53" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AA53" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC53" t="n">
         <v>7.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="AF53" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI53" t="n">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="AJ53" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AL53" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO53" t="n">
         <v>60</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="G54" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
-        <v>1.02</v>
+        <v>2.62</v>
       </c>
       <c r="I54" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="J54" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K54" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.09</v>
+        <v>1.71</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.25</v>
+        <v>2.32</v>
       </c>
       <c r="R54" t="n">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="S54" t="n">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V54" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="W54" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H55" t="n">
-        <v>2.2</v>
+        <v>1.02</v>
       </c>
       <c r="I55" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="J55" t="n">
-        <v>2.64</v>
+        <v>1.02</v>
       </c>
       <c r="K55" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.58</v>
+        <v>1.09</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>1.43</v>
+        <v>1.09</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.44</v>
+        <v>1.25</v>
       </c>
       <c r="R55" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="S55" t="n">
-        <v>4.4</v>
+        <v>1.25</v>
       </c>
       <c r="T55" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W55" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AG55" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH55" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI55" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,132 +7943,132 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Club 2 de Mayo</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.38</v>
+        <v>3.4</v>
       </c>
       <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P56" t="n">
         <v>1.45</v>
       </c>
-      <c r="H56" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="Q56" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X56" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC56" t="n">
         <v>13</v>
       </c>
-      <c r="J56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S56" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W56" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X56" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>12</v>
-      </c>
       <c r="AD56" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="AF56" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="AG56" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AH56" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI56" t="n">
         <v>290</v>
       </c>
       <c r="AJ56" t="n">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="AK56" t="n">
-        <v>19.5</v>
+        <v>500</v>
       </c>
       <c r="AL56" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AM56" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="AN56" t="n">
-        <v>9.4</v>
+        <v>500</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F57" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
+      </c>
+      <c r="J57" t="n">
         <v>4.5</v>
       </c>
-      <c r="G57" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K57" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="L57" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O57" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R57" t="n">
         <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="U57" t="n">
-        <v>1.91</v>
+        <v>1.54</v>
       </c>
       <c r="V57" t="n">
-        <v>1.97</v>
+        <v>1.08</v>
       </c>
       <c r="W57" t="n">
-        <v>1.26</v>
+        <v>3.2</v>
       </c>
       <c r="X57" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.6</v>
+        <v>28</v>
       </c>
       <c r="Z57" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="AA57" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AD57" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AE57" t="n">
-        <v>24</v>
+        <v>340</v>
       </c>
       <c r="AF57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AG57" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AI57" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="AJ57" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="AK57" t="n">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="AL57" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AM57" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="AN57" t="n">
-        <v>95</v>
+        <v>9.4</v>
       </c>
       <c r="AO57" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,132 +8213,132 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="G58" t="n">
-        <v>2.88</v>
+        <v>4.9</v>
       </c>
       <c r="H58" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="I58" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J58" t="n">
         <v>3.45</v>
       </c>
-      <c r="J58" t="n">
-        <v>2.86</v>
-      </c>
       <c r="K58" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="L58" t="n">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="M58" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="P58" t="n">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="R58" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="S58" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="U58" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="V58" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="W58" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="X58" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z58" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK58" t="n">
         <v>75</v>
       </c>
-      <c r="AB58" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>48</v>
-      </c>
       <c r="AL58" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM58" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AO58" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,260 +8348,395 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G59" t="n">
-        <v>3.75</v>
+        <v>2.84</v>
       </c>
       <c r="H59" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="I59" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K59" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M59" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N59" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="O59" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="P59" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S59" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="T59" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="U59" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="V59" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="W59" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="X59" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y59" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y59" t="n">
-        <v>9</v>
-      </c>
       <c r="Z59" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB59" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD59" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF59" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE59" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>28</v>
-      </c>
       <c r="AG59" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AH59" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AJ59" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AK59" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AL59" t="n">
         <v>100</v>
       </c>
       <c r="AM59" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="AN59" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO59" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X60" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>CD Marathon</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Juticalpa</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="F61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I61" t="n">
         <v>1000</v>
       </c>
-      <c r="H60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="J61" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X61" t="n">
         <v>1000</v>
       </c>
-      <c r="J60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K60" t="n">
-        <v>950</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X60" t="n">
+      <c r="Y61" t="n">
         <v>1000</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z61" t="n">
         <v>1000</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA61" t="n">
         <v>1000</v>
       </c>
-      <c r="AA60" t="n">
+      <c r="AB61" t="n">
         <v>1000</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AC61" t="n">
         <v>1000</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AD61" t="n">
         <v>1000</v>
       </c>
-      <c r="AD60" t="n">
+      <c r="AE61" t="n">
         <v>1000</v>
       </c>
-      <c r="AE60" t="n">
+      <c r="AF61" t="n">
         <v>1000</v>
       </c>
-      <c r="AF60" t="n">
+      <c r="AG61" t="n">
         <v>1000</v>
       </c>
-      <c r="AG60" t="n">
+      <c r="AH61" t="n">
         <v>1000</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AI61" t="n">
         <v>1000</v>
       </c>
-      <c r="AI60" t="n">
+      <c r="AJ61" t="n">
         <v>1000</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AK61" t="n">
         <v>1000</v>
       </c>
-      <c r="AK60" t="n">
+      <c r="AL61" t="n">
         <v>1000</v>
       </c>
-      <c r="AL60" t="n">
+      <c r="AM61" t="n">
         <v>1000</v>
       </c>
-      <c r="AM60" t="n">
+      <c r="AN61" t="n">
         <v>1000</v>
       </c>
-      <c r="AN60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO60" t="n">
+      <c r="AO61" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="G2" t="n">
         <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X2" t="n">
         <v>85</v>
@@ -727,13 +727,13 @@
         <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="n">
         <v>970</v>
@@ -754,13 +754,13 @@
         <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
         <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
         <v>500</v>
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.31</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.26</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
         <v>970</v>
@@ -1006,10 +1006,10 @@
         <v>46</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
@@ -1021,7 +1021,7 @@
         <v>46</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>500</v>
@@ -1030,10 +1030,10 @@
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1078,55 +1078,55 @@
         <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T5" t="n">
         <v>1.59</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="V5" t="n">
         <v>2.04</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
         <v>14</v>
@@ -1144,10 +1144,10 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF5" t="n">
         <v>38</v>
@@ -1162,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AK5" t="n">
         <v>44</v>
@@ -1171,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
         <v>36</v>
@@ -1207,91 +1207,91 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G6" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="I6" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AB6" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AC6" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AF6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>36</v>
@@ -1303,16 +1303,16 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM6" t="n">
         <v>130</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>140</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7">
@@ -1342,88 +1342,88 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AH7" t="n">
         <v>22</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1483,13 +1483,13 @@
         <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K8" t="n">
         <v>8.6</v>
@@ -1513,10 +1513,10 @@
         <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
         <v>2.68</v>
@@ -1528,7 +1528,7 @@
         <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X8" t="n">
         <v>27</v>
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V9" t="n">
         <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>65</v>
@@ -1690,13 +1690,13 @@
         <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>190</v>
@@ -1705,7 +1705,7 @@
         <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
         <v>170</v>
@@ -1714,7 +1714,7 @@
         <v>170</v>
       </c>
       <c r="AN9" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G10" t="n">
         <v>8.199999999999999</v>
@@ -1765,7 +1765,7 @@
         <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1780,13 +1780,13 @@
         <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
         <v>1.87</v>
@@ -1795,7 +1795,7 @@
         <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="W10" t="n">
         <v>1.13</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G11" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
         <v>2.98</v>
@@ -1897,49 +1897,49 @@
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
         <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
         <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
@@ -1951,16 +1951,16 @@
         <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
@@ -1969,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
         <v>42</v>
@@ -1978,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>320</v>
@@ -1987,7 +1987,7 @@
         <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2017,82 +2017,82 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="I12" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
         <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD12" t="n">
         <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
         <v>500</v>
@@ -2101,10 +2101,10 @@
         <v>70</v>
       </c>
       <c r="AH12" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
@@ -2122,7 +2122,7 @@
         <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="G13" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.42</v>
       </c>
-      <c r="O13" t="n">
+      <c r="U13" t="n">
         <v>1.59</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.52</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W13" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
@@ -2218,10 +2218,10 @@
         <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>500</v>
@@ -2233,7 +2233,7 @@
         <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AH13" t="n">
         <v>500</v>
@@ -2242,7 +2242,7 @@
         <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AK13" t="n">
         <v>500</v>
@@ -2257,7 +2257,7 @@
         <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.8</v>
@@ -2305,13 +2305,13 @@
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
@@ -2320,7 +2320,7 @@
         <v>1.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
         <v>8.6</v>
       </c>
       <c r="I15" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.55</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.52</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="T15" t="n">
         <v>2.62</v>
       </c>
       <c r="U15" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2482,19 +2482,19 @@
         <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA15" t="n">
         <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AE15" t="n">
         <v>500</v>
@@ -2503,25 +2503,25 @@
         <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AI15" t="n">
         <v>500</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="n">
         <v>500</v>
       </c>
       <c r="AM15" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
         <v>55</v>
@@ -2560,22 +2560,22 @@
         <v>2.68</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
@@ -2587,40 +2587,40 @@
         <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
         <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2629,19 +2629,19 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
@@ -2653,7 +2653,7 @@
         <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
@@ -2662,7 +2662,7 @@
         <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="G17" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="K17" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.63</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="W17" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AG17" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="AK17" t="n">
+        <v>230</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM17" t="n">
         <v>150</v>
       </c>
-      <c r="AL17" t="n">
-        <v>390</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>390</v>
-      </c>
       <c r="AN17" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="AO17" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18">
@@ -2827,37 +2827,37 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
         <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
         <v>2.2</v>
@@ -2866,61 +2866,61 @@
         <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
         <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC18" t="n">
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="n">
         <v>480</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>380</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>200</v>
@@ -2929,7 +2929,7 @@
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>600</v>
@@ -2962,67 +2962,67 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
         <v>1.38</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
         <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
         <v>95</v>
@@ -3031,13 +3031,13 @@
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3064,7 +3064,7 @@
         <v>330</v>
       </c>
       <c r="AN19" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>23</v>
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -3163,19 +3163,19 @@
         <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
         <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>23</v>
@@ -3190,7 +3190,7 @@
         <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
         <v>290</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>9.4</v>
       </c>
       <c r="I21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
         <v>6.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X21" t="n">
         <v>26</v>
@@ -3310,7 +3310,7 @@
         <v>160</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="I22" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
         <v>3.85</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.75</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>2.68</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
         <v>95</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK22" t="n">
         <v>80</v>
       </c>
       <c r="AL22" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO22" t="n">
         <v>500</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
         <v>2.36</v>
@@ -3511,34 +3511,34 @@
         <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
         <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" t="n">
         <v>2.32</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
         <v>4.4</v>
@@ -3547,34 +3547,34 @@
         <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
         <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>250</v>
@@ -3583,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>42</v>
@@ -3592,7 +3592,7 @@
         <v>380</v>
       </c>
       <c r="AJ23" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
         <v>65</v>
@@ -3637,100 +3637,100 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H24" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.13</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W24" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
         <v>340</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AF24" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AI24" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AJ24" t="n">
         <v>75</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AL24" t="n">
         <v>190</v>
@@ -3739,7 +3739,7 @@
         <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3790,34 +3790,34 @@
         <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="T25" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U25" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="V25" t="n">
         <v>1.68</v>
@@ -3826,58 +3826,58 @@
         <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
         <v>34</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
         <v>11.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
         <v>22</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="n">
         <v>46</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN25" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -3913,91 +3913,91 @@
         <v>1.15</v>
       </c>
       <c r="H26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J26" t="n">
         <v>11</v>
       </c>
       <c r="K26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P26" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="R26" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="S26" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="T26" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X26" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Y26" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="Z26" t="n">
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD26" t="n">
         <v>90</v>
       </c>
       <c r="AE26" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="AF26" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>46</v>
       </c>
       <c r="AI26" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK26" t="n">
         <v>13.5</v>
@@ -4009,10 +4009,10 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="AO26" t="n">
-        <v>580</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G27" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>4.4</v>
@@ -4072,37 +4072,37 @@
         <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q27" t="n">
         <v>1.56</v>
       </c>
       <c r="R27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
         <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V27" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="X27" t="n">
         <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="n">
         <v>110</v>
@@ -4114,25 +4114,25 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
@@ -4141,10 +4141,10 @@
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO27" t="n">
         <v>40</v>
@@ -4189,13 +4189,13 @@
         <v>2.46</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4207,10 +4207,10 @@
         <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R28" t="n">
         <v>1.53</v>
@@ -4219,22 +4219,22 @@
         <v>2.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U28" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V28" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X28" t="n">
         <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
         <v>17</v>
@@ -4282,7 +4282,7 @@
         <v>22</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K29" t="n">
         <v>8</v>
@@ -4333,37 +4333,37 @@
         <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R29" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="S29" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X29" t="n">
         <v>55</v>
@@ -4375,19 +4375,19 @@
         <v>150</v>
       </c>
       <c r="AA29" t="n">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="AB29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
         <v>19.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE29" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -4396,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
         <v>110</v>
@@ -4414,10 +4414,10 @@
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G30" t="n">
         <v>6</v>
       </c>
-      <c r="G30" t="n">
-        <v>6.2</v>
-      </c>
       <c r="H30" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="I30" t="n">
         <v>1.58</v>
       </c>
       <c r="J30" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.21</v>
@@ -4471,7 +4471,7 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.11</v>
@@ -4480,34 +4480,34 @@
         <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="S30" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T30" t="n">
         <v>1.48</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="V30" t="n">
         <v>2.72</v>
       </c>
       <c r="W30" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
         <v>18</v>
@@ -4531,7 +4531,7 @@
         <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
@@ -4546,10 +4546,10 @@
         <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
         <v>4.2</v>
@@ -4588,13 +4588,13 @@
         <v>2.86</v>
       </c>
       <c r="H31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I31" t="n">
         <v>2.54</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K31" t="n">
         <v>3.95</v>
@@ -4612,28 +4612,28 @@
         <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T31" t="n">
         <v>1.52</v>
       </c>
       <c r="U31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V31" t="n">
         <v>1.64</v>
       </c>
       <c r="W31" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
         <v>23</v>
@@ -4675,7 +4675,7 @@
         <v>42</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>29</v>
@@ -4729,7 +4729,7 @@
         <v>2.18</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
         <v>3.9</v>
@@ -4750,10 +4750,10 @@
         <v>2.32</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
         <v>2.82</v>
@@ -4768,19 +4768,19 @@
         <v>1.85</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB32" t="n">
         <v>17</v>
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="I33" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="S33" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="T33" t="n">
         <v>1.65</v>
       </c>
       <c r="U33" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V33" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
         <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AB33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>14</v>
       </c>
       <c r="AH33" t="n">
         <v>14.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL33" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="n">
         <v>65</v>
       </c>
       <c r="AN33" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="G34" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="J34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K34" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.28</v>
@@ -5017,82 +5017,82 @@
         <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R34" t="n">
         <v>1.73</v>
       </c>
       <c r="S34" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V34" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="W34" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
         <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF34" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AG34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI34" t="n">
         <v>23</v>
       </c>
       <c r="AJ34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK34" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
         <v>55</v>
       </c>
       <c r="AN34" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="35">
@@ -5134,13 +5134,13 @@
         <v>2.24</v>
       </c>
       <c r="J35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.8</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
@@ -5155,10 +5155,10 @@
         <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R35" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S35" t="n">
         <v>3.1</v>
@@ -5188,7 +5188,7 @@
         <v>26</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
         <v>8.4</v>
@@ -5209,7 +5209,7 @@
         <v>16</v>
       </c>
       <c r="AI35" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ35" t="n">
         <v>60</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G36" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H36" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I36" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S36" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="V36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W36" t="n">
         <v>1.56</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
         <v>18.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB36" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG36" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>14</v>
-      </c>
       <c r="AH36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI36" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="n">
         <v>38</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO36" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -5392,64 +5392,64 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="G37" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="I37" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K37" t="n">
         <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S37" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="T37" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U37" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="X37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
         <v>55</v>
@@ -5458,46 +5458,46 @@
         <v>140</v>
       </c>
       <c r="AB37" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC37" t="n">
         <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK37" t="n">
         <v>13.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO37" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="I38" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="J38" t="n">
         <v>3.5</v>
@@ -5545,70 +5545,70 @@
         <v>3.55</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="R38" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S38" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T38" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U38" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V38" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="X38" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA38" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="n">
         <v>12</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>15</v>
@@ -5617,22 +5617,22 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AK38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AO38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.3</v>
       </c>
-      <c r="G39" t="n">
-        <v>1.31</v>
-      </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K39" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.19</v>
@@ -5686,34 +5686,34 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q39" t="n">
         <v>1.31</v>
       </c>
       <c r="R39" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="S39" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="T39" t="n">
         <v>1.63</v>
       </c>
       <c r="U39" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V39" t="n">
         <v>1.1</v>
       </c>
       <c r="W39" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X39" t="n">
         <v>60</v>
@@ -5728,10 +5728,10 @@
         <v>350</v>
       </c>
       <c r="AB39" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD39" t="n">
         <v>40</v>
@@ -5740,19 +5740,19 @@
         <v>120</v>
       </c>
       <c r="AF39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
         <v>80</v>
       </c>
       <c r="AJ39" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK39" t="n">
         <v>12</v>
@@ -5764,10 +5764,10 @@
         <v>70</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO39" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -5803,46 +5803,46 @@
         <v>1.06</v>
       </c>
       <c r="H40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.06</v>
       </c>
       <c r="P40" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="R40" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="S40" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U40" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="V40" t="n">
         <v>1.01</v>
@@ -5851,10 +5851,10 @@
         <v>17.5</v>
       </c>
       <c r="X40" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y40" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,13 +5863,13 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC40" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AD40" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5878,28 +5878,28 @@
         <v>11.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH40" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="AI40" t="n">
         <v>990</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK40" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL40" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="n">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AO40" t="n">
         <v>990</v>
@@ -5932,46 +5932,46 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K41" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.33</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S41" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T41" t="n">
         <v>1.63</v>
@@ -5980,25 +5980,25 @@
         <v>2.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W41" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
         <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
         <v>21</v>
       </c>
       <c r="AB41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
         <v>9.4</v>
@@ -6010,10 +6010,10 @@
         <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG41" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
         <v>16</v>
@@ -6022,22 +6022,22 @@
         <v>25</v>
       </c>
       <c r="AJ41" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK41" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="n">
         <v>44</v>
       </c>
       <c r="AM41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -6067,88 +6067,88 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K42" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="L42" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N42" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="O42" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="P42" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="R42" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S42" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T42" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="U42" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="V42" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W42" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X42" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="n">
         <v>500</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC42" t="n">
         <v>6.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE42" t="n">
         <v>500</v>
       </c>
       <c r="AF42" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH42" t="n">
         <v>46</v>
@@ -6157,10 +6157,10 @@
         <v>500</v>
       </c>
       <c r="AJ42" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AK42" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AL42" t="n">
         <v>460</v>
@@ -6169,7 +6169,7 @@
         <v>500</v>
       </c>
       <c r="AN42" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AO42" t="n">
         <v>500</v>
@@ -6211,7 +6211,7 @@
         <v>21</v>
       </c>
       <c r="I43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J43" t="n">
         <v>11</v>
@@ -6226,28 +6226,28 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
         <v>1.07</v>
       </c>
       <c r="P43" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Q43" t="n">
         <v>1.24</v>
       </c>
       <c r="R43" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="S43" t="n">
         <v>1.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U43" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V43" t="n">
         <v>1.04</v>
@@ -6256,13 +6256,13 @@
         <v>7.2</v>
       </c>
       <c r="X43" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z43" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
@@ -6277,19 +6277,19 @@
         <v>75</v>
       </c>
       <c r="AE43" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AF43" t="n">
         <v>12.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
         <v>38</v>
       </c>
       <c r="AI43" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ43" t="n">
         <v>11</v>
@@ -6304,7 +6304,7 @@
         <v>130</v>
       </c>
       <c r="AN43" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AO43" t="n">
         <v>240</v>
@@ -6337,109 +6337,109 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G44" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>2.18</v>
+        <v>2.88</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P44" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="R44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V44" t="n">
         <v>1.21</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.2</v>
       </c>
       <c r="W44" t="n">
         <v>2.06</v>
       </c>
       <c r="X44" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AA44" t="n">
         <v>900</v>
       </c>
       <c r="AB44" t="n">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="AC44" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AE44" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AF44" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AI44" t="n">
         <v>500</v>
       </c>
       <c r="AJ44" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AK44" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AL44" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AM44" t="n">
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AO44" t="n">
         <v>500</v>
@@ -6472,31 +6472,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H45" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O45" t="n">
         <v>1.46</v>
@@ -6505,13 +6505,13 @@
         <v>1.67</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="R45" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T45" t="n">
         <v>2.3</v>
@@ -6520,10 +6520,10 @@
         <v>1.67</v>
       </c>
       <c r="V45" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W45" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X45" t="n">
         <v>23</v>
@@ -6538,7 +6538,7 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC45" t="n">
         <v>16</v>
@@ -6547,7 +6547,7 @@
         <v>85</v>
       </c>
       <c r="AE45" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF45" t="n">
         <v>15</v>
@@ -6610,13 +6610,13 @@
         <v>2.62</v>
       </c>
       <c r="G46" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
         <v>3.15</v>
@@ -6625,55 +6625,55 @@
         <v>3.25</v>
       </c>
       <c r="L46" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="O46" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="P46" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R46" t="n">
         <v>1.23</v>
       </c>
       <c r="S46" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T46" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V46" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W46" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X46" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z46" t="n">
         <v>21</v>
       </c>
       <c r="AA46" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC46" t="n">
         <v>7.4</v>
@@ -6682,7 +6682,7 @@
         <v>14.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF46" t="n">
         <v>17</v>
@@ -6691,7 +6691,7 @@
         <v>13</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI46" t="n">
         <v>160</v>
@@ -6700,7 +6700,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="n">
         <v>60</v>
@@ -6709,10 +6709,10 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO46" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -6748,7 +6748,7 @@
         <v>1.94</v>
       </c>
       <c r="H47" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
         <v>5.3</v>
@@ -6760,28 +6760,28 @@
         <v>3.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R47" t="n">
         <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T47" t="n">
         <v>2.06</v>
@@ -6808,16 +6808,16 @@
         <v>140</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC47" t="n">
         <v>7.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE47" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF47" t="n">
         <v>10.5</v>
@@ -6829,7 +6829,7 @@
         <v>24</v>
       </c>
       <c r="AI47" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="n">
         <v>21</v>
@@ -6838,7 +6838,7 @@
         <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM47" t="n">
         <v>170</v>
@@ -6847,7 +6847,7 @@
         <v>18</v>
       </c>
       <c r="AO47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G48" t="n">
         <v>3.3</v>
@@ -6886,7 +6886,7 @@
         <v>2.52</v>
       </c>
       <c r="I48" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J48" t="n">
         <v>3.3</v>
@@ -6895,13 +6895,13 @@
         <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M48" t="n">
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O48" t="n">
         <v>1.41</v>
@@ -6910,22 +6910,22 @@
         <v>1.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R48" t="n">
         <v>1.28</v>
       </c>
       <c r="S48" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T48" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U48" t="n">
         <v>2.02</v>
       </c>
       <c r="V48" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W48" t="n">
         <v>1.43</v>
@@ -6967,7 +6967,7 @@
         <v>50</v>
       </c>
       <c r="AJ48" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AK48" t="n">
         <v>44</v>
@@ -6976,7 +6976,7 @@
         <v>60</v>
       </c>
       <c r="AM48" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN48" t="n">
         <v>48</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G49" t="n">
         <v>2.34</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L49" t="n">
         <v>1.59</v>
@@ -7036,7 +7036,7 @@
         <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O49" t="n">
         <v>1.55</v>
@@ -7048,76 +7048,76 @@
         <v>2.72</v>
       </c>
       <c r="R49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S49" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="T49" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U49" t="n">
         <v>1.79</v>
       </c>
       <c r="V49" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W49" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X49" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="n">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD49" t="n">
         <v>23</v>
       </c>
       <c r="AE49" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="AF49" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AI49" t="n">
         <v>260</v>
       </c>
       <c r="AJ49" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL49" t="n">
         <v>140</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>500</v>
       </c>
       <c r="AM49" t="n">
         <v>500</v>
       </c>
       <c r="AN49" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AO49" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50">
@@ -7147,40 +7147,40 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G50" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K50" t="n">
         <v>3.9</v>
       </c>
       <c r="L50" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O50" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R50" t="n">
         <v>1.26</v>
@@ -7192,19 +7192,19 @@
         <v>2.12</v>
       </c>
       <c r="U50" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W50" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="X50" t="n">
         <v>11.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z50" t="n">
         <v>150</v>
@@ -7282,61 +7282,61 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G51" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H51" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I51" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K51" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L51" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O51" t="n">
         <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R51" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T51" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V51" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W51" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X51" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="n">
         <v>32</v>
@@ -7348,7 +7348,7 @@
         <v>500</v>
       </c>
       <c r="AB51" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC51" t="n">
         <v>8.4</v>
@@ -7366,16 +7366,16 @@
         <v>10.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AI51" t="n">
         <v>500</v>
       </c>
       <c r="AJ51" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AK51" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AL51" t="n">
         <v>500</v>
@@ -7384,7 +7384,7 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>85</v>
+        <v>18.5</v>
       </c>
       <c r="AO51" t="n">
         <v>500</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G52" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="H52" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J52" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K52" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M52" t="n">
         <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P52" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S52" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T52" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U52" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V52" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W52" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X52" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB52" t="n">
-        <v>970</v>
+        <v>6.2</v>
       </c>
       <c r="AC52" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD52" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF52" t="n">
-        <v>500</v>
+        <v>7.6</v>
       </c>
       <c r="AG52" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI52" t="n">
         <v>210</v>
       </c>
-      <c r="AI52" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ52" t="n">
-        <v>500</v>
+        <v>13.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AL52" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN52" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G53" t="n">
         <v>2.36</v>
@@ -7561,10 +7561,10 @@
         <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J53" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K53" t="n">
         <v>3.5</v>
@@ -7573,34 +7573,34 @@
         <v>1.47</v>
       </c>
       <c r="M53" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O53" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P53" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R53" t="n">
         <v>1.29</v>
       </c>
       <c r="S53" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U53" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V53" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W53" t="n">
         <v>1.73</v>
@@ -7612,13 +7612,13 @@
         <v>12.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AA53" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB53" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC53" t="n">
         <v>7.4</v>
@@ -7627,19 +7627,19 @@
         <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AF53" t="n">
         <v>14.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH53" t="n">
         <v>19</v>
       </c>
       <c r="AI53" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AJ53" t="n">
         <v>80</v>
@@ -7654,10 +7654,10 @@
         <v>580</v>
       </c>
       <c r="AN53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO53" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -7696,7 +7696,7 @@
         <v>2.62</v>
       </c>
       <c r="I54" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J54" t="n">
         <v>3.25</v>
@@ -7705,19 +7705,19 @@
         <v>3.3</v>
       </c>
       <c r="L54" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O54" t="n">
         <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q54" t="n">
         <v>2.32</v>
@@ -7735,7 +7735,7 @@
         <v>1.96</v>
       </c>
       <c r="V54" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W54" t="n">
         <v>1.45</v>
@@ -7744,7 +7744,7 @@
         <v>11</v>
       </c>
       <c r="Y54" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z54" t="n">
         <v>16</v>
@@ -7771,7 +7771,7 @@
         <v>13.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI54" t="n">
         <v>55</v>
@@ -7786,7 +7786,7 @@
         <v>60</v>
       </c>
       <c r="AM54" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN54" t="n">
         <v>46</v>
@@ -7957,46 +7957,46 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I56" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="J56" t="n">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L56" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="M56" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N56" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="O56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P56" t="n">
         <v>1.53</v>
       </c>
-      <c r="P56" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Q56" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="R56" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="S56" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="T56" t="n">
         <v>2.08</v>
@@ -8005,10 +8005,10 @@
         <v>1.76</v>
       </c>
       <c r="V56" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="W56" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="X56" t="n">
         <v>16</v>
@@ -8020,7 +8020,7 @@
         <v>34</v>
       </c>
       <c r="AA56" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AB56" t="n">
         <v>21</v>
@@ -8029,7 +8029,7 @@
         <v>13</v>
       </c>
       <c r="AD56" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AE56" t="n">
         <v>110</v>
@@ -8041,7 +8041,7 @@
         <v>38</v>
       </c>
       <c r="AH56" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI56" t="n">
         <v>290</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="G57" t="n">
         <v>1.45</v>
@@ -8101,46 +8101,46 @@
         <v>10.5</v>
       </c>
       <c r="I57" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J57" t="n">
         <v>4.5</v>
       </c>
       <c r="K57" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P57" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="Q57" t="n">
         <v>2.16</v>
       </c>
       <c r="R57" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
         <v>2.46</v>
       </c>
       <c r="U57" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="V57" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W57" t="n">
         <v>3.2</v>
@@ -8149,7 +8149,7 @@
         <v>13.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z57" t="n">
         <v>130</v>
@@ -8161,13 +8161,13 @@
         <v>6.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD57" t="n">
         <v>50</v>
       </c>
       <c r="AE57" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="n">
         <v>7</v>
@@ -8179,7 +8179,7 @@
         <v>40</v>
       </c>
       <c r="AI57" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ57" t="n">
         <v>12</v>
@@ -8197,7 +8197,7 @@
         <v>9.4</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="58">
@@ -8227,64 +8227,64 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I58" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="J58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.45</v>
       </c>
-      <c r="K58" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L58" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M58" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="P58" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="R58" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S58" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T58" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U58" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V58" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W58" t="n">
         <v>1.26</v>
       </c>
       <c r="X58" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z58" t="n">
         <v>11</v>
@@ -8293,7 +8293,7 @@
         <v>23</v>
       </c>
       <c r="AB58" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC58" t="n">
         <v>7.8</v>
@@ -8302,19 +8302,19 @@
         <v>11</v>
       </c>
       <c r="AE58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF58" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG58" t="n">
         <v>19</v>
       </c>
       <c r="AH58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI58" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ58" t="n">
         <v>120</v>
@@ -8323,16 +8323,16 @@
         <v>75</v>
       </c>
       <c r="AL58" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM58" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN58" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO58" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -8362,88 +8362,88 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J59" t="n">
         <v>2.84</v>
       </c>
-      <c r="H59" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q59" t="n">
         <v>3.4</v>
       </c>
-      <c r="J59" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R59" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S59" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T59" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="U59" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V59" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="W59" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="X59" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y59" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z59" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA59" t="n">
         <v>1000</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD59" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>590</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG59" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>14</v>
       </c>
       <c r="AH59" t="n">
         <v>50</v>
@@ -8452,13 +8452,13 @@
         <v>120</v>
       </c>
       <c r="AJ59" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AK59" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="AL59" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM59" t="n">
         <v>310</v>
@@ -8467,7 +8467,7 @@
         <v>1000</v>
       </c>
       <c r="AO59" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G60" t="n">
         <v>3.75</v>
@@ -8506,88 +8506,88 @@
         <v>2.48</v>
       </c>
       <c r="I60" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J60" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L60" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O60" t="n">
         <v>1.57</v>
       </c>
-      <c r="M60" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.56</v>
-      </c>
       <c r="P60" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="R60" t="n">
         <v>1.18</v>
       </c>
       <c r="S60" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T60" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U60" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V60" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W60" t="n">
         <v>1.37</v>
       </c>
       <c r="X60" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y60" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="Z60" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA60" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB60" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC60" t="n">
         <v>7.2</v>
       </c>
       <c r="AD60" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE60" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF60" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG60" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH60" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI60" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>95</v>
       </c>
       <c r="AK60" t="n">
         <v>75</v>
@@ -8596,13 +8596,13 @@
         <v>100</v>
       </c>
       <c r="AM60" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN60" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO60" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
@@ -8650,16 +8650,16 @@
         <v>14.5</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N61" t="n">
         <v>2.02</v>
       </c>
       <c r="O61" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P61" t="n">
         <v>2.02</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H2" t="n">
         <v>7.4</v>
       </c>
       <c r="I2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X2" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AJ2" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -814,40 +814,40 @@
         <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
         <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
         <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
@@ -856,22 +856,22 @@
         <v>3.3</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
@@ -880,22 +880,22 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
         <v>500</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z4" t="n">
         <v>970</v>
@@ -1003,13 +1003,13 @@
         <v>970</v>
       </c>
       <c r="AB4" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
@@ -1030,7 +1030,7 @@
         <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AL4" t="n">
         <v>190</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1102,10 +1102,10 @@
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
         <v>1.64</v>
@@ -1114,13 +1114,13 @@
         <v>2.38</v>
       </c>
       <c r="T5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W5" t="n">
         <v>1.29</v>
@@ -1150,10 +1150,10 @@
         <v>17.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
         <v>16.5</v>
@@ -1165,7 +1165,7 @@
         <v>150</v>
       </c>
       <c r="AK5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
         <v>42</v>
@@ -1177,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="6">
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="I6" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
@@ -1273,7 +1273,7 @@
         <v>970</v>
       </c>
       <c r="AB6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="n">
         <v>970</v>
@@ -1285,16 +1285,16 @@
         <v>970</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,16 +1303,16 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G7" t="n">
         <v>6.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
         <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>16.5</v>
@@ -1408,16 +1408,16 @@
         <v>17.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
         <v>100</v>
@@ -1429,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
         <v>900</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="n">
         <v>1.22</v>
@@ -1486,40 +1486,40 @@
         <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="K8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="U8" t="n">
         <v>1.47</v>
@@ -1528,7 +1528,7 @@
         <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
         <v>27</v>
@@ -1579,7 +1579,7 @@
         <v>520</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,85 +1612,85 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="H9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
         <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
         <v>1.93</v>
       </c>
       <c r="U9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="X9" t="n">
         <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
         <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1705,13 +1705,13 @@
         <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
         <v>170</v>
       </c>
       <c r="AM9" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>600</v>
@@ -1753,10 +1753,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I10" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1771,31 +1771,31 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="W10" t="n">
         <v>1.13</v>
@@ -1807,7 +1807,7 @@
         <v>9.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA10" t="n">
         <v>14.5</v>
@@ -1846,7 +1846,7 @@
         <v>260</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>790</v>
       </c>
       <c r="AN10" t="n">
         <v>140</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="I11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD11" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -2017,94 +2017,94 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="I12" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="W12" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="n">
         <v>60</v>
       </c>
       <c r="AI12" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AJ12" t="n">
         <v>900</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M13" t="n">
         <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U13" t="n">
         <v>1.59</v>
       </c>
       <c r="V13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>970</v>
@@ -2218,10 +2218,10 @@
         <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>500</v>
@@ -2230,10 +2230,10 @@
         <v>500</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="n">
         <v>500</v>
@@ -2242,7 +2242,7 @@
         <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="n">
         <v>500</v>
@@ -2287,40 +2287,40 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
@@ -2329,13 +2329,13 @@
         <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
         <v>2.8</v>
@@ -2386,7 +2386,7 @@
         <v>380</v>
       </c>
       <c r="AM14" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AN14" t="n">
         <v>13.5</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
         <v>8.6</v>
@@ -2434,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
@@ -2446,16 +2446,16 @@
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
         <v>1.17</v>
@@ -2464,19 +2464,19 @@
         <v>5.9</v>
       </c>
       <c r="T15" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="U15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
         <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
         <v>970</v>
@@ -2488,10 +2488,10 @@
         <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AD15" t="n">
         <v>120</v>
@@ -2503,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
         <v>130</v>
@@ -2512,19 +2512,19 @@
         <v>500</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="n">
         <v>500</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO15" t="n">
         <v>500</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
         <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
@@ -2617,7 +2617,7 @@
         <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="n">
         <v>46</v>
@@ -2629,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>36</v>
@@ -2662,7 +2662,7 @@
         <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="H17" t="n">
         <v>1.3</v>
@@ -2704,10 +2704,10 @@
         <v>1.34</v>
       </c>
       <c r="J17" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K17" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.28</v>
@@ -2719,7 +2719,7 @@
         <v>5.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
         <v>2.6</v>
@@ -2731,22 +2731,22 @@
         <v>1.63</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="W17" t="n">
         <v>1.08</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
@@ -2758,34 +2758,34 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="AK17" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="n">
         <v>140</v>
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AO17" t="n">
         <v>4.5</v>
@@ -2827,67 +2827,67 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.77</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.84</v>
       </c>
       <c r="V18" t="n">
         <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
         <v>900</v>
@@ -2896,10 +2896,10 @@
         <v>7.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="n">
         <v>480</v>
@@ -2917,19 +2917,19 @@
         <v>380</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>600</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H19" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="I19" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
@@ -2986,22 +2986,22 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.71</v>
@@ -3010,10 +3010,10 @@
         <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
@@ -3022,13 +3022,13 @@
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.4</v>
@@ -3040,34 +3040,34 @@
         <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AM19" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
         <v>1.37</v>
@@ -3139,22 +3139,22 @@
         <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
         <v>90</v>
@@ -3175,10 +3175,10 @@
         <v>500</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
         <v>60</v>
@@ -3190,10 +3190,10 @@
         <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
@@ -3232,91 +3232,91 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G21" t="n">
         <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K21" t="n">
         <v>6.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.11</v>
       </c>
       <c r="W21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA21" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>13.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>470</v>
@@ -3325,10 +3325,10 @@
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
         <v>390</v>
@@ -3337,7 +3337,7 @@
         <v>5.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
         <v>3.7</v>
@@ -3391,49 +3391,49 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>46</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>8.199999999999999</v>
@@ -3442,7 +3442,7 @@
         <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3454,7 +3454,7 @@
         <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AJ22" t="n">
         <v>48</v>
@@ -3463,13 +3463,13 @@
         <v>80</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>500</v>
@@ -3511,13 +3511,13 @@
         <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
@@ -3526,28 +3526,28 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O23" t="n">
         <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V23" t="n">
         <v>1.36</v>
@@ -3565,7 +3565,7 @@
         <v>65</v>
       </c>
       <c r="AA23" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AB23" t="n">
         <v>8.6</v>
@@ -3577,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -3607,7 +3607,7 @@
         <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
@@ -3637,109 +3637,109 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.63</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.68</v>
-      </c>
       <c r="H24" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I24" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M24" t="n">
         <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O24" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.56</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.58</v>
       </c>
       <c r="V24" t="n">
         <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="X24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y24" t="n">
         <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="AA24" t="n">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AE24" t="n">
         <v>500</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="AI24" t="n">
         <v>500</v>
       </c>
       <c r="AJ24" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>500</v>
       </c>
       <c r="AN24" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3775,22 +3775,22 @@
         <v>2.98</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.85</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3799,34 +3799,34 @@
         <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S25" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T25" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U25" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V25" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
         <v>13.5</v>
@@ -3841,7 +3841,7 @@
         <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>11.5</v>
@@ -3919,40 +3919,40 @@
         <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K26" t="n">
         <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="R26" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="S26" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="T26" t="n">
         <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V26" t="n">
         <v>1.03</v>
@@ -3961,43 +3961,43 @@
         <v>7.8</v>
       </c>
       <c r="X26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y26" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="Z26" t="n">
-        <v>510</v>
+        <v>330</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD26" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE26" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
         <v>46</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK26" t="n">
         <v>13.5</v>
@@ -4006,13 +4006,13 @@
         <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="AO26" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="H27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I27" t="n">
         <v>4.9</v>
       </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
       <c r="J27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.29</v>
@@ -4078,22 +4078,22 @@
         <v>1.56</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S27" t="n">
         <v>2.38</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U27" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="X27" t="n">
         <v>25</v>
@@ -4105,22 +4105,22 @@
         <v>42</v>
       </c>
       <c r="AA27" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4132,13 +4132,13 @@
         <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
         <v>60</v>
@@ -4147,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I28" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J28" t="n">
         <v>3.65</v>
@@ -4204,16 +4204,16 @@
         <v>5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S28" t="n">
         <v>2.8</v>
@@ -4225,10 +4225,10 @@
         <v>2.56</v>
       </c>
       <c r="V28" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
         <v>18.5</v>
@@ -4243,7 +4243,7 @@
         <v>34</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
@@ -4252,13 +4252,13 @@
         <v>11.5</v>
       </c>
       <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
         <v>22</v>
       </c>
-      <c r="AF28" t="n">
-        <v>23</v>
-      </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>14</v>
@@ -4267,10 +4267,10 @@
         <v>30</v>
       </c>
       <c r="AJ28" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
         <v>36</v>
@@ -4282,7 +4282,7 @@
         <v>22</v>
       </c>
       <c r="AO28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -4330,10 +4330,10 @@
         <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
         <v>9.800000000000001</v>
@@ -4348,7 +4348,7 @@
         <v>1.32</v>
       </c>
       <c r="R29" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S29" t="n">
         <v>1.83</v>
@@ -4366,22 +4366,22 @@
         <v>4.8</v>
       </c>
       <c r="X29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z29" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA29" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="n">
         <v>46</v>
@@ -4390,16 +4390,16 @@
         <v>150</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
         <v>11.5</v>
@@ -4411,13 +4411,13 @@
         <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="AO29" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G30" t="n">
         <v>6</v>
       </c>
       <c r="H30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.56</v>
       </c>
-      <c r="I30" t="n">
-        <v>1.58</v>
-      </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.21</v>
@@ -4474,28 +4474,28 @@
         <v>9.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P30" t="n">
         <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="S30" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T30" t="n">
         <v>1.48</v>
       </c>
       <c r="U30" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="V30" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W30" t="n">
         <v>1.2</v>
@@ -4510,7 +4510,7 @@
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB30" t="n">
         <v>42</v>
@@ -4531,25 +4531,25 @@
         <v>24</v>
       </c>
       <c r="AH30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
         <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
         <v>4.2</v>
@@ -4588,10 +4588,10 @@
         <v>2.86</v>
       </c>
       <c r="H31" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J31" t="n">
         <v>3.9</v>
@@ -4606,16 +4606,16 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
         <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R31" t="n">
         <v>1.67</v>
@@ -4654,7 +4654,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
@@ -4663,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>13.5</v>
@@ -4681,13 +4681,13 @@
         <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN31" t="n">
         <v>15</v>
       </c>
       <c r="AO31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
         <v>3.65</v>
@@ -4726,13 +4726,13 @@
         <v>2.14</v>
       </c>
       <c r="I32" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J32" t="n">
         <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>1.35</v>
@@ -4747,10 +4747,10 @@
         <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R32" t="n">
         <v>1.53</v>
@@ -4765,13 +4765,13 @@
         <v>2.48</v>
       </c>
       <c r="V32" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
@@ -4780,7 +4780,7 @@
         <v>14.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB32" t="n">
         <v>17</v>
@@ -4807,7 +4807,7 @@
         <v>29</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK32" t="n">
         <v>36</v>
@@ -4816,13 +4816,13 @@
         <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -4858,13 +4858,13 @@
         <v>4.3</v>
       </c>
       <c r="H33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I33" t="n">
         <v>1.99</v>
       </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K33" t="n">
         <v>3.85</v>
@@ -4876,7 +4876,7 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
         <v>1.23</v>
@@ -4885,13 +4885,13 @@
         <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R33" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T33" t="n">
         <v>1.65</v>
@@ -4906,7 +4906,7 @@
         <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y33" t="n">
         <v>12</v>
@@ -4915,13 +4915,13 @@
         <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>10.5</v>
@@ -4948,7 +4948,7 @@
         <v>42</v>
       </c>
       <c r="AL33" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM33" t="n">
         <v>65</v>
@@ -4957,7 +4957,7 @@
         <v>36</v>
       </c>
       <c r="AO33" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I34" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="J34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.28</v>
@@ -5017,7 +5017,7 @@
         <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q34" t="n">
         <v>1.54</v>
@@ -5029,16 +5029,16 @@
         <v>2.32</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U34" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V34" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X34" t="n">
         <v>26</v>
@@ -5062,13 +5062,13 @@
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF34" t="n">
         <v>38</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH34" t="n">
         <v>15.5</v>
@@ -5080,10 +5080,10 @@
         <v>85</v>
       </c>
       <c r="AK34" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="n">
         <v>55</v>
@@ -5092,7 +5092,7 @@
         <v>30</v>
       </c>
       <c r="AO34" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G35" t="n">
         <v>3.45</v>
       </c>
-      <c r="G35" t="n">
-        <v>3.5</v>
-      </c>
       <c r="H35" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I35" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -5140,22 +5140,22 @@
         <v>3.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
         <v>1.45</v>
@@ -5167,16 +5167,16 @@
         <v>1.7</v>
       </c>
       <c r="U35" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W35" t="n">
         <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y35" t="n">
         <v>11</v>
@@ -5191,7 +5191,7 @@
         <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
         <v>10.5</v>
@@ -5224,7 +5224,7 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO35" t="n">
         <v>15</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="G36" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="H36" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="I36" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R36" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T36" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U36" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V36" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W36" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="X36" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
         <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD36" t="n">
         <v>12</v>
       </c>
       <c r="AE36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF36" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
         <v>38</v>
       </c>
       <c r="AM36" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
         <v>22</v>
       </c>
       <c r="AO36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="G37" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="H37" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="I37" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J37" t="n">
         <v>4.9</v>
       </c>
       <c r="K37" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R37" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="S37" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T37" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U37" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W37" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="n">
         <v>32</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA37" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
         <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG37" t="n">
         <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI37" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AK37" t="n">
         <v>13.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H38" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="J38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K38" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.55</v>
       </c>
       <c r="L38" t="n">
         <v>1.42</v>
@@ -5557,13 +5557,13 @@
         <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S38" t="n">
         <v>3.35</v>
@@ -5572,58 +5572,58 @@
         <v>1.72</v>
       </c>
       <c r="U38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W38" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
         <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC38" t="n">
         <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF38" t="n">
         <v>19</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI38" t="n">
         <v>38</v>
       </c>
       <c r="AJ38" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL38" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="n">
         <v>80</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="n">
         <v>10.5</v>
       </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
       <c r="J39" t="n">
+        <v>7</v>
+      </c>
+      <c r="K39" t="n">
         <v>7.2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.19</v>
@@ -5692,31 +5692,31 @@
         <v>1.09</v>
       </c>
       <c r="P39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S39" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="T39" t="n">
         <v>1.63</v>
       </c>
       <c r="U39" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V39" t="n">
         <v>1.1</v>
       </c>
       <c r="W39" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="X39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y39" t="n">
         <v>65</v>
@@ -5725,7 +5725,7 @@
         <v>120</v>
       </c>
       <c r="AA39" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AB39" t="n">
         <v>18.5</v>
@@ -5734,22 +5734,22 @@
         <v>18</v>
       </c>
       <c r="AD39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF39" t="n">
         <v>13</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
         <v>13</v>
@@ -5764,10 +5764,10 @@
         <v>70</v>
       </c>
       <c r="AN39" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AO39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -5803,16 +5803,16 @@
         <v>1.06</v>
       </c>
       <c r="H40" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I40" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L40" t="n">
         <v>1.13</v>
@@ -5821,7 +5821,7 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
         <v>1.06</v>
@@ -5833,13 +5833,13 @@
         <v>1.2</v>
       </c>
       <c r="R40" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="S40" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="T40" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U40" t="n">
         <v>1.46</v>
@@ -5848,13 +5848,13 @@
         <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X40" t="n">
         <v>90</v>
       </c>
       <c r="Y40" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,13 +5863,13 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AD40" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5878,28 +5878,28 @@
         <v>11.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH40" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="n">
         <v>990</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK40" t="n">
         <v>23</v>
       </c>
       <c r="AL40" t="n">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="AM40" t="n">
         <v>410</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AO40" t="n">
         <v>990</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I41" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J41" t="n">
         <v>4.1</v>
@@ -5959,31 +5959,31 @@
         <v>5.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
         <v>2.48</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R41" t="n">
         <v>1.59</v>
       </c>
       <c r="S41" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T41" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U41" t="n">
         <v>2.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X41" t="n">
         <v>22</v>
@@ -5995,7 +5995,7 @@
         <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB41" t="n">
         <v>21</v>
@@ -6007,7 +6007,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF41" t="n">
         <v>36</v>
@@ -6016,7 +6016,7 @@
         <v>17</v>
       </c>
       <c r="AH41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
         <v>25</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G42" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
@@ -6079,19 +6079,19 @@
         <v>4.2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="K42" t="n">
         <v>2.82</v>
       </c>
       <c r="L42" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M42" t="n">
         <v>1.19</v>
       </c>
       <c r="N42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.79</v>
@@ -6112,22 +6112,22 @@
         <v>2.54</v>
       </c>
       <c r="U42" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V42" t="n">
         <v>1.32</v>
       </c>
       <c r="W42" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X42" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA42" t="n">
         <v>500</v>
@@ -6139,7 +6139,7 @@
         <v>6.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AE42" t="n">
         <v>500</v>
@@ -6157,10 +6157,10 @@
         <v>500</v>
       </c>
       <c r="AJ42" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK42" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL42" t="n">
         <v>460</v>
@@ -6172,7 +6172,7 @@
         <v>60</v>
       </c>
       <c r="AO42" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G43" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H43" t="n">
+        <v>20</v>
+      </c>
+      <c r="I43" t="n">
         <v>21</v>
       </c>
-      <c r="I43" t="n">
-        <v>22</v>
-      </c>
       <c r="J43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K43" t="n">
         <v>11</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.16</v>
@@ -6226,55 +6226,55 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P43" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R43" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="S43" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="T43" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W43" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="X43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="n">
         <v>110</v>
       </c>
       <c r="Z43" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD43" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE43" t="n">
         <v>300</v>
@@ -6283,7 +6283,7 @@
         <v>12.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH43" t="n">
         <v>38</v>
@@ -6301,13 +6301,13 @@
         <v>30</v>
       </c>
       <c r="AM43" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="AO43" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
@@ -6337,109 +6337,109 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I44" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S44" t="n">
         <v>5.6</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4.8</v>
-      </c>
       <c r="T44" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="V44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X44" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y44" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA44" t="n">
         <v>900</v>
       </c>
       <c r="AB44" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE44" t="n">
         <v>260</v>
       </c>
       <c r="AF44" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
         <v>500</v>
       </c>
       <c r="AJ44" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK44" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AM44" t="n">
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO44" t="n">
         <v>500</v>
@@ -6472,58 +6472,58 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G45" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H45" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I45" t="n">
         <v>8.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="O45" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="P45" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="R45" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S45" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T45" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="U45" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="V45" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W45" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X45" t="n">
         <v>23</v>
@@ -6532,25 +6532,25 @@
         <v>970</v>
       </c>
       <c r="Z45" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC45" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD45" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AE45" t="n">
         <v>190</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG45" t="n">
         <v>22</v>
@@ -6574,7 +6574,7 @@
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6610,7 +6610,7 @@
         <v>2.62</v>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
@@ -6631,19 +6631,19 @@
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
         <v>1.63</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R46" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6691,7 +6691,7 @@
         <v>13</v>
       </c>
       <c r="AH46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI46" t="n">
         <v>160</v>
@@ -6772,13 +6772,13 @@
         <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S47" t="n">
         <v>4.6</v>
@@ -6787,7 +6787,7 @@
         <v>2.06</v>
       </c>
       <c r="U47" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V47" t="n">
         <v>1.23</v>
@@ -6838,7 +6838,7 @@
         <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM47" t="n">
         <v>170</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G48" t="n">
         <v>3.3</v>
@@ -6904,7 +6904,7 @@
         <v>3.3</v>
       </c>
       <c r="O48" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P48" t="n">
         <v>1.75</v>
@@ -6934,10 +6934,10 @@
         <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z48" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA48" t="n">
         <v>150</v>
@@ -7021,7 +7021,7 @@
         <v>3.85</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
         <v>3.15</v>
@@ -7030,7 +7030,7 @@
         <v>3.25</v>
       </c>
       <c r="L49" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M49" t="n">
         <v>1.13</v>
@@ -7042,10 +7042,10 @@
         <v>1.55</v>
       </c>
       <c r="P49" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R49" t="n">
         <v>1.2</v>
@@ -7060,19 +7060,19 @@
         <v>1.79</v>
       </c>
       <c r="V49" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W49" t="n">
         <v>1.75</v>
       </c>
       <c r="X49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y49" t="n">
         <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="n">
         <v>270</v>
@@ -7090,7 +7090,7 @@
         <v>160</v>
       </c>
       <c r="AF49" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG49" t="n">
         <v>12</v>
@@ -7105,7 +7105,7 @@
         <v>48</v>
       </c>
       <c r="AK49" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="n">
         <v>140</v>
@@ -7189,10 +7189,10 @@
         <v>4.5</v>
       </c>
       <c r="T50" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V50" t="n">
         <v>1.2</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G51" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H51" t="n">
         <v>5.1</v>
       </c>
       <c r="I51" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J51" t="n">
         <v>3.55</v>
@@ -7306,10 +7306,10 @@
         <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O51" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P51" t="n">
         <v>1.71</v>
@@ -7321,13 +7321,13 @@
         <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T51" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U51" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V51" t="n">
         <v>1.22</v>
@@ -7348,10 +7348,10 @@
         <v>500</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC51" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD51" t="n">
         <v>150</v>
@@ -7384,7 +7384,7 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO51" t="n">
         <v>500</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G52" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H52" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J52" t="n">
         <v>4.2</v>
       </c>
       <c r="K52" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.49</v>
@@ -7447,52 +7447,52 @@
         <v>1.43</v>
       </c>
       <c r="P52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q52" t="n">
         <v>2.3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S52" t="n">
         <v>4.5</v>
       </c>
       <c r="T52" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U52" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V52" t="n">
         <v>1.12</v>
       </c>
       <c r="W52" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="X52" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z52" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AA52" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="AB52" t="n">
         <v>6.2</v>
       </c>
       <c r="AC52" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
         <v>7.6</v>
@@ -7504,25 +7504,25 @@
         <v>34</v>
       </c>
       <c r="AI52" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AJ52" t="n">
         <v>13.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL52" t="n">
         <v>60</v>
       </c>
       <c r="AM52" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN52" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO52" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
@@ -7582,7 +7582,7 @@
         <v>1.4</v>
       </c>
       <c r="P53" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q53" t="n">
         <v>2.24</v>
@@ -7732,7 +7732,7 @@
         <v>1.9</v>
       </c>
       <c r="U54" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V54" t="n">
         <v>1.6</v>
@@ -7957,28 +7957,28 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H56" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="I56" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K56" t="n">
         <v>3.25</v>
       </c>
       <c r="L56" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N56" t="n">
         <v>2.68</v>
@@ -7990,7 +7990,7 @@
         <v>1.53</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R56" t="n">
         <v>1.19</v>
@@ -7999,28 +7999,28 @@
         <v>5.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U56" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="V56" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W56" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X56" t="n">
-        <v>16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y56" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z56" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AB56" t="n">
         <v>21</v>
@@ -8032,7 +8032,7 @@
         <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF56" t="n">
         <v>80</v>
@@ -8041,7 +8041,7 @@
         <v>38</v>
       </c>
       <c r="AH56" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI56" t="n">
         <v>290</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G57" t="n">
         <v>1.45</v>
@@ -8101,103 +8101,103 @@
         <v>10.5</v>
       </c>
       <c r="I57" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J57" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K57" t="n">
         <v>4.9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P57" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="U57" t="n">
         <v>1.58</v>
       </c>
       <c r="V57" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W57" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X57" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z57" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AC57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG57" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD57" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE57" t="n">
+      <c r="AH57" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI57" t="n">
         <v>330</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>280</v>
       </c>
       <c r="AJ57" t="n">
         <v>12</v>
       </c>
       <c r="AK57" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL57" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AM57" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="AN57" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AO57" t="n">
-        <v>640</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
@@ -8245,7 +8245,7 @@
         <v>3.45</v>
       </c>
       <c r="L58" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M58" t="n">
         <v>1.11</v>
@@ -8254,25 +8254,25 @@
         <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P58" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R58" t="n">
         <v>1.24</v>
       </c>
       <c r="S58" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T58" t="n">
         <v>2.1</v>
       </c>
       <c r="U58" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V58" t="n">
         <v>1.96</v>
@@ -8281,7 +8281,7 @@
         <v>1.26</v>
       </c>
       <c r="X58" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y58" t="n">
         <v>7.2</v>
@@ -8311,7 +8311,7 @@
         <v>19</v>
       </c>
       <c r="AH58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI58" t="n">
         <v>55</v>
@@ -8329,7 +8329,7 @@
         <v>170</v>
       </c>
       <c r="AN58" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO58" t="n">
         <v>21</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G59" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I59" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J59" t="n">
         <v>2.84</v>
@@ -8386,13 +8386,13 @@
         <v>1.18</v>
       </c>
       <c r="N59" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O59" t="n">
         <v>1.75</v>
       </c>
       <c r="P59" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q59" t="n">
         <v>3.4</v>
@@ -8410,37 +8410,37 @@
         <v>1.64</v>
       </c>
       <c r="V59" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W59" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X59" t="n">
         <v>6.8</v>
       </c>
       <c r="Y59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>880</v>
+      </c>
+      <c r="AB59" t="n">
         <v>7.6</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>7.4</v>
       </c>
       <c r="AC59" t="n">
         <v>6.8</v>
       </c>
       <c r="AD59" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>590</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG59" t="n">
         <v>16.5</v>
@@ -8452,10 +8452,10 @@
         <v>120</v>
       </c>
       <c r="AJ59" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK59" t="n">
         <v>65</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>310</v>
       </c>
       <c r="AL59" t="n">
         <v>110</v>
@@ -8464,7 +8464,7 @@
         <v>310</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO59" t="n">
         <v>120</v>
@@ -8515,7 +8515,7 @@
         <v>3.1</v>
       </c>
       <c r="L60" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M60" t="n">
         <v>1.14</v>
@@ -8524,25 +8524,25 @@
         <v>2.62</v>
       </c>
       <c r="O60" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P60" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R60" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S60" t="n">
         <v>5.7</v>
       </c>
       <c r="T60" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U60" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V60" t="n">
         <v>1.62</v>
@@ -8554,7 +8554,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y60" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z60" t="n">
         <v>15</v>
@@ -8590,7 +8590,7 @@
         <v>85</v>
       </c>
       <c r="AK60" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL60" t="n">
         <v>100</v>
@@ -8632,112 +8632,112 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G61" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="H61" t="n">
-        <v>7.2</v>
+        <v>1.09</v>
       </c>
       <c r="I61" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="J61" t="n">
         <v>4.3</v>
       </c>
       <c r="K61" t="n">
-        <v>14.5</v>
+        <v>6.6</v>
       </c>
       <c r="L61" t="n">
         <v>1.28</v>
       </c>
       <c r="M61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="O61" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P61" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q61" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R61" t="n">
         <v>1.5</v>
       </c>
-      <c r="R61" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S61" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U61" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V61" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W61" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-28.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G2" t="n">
         <v>1.47</v>
       </c>
       <c r="H2" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.9</v>
       </c>
-      <c r="K2" t="n">
-        <v>6</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>2.54</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
         <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="AD2" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
       <c r="AH2" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>790</v>
+        <v>320</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.7</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="G3" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="H3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>4.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>550</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
         <v>28</v>
       </c>
-      <c r="Y3" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>240</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL3" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.8</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
@@ -937,91 +937,91 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>130</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>500</v>
@@ -1033,7 +1033,7 @@
         <v>500</v>
       </c>
       <c r="AL4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
@@ -1042,7 +1042,7 @@
         <v>600</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1096,52 +1096,52 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
         <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1156,28 +1156,28 @@
         <v>17.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>150</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
         <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,94 +1207,94 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="G6" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="I6" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AC6" t="n">
         <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>970</v>
       </c>
       <c r="AF6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>6.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.4</v>
@@ -1375,28 +1375,28 @@
         <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>2.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1420,16 +1420,16 @@
         <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
         <v>900</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8">
@@ -1486,16 +1486,16 @@
         <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
         <v>7.2</v>
       </c>
       <c r="K8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1504,13 +1504,13 @@
         <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
         <v>1.51</v>
@@ -1522,7 +1522,7 @@
         <v>2.7</v>
       </c>
       <c r="U8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="V8" t="n">
         <v>1.03</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
         <v>22</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>70</v>
@@ -1570,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
         <v>80</v>
@@ -1579,7 +1579,7 @@
         <v>520</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
         <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>3.45</v>
@@ -1636,46 +1636,46 @@
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O9" t="n">
         <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
         <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="n">
         <v>9.6</v>
@@ -1693,7 +1693,7 @@
         <v>18.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
@@ -1705,16 +1705,16 @@
         <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="G10" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="I10" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.87</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>9.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
         <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="AK10" t="n">
+        <v>260</v>
+      </